--- a/ExcelTemplate/hoiku/請求書_指定B.xlsx
+++ b/ExcelTemplate/hoiku/請求書_指定B.xlsx
@@ -392,19 +392,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -482,17 +469,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -584,11 +560,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -613,154 +619,153 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1160,19 +1165,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
+      <c r="A1" s="38"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
       <c r="F1" s="4"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
       <c r="N1" s="4"/>
@@ -1182,38 +1187,38 @@
       <c r="R1" s="4"/>
     </row>
     <row r="2" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="44" t="s">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="4"/>
       <c r="O2" s="5"/>
       <c r="P2" s="4"/>
-      <c r="Q2" s="55" t="s">
+      <c r="Q2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="55"/>
+      <c r="R2" s="53"/>
     </row>
     <row r="3" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -1222,223 +1227,207 @@
       <c r="N3" s="4"/>
       <c r="O3" s="5"/>
       <c r="P3" s="4"/>
-      <c r="Q3" s="56" t="s">
+      <c r="Q3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="56"/>
+      <c r="R3" s="54"/>
     </row>
     <row r="4" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="39" t="s">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="43" t="s">
+      <c r="E4" s="46"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="40"/>
-      <c r="J4" s="41">
+      <c r="I4" s="46"/>
+      <c r="J4" s="42">
         <f>ROUND(F4*0.08,0)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="42"/>
-      <c r="L4" s="39" t="s">
+      <c r="K4" s="43"/>
+      <c r="L4" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="40"/>
-      <c r="N4" s="41">
+      <c r="M4" s="46"/>
+      <c r="N4" s="42">
         <f>F4+J4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="42"/>
+      <c r="O4" s="43"/>
       <c r="P4" s="4"/>
-      <c r="Q4" s="51" t="s">
+      <c r="Q4" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="51"/>
+      <c r="R4" s="41"/>
     </row>
     <row r="5" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="42"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="43"/>
       <c r="P5" s="4"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
     </row>
     <row r="6" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
       <c r="P6" s="9"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
     </row>
     <row r="7" spans="1:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="52" t="s">
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="50" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="57">
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="51"/>
+    </row>
+    <row r="9" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57">
-        <v>11</v>
-      </c>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57">
-        <v>111</v>
-      </c>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57">
-        <v>11111</v>
-      </c>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57">
-        <v>1111</v>
-      </c>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57">
-        <v>111</v>
-      </c>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57">
-        <v>11111</v>
-      </c>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="53"/>
-    </row>
-    <row r="9" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="I9" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="29" t="s">
+      <c r="J9" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="30" t="s">
+      <c r="K9" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="29" t="s">
+      <c r="L9" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="30" t="s">
+      <c r="M9" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="29" t="s">
+      <c r="N9" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="O9" s="30" t="s">
+      <c r="O9" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="29" t="s">
+      <c r="P9" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="Q9" s="31" t="s">
+      <c r="Q9" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="R9" s="54"/>
-    </row>
-    <row r="10" spans="1:18" s="32" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="35"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="33"/>
+      <c r="R9" s="52"/>
+    </row>
+    <row r="10" spans="1:18" s="29" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="32"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="30"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A11" s="26" t="str">
+      <c r="A11" s="23" t="str">
         <f t="shared" ref="A11:A25" si="0">SUBSTITUTE(MID(SUBSTITUTE($A$4," ",""),6,10),"月分","/")&amp;(ROW()-10)</f>
         <v>1</v>
       </c>
@@ -1482,1582 +1471,1582 @@
         <f t="shared" ref="Q11:Q16" si="8">IF(P$8*P11=0,"",P$8*P11)</f>
         <v/>
       </c>
-      <c r="R11" s="13">
-        <f>SUM(C11,E11,G11,I11,K11,M11,O11,Q11)</f>
-        <v>0</v>
+      <c r="R11" s="62" t="str">
+        <f>IF(SUM(C11,E11,G11,I11,K11,M11,O11,Q11)=0,"",SUM(C11,E11,G11,I11,K11,M11,O11,Q11))</f>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A12" s="27" t="str">
+      <c r="A12" s="24" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15" t="str">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15" t="str">
+      <c r="D12" s="13"/>
+      <c r="E12" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15" t="str">
+      <c r="F12" s="13"/>
+      <c r="G12" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15" t="str">
+      <c r="H12" s="13"/>
+      <c r="I12" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J12" s="14"/>
-      <c r="K12" s="15" t="str">
+      <c r="J12" s="13"/>
+      <c r="K12" s="14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L12" s="14"/>
-      <c r="M12" s="15" t="str">
+      <c r="L12" s="13"/>
+      <c r="M12" s="14" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N12" s="14"/>
-      <c r="O12" s="15" t="str">
+      <c r="N12" s="13"/>
+      <c r="O12" s="14" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="16" t="str">
+      <c r="P12" s="13"/>
+      <c r="Q12" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="R12" s="17">
-        <f t="shared" ref="R12:R41" si="9">SUM(C12,E12,G12,I12,K12,M12,O12,Q12)</f>
-        <v>0</v>
+      <c r="R12" s="16" t="str">
+        <f t="shared" ref="R12:R41" si="9">IF(SUM(C12,E12,G12,I12,K12,M12,O12,Q12)=0,"",SUM(C12,E12,G12,I12,K12,M12,O12,Q12))</f>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13" s="27" t="str">
+      <c r="A13" s="24" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15" t="str">
+      <c r="B13" s="13"/>
+      <c r="C13" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15" t="str">
+      <c r="D13" s="13"/>
+      <c r="E13" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15" t="str">
+      <c r="F13" s="13"/>
+      <c r="G13" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="15" t="str">
+      <c r="H13" s="13"/>
+      <c r="I13" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J13" s="14"/>
-      <c r="K13" s="15" t="str">
+      <c r="J13" s="13"/>
+      <c r="K13" s="14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L13" s="14"/>
-      <c r="M13" s="15" t="str">
+      <c r="L13" s="13"/>
+      <c r="M13" s="14" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N13" s="14"/>
-      <c r="O13" s="15" t="str">
+      <c r="N13" s="13"/>
+      <c r="O13" s="14" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="16" t="str">
+      <c r="P13" s="13"/>
+      <c r="Q13" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="R13" s="17">
+      <c r="R13" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A14" s="27" t="str">
+      <c r="A14" s="24" t="str">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15" t="str">
+      <c r="B14" s="13"/>
+      <c r="C14" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15" t="str">
+      <c r="D14" s="13"/>
+      <c r="E14" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15" t="str">
+      <c r="F14" s="13"/>
+      <c r="G14" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="15" t="str">
+      <c r="H14" s="13"/>
+      <c r="I14" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="14"/>
-      <c r="K14" s="15" t="str">
+      <c r="J14" s="13"/>
+      <c r="K14" s="14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L14" s="14"/>
-      <c r="M14" s="15" t="str">
+      <c r="L14" s="13"/>
+      <c r="M14" s="14" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N14" s="14"/>
-      <c r="O14" s="15" t="str">
+      <c r="N14" s="13"/>
+      <c r="O14" s="14" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="16" t="str">
+      <c r="P14" s="13"/>
+      <c r="Q14" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="R14" s="17">
+      <c r="R14" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="27" t="str">
+      <c r="A15" s="24" t="str">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15" t="str">
+      <c r="B15" s="13"/>
+      <c r="C15" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15" t="str">
+      <c r="D15" s="13"/>
+      <c r="E15" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15" t="str">
+      <c r="F15" s="13"/>
+      <c r="G15" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15" t="str">
+      <c r="H15" s="13"/>
+      <c r="I15" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J15" s="14"/>
-      <c r="K15" s="15" t="str">
+      <c r="J15" s="13"/>
+      <c r="K15" s="14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="14"/>
-      <c r="M15" s="15" t="str">
+      <c r="L15" s="13"/>
+      <c r="M15" s="14" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N15" s="14"/>
-      <c r="O15" s="15" t="str">
+      <c r="N15" s="13"/>
+      <c r="O15" s="14" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="16" t="str">
+      <c r="P15" s="13"/>
+      <c r="Q15" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="R15" s="17">
+      <c r="R15" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="27" t="str">
+      <c r="A16" s="24" t="str">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15" t="str">
+      <c r="B16" s="13"/>
+      <c r="C16" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15" t="str">
+      <c r="D16" s="13"/>
+      <c r="E16" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="15" t="str">
+      <c r="F16" s="13"/>
+      <c r="G16" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="15" t="str">
+      <c r="H16" s="13"/>
+      <c r="I16" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J16" s="14"/>
-      <c r="K16" s="15" t="str">
+      <c r="J16" s="13"/>
+      <c r="K16" s="14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L16" s="14"/>
-      <c r="M16" s="15" t="str">
+      <c r="L16" s="13"/>
+      <c r="M16" s="14" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N16" s="14"/>
-      <c r="O16" s="15" t="str">
+      <c r="N16" s="13"/>
+      <c r="O16" s="14" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="16" t="str">
+      <c r="P16" s="13"/>
+      <c r="Q16" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="R16" s="17">
+      <c r="R16" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A17" s="27" t="str">
+      <c r="A17" s="24" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15" t="str">
+      <c r="B17" s="13"/>
+      <c r="C17" s="14" t="str">
         <f t="shared" ref="C17:E41" si="10">IF(B$8*B17=0,"",B$8*B17)</f>
         <v/>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15" t="str">
+      <c r="D17" s="13"/>
+      <c r="E17" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="14" t="str">
         <f t="shared" ref="G17" si="11">IF(F$8*F17=0,"",F$8*F17)</f>
         <v/>
       </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15" t="str">
+      <c r="H17" s="13"/>
+      <c r="I17" s="14" t="str">
         <f t="shared" ref="I17" si="12">IF(H$8*H17=0,"",H$8*H17)</f>
         <v/>
       </c>
-      <c r="J17" s="14"/>
-      <c r="K17" s="15" t="str">
+      <c r="J17" s="13"/>
+      <c r="K17" s="14" t="str">
         <f t="shared" ref="K17" si="13">IF(J$8*J17=0,"",J$8*J17)</f>
         <v/>
       </c>
-      <c r="L17" s="14"/>
-      <c r="M17" s="15" t="str">
+      <c r="L17" s="13"/>
+      <c r="M17" s="14" t="str">
         <f t="shared" ref="M17" si="14">IF(L$8*L17=0,"",L$8*L17)</f>
         <v/>
       </c>
-      <c r="N17" s="14"/>
-      <c r="O17" s="15" t="str">
+      <c r="N17" s="13"/>
+      <c r="O17" s="14" t="str">
         <f t="shared" ref="O17" si="15">IF(N$8*N17=0,"",N$8*N17)</f>
         <v/>
       </c>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="16" t="str">
+      <c r="P17" s="13"/>
+      <c r="Q17" s="15" t="str">
         <f t="shared" ref="Q17" si="16">IF(P$8*P17=0,"",P$8*P17)</f>
         <v/>
       </c>
-      <c r="R17" s="17">
+      <c r="R17" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A18" s="27" t="str">
+      <c r="A18" s="24" t="str">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15" t="str">
+      <c r="B18" s="13"/>
+      <c r="C18" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="14" t="str">
         <f t="shared" ref="G18" si="17">IF(F$8*F18=0,"",F$8*F18)</f>
         <v/>
       </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="15" t="str">
+      <c r="H18" s="13"/>
+      <c r="I18" s="14" t="str">
         <f t="shared" ref="I18" si="18">IF(H$8*H18=0,"",H$8*H18)</f>
         <v/>
       </c>
-      <c r="J18" s="14"/>
-      <c r="K18" s="15" t="str">
+      <c r="J18" s="13"/>
+      <c r="K18" s="14" t="str">
         <f t="shared" ref="K18" si="19">IF(J$8*J18=0,"",J$8*J18)</f>
         <v/>
       </c>
-      <c r="L18" s="14"/>
-      <c r="M18" s="15" t="str">
+      <c r="L18" s="13"/>
+      <c r="M18" s="14" t="str">
         <f t="shared" ref="M18" si="20">IF(L$8*L18=0,"",L$8*L18)</f>
         <v/>
       </c>
-      <c r="N18" s="14"/>
-      <c r="O18" s="15" t="str">
+      <c r="N18" s="13"/>
+      <c r="O18" s="14" t="str">
         <f t="shared" ref="O18" si="21">IF(N$8*N18=0,"",N$8*N18)</f>
         <v/>
       </c>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="16" t="str">
+      <c r="P18" s="13"/>
+      <c r="Q18" s="15" t="str">
         <f t="shared" ref="Q18" si="22">IF(P$8*P18=0,"",P$8*P18)</f>
         <v/>
       </c>
-      <c r="R18" s="17">
+      <c r="R18" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A19" s="27" t="str">
+      <c r="A19" s="24" t="str">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15" t="str">
+      <c r="B19" s="13"/>
+      <c r="C19" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="14" t="str">
         <f t="shared" ref="G19" si="23">IF(F$8*F19=0,"",F$8*F19)</f>
         <v/>
       </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="15" t="str">
+      <c r="H19" s="13"/>
+      <c r="I19" s="14" t="str">
         <f t="shared" ref="I19" si="24">IF(H$8*H19=0,"",H$8*H19)</f>
         <v/>
       </c>
-      <c r="J19" s="14"/>
-      <c r="K19" s="15" t="str">
+      <c r="J19" s="13"/>
+      <c r="K19" s="14" t="str">
         <f t="shared" ref="K19" si="25">IF(J$8*J19=0,"",J$8*J19)</f>
         <v/>
       </c>
-      <c r="L19" s="14"/>
-      <c r="M19" s="15" t="str">
+      <c r="L19" s="13"/>
+      <c r="M19" s="14" t="str">
         <f t="shared" ref="M19" si="26">IF(L$8*L19=0,"",L$8*L19)</f>
         <v/>
       </c>
-      <c r="N19" s="14"/>
-      <c r="O19" s="15" t="str">
+      <c r="N19" s="13"/>
+      <c r="O19" s="14" t="str">
         <f t="shared" ref="O19" si="27">IF(N$8*N19=0,"",N$8*N19)</f>
         <v/>
       </c>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="16" t="str">
+      <c r="P19" s="13"/>
+      <c r="Q19" s="15" t="str">
         <f t="shared" ref="Q19" si="28">IF(P$8*P19=0,"",P$8*P19)</f>
         <v/>
       </c>
-      <c r="R19" s="17">
+      <c r="R19" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A20" s="27" t="str">
+      <c r="A20" s="24" t="str">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15" t="str">
+      <c r="B20" s="13"/>
+      <c r="C20" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="14" t="str">
         <f t="shared" ref="G20" si="29">IF(F$8*F20=0,"",F$8*F20)</f>
         <v/>
       </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="15" t="str">
+      <c r="H20" s="13"/>
+      <c r="I20" s="14" t="str">
         <f t="shared" ref="I20" si="30">IF(H$8*H20=0,"",H$8*H20)</f>
         <v/>
       </c>
-      <c r="J20" s="14"/>
-      <c r="K20" s="15" t="str">
+      <c r="J20" s="13"/>
+      <c r="K20" s="14" t="str">
         <f t="shared" ref="K20" si="31">IF(J$8*J20=0,"",J$8*J20)</f>
         <v/>
       </c>
-      <c r="L20" s="14"/>
-      <c r="M20" s="15" t="str">
+      <c r="L20" s="13"/>
+      <c r="M20" s="14" t="str">
         <f t="shared" ref="M20" si="32">IF(L$8*L20=0,"",L$8*L20)</f>
         <v/>
       </c>
-      <c r="N20" s="14"/>
-      <c r="O20" s="15" t="str">
+      <c r="N20" s="13"/>
+      <c r="O20" s="14" t="str">
         <f t="shared" ref="O20" si="33">IF(N$8*N20=0,"",N$8*N20)</f>
         <v/>
       </c>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="16" t="str">
+      <c r="P20" s="13"/>
+      <c r="Q20" s="15" t="str">
         <f t="shared" ref="Q20" si="34">IF(P$8*P20=0,"",P$8*P20)</f>
         <v/>
       </c>
-      <c r="R20" s="17">
+      <c r="R20" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A21" s="27" t="str">
+      <c r="A21" s="24" t="str">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15" t="str">
+      <c r="B21" s="13"/>
+      <c r="C21" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="14" t="str">
         <f t="shared" ref="G21" si="35">IF(F$8*F21=0,"",F$8*F21)</f>
         <v/>
       </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="15" t="str">
+      <c r="H21" s="13"/>
+      <c r="I21" s="14" t="str">
         <f t="shared" ref="I21" si="36">IF(H$8*H21=0,"",H$8*H21)</f>
         <v/>
       </c>
-      <c r="J21" s="14"/>
-      <c r="K21" s="15" t="str">
+      <c r="J21" s="13"/>
+      <c r="K21" s="14" t="str">
         <f t="shared" ref="K21" si="37">IF(J$8*J21=0,"",J$8*J21)</f>
         <v/>
       </c>
-      <c r="L21" s="14"/>
-      <c r="M21" s="15" t="str">
+      <c r="L21" s="13"/>
+      <c r="M21" s="14" t="str">
         <f t="shared" ref="M21" si="38">IF(L$8*L21=0,"",L$8*L21)</f>
         <v/>
       </c>
-      <c r="N21" s="14"/>
-      <c r="O21" s="15" t="str">
+      <c r="N21" s="13"/>
+      <c r="O21" s="14" t="str">
         <f t="shared" ref="O21" si="39">IF(N$8*N21=0,"",N$8*N21)</f>
         <v/>
       </c>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="16" t="str">
+      <c r="P21" s="13"/>
+      <c r="Q21" s="15" t="str">
         <f t="shared" ref="Q21" si="40">IF(P$8*P21=0,"",P$8*P21)</f>
         <v/>
       </c>
-      <c r="R21" s="17">
+      <c r="R21" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A22" s="27" t="str">
+      <c r="A22" s="24" t="str">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="15" t="str">
+      <c r="B22" s="13"/>
+      <c r="C22" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="14" t="str">
         <f t="shared" ref="G22" si="41">IF(F$8*F22=0,"",F$8*F22)</f>
         <v/>
       </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="15" t="str">
+      <c r="H22" s="13"/>
+      <c r="I22" s="14" t="str">
         <f t="shared" ref="I22" si="42">IF(H$8*H22=0,"",H$8*H22)</f>
         <v/>
       </c>
-      <c r="J22" s="14"/>
-      <c r="K22" s="15" t="str">
+      <c r="J22" s="13"/>
+      <c r="K22" s="14" t="str">
         <f t="shared" ref="K22" si="43">IF(J$8*J22=0,"",J$8*J22)</f>
         <v/>
       </c>
-      <c r="L22" s="14"/>
-      <c r="M22" s="15" t="str">
+      <c r="L22" s="13"/>
+      <c r="M22" s="14" t="str">
         <f t="shared" ref="M22" si="44">IF(L$8*L22=0,"",L$8*L22)</f>
         <v/>
       </c>
-      <c r="N22" s="14"/>
-      <c r="O22" s="15" t="str">
+      <c r="N22" s="13"/>
+      <c r="O22" s="14" t="str">
         <f t="shared" ref="O22" si="45">IF(N$8*N22=0,"",N$8*N22)</f>
         <v/>
       </c>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="16" t="str">
+      <c r="P22" s="13"/>
+      <c r="Q22" s="15" t="str">
         <f t="shared" ref="Q22" si="46">IF(P$8*P22=0,"",P$8*P22)</f>
         <v/>
       </c>
-      <c r="R22" s="17">
+      <c r="R22" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A23" s="27" t="str">
+      <c r="A23" s="24" t="str">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="15" t="str">
+      <c r="B23" s="13"/>
+      <c r="C23" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="14" t="str">
         <f t="shared" ref="G23" si="47">IF(F$8*F23=0,"",F$8*F23)</f>
         <v/>
       </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="15" t="str">
+      <c r="H23" s="13"/>
+      <c r="I23" s="14" t="str">
         <f t="shared" ref="I23" si="48">IF(H$8*H23=0,"",H$8*H23)</f>
         <v/>
       </c>
-      <c r="J23" s="14"/>
-      <c r="K23" s="15" t="str">
+      <c r="J23" s="13"/>
+      <c r="K23" s="14" t="str">
         <f t="shared" ref="K23" si="49">IF(J$8*J23=0,"",J$8*J23)</f>
         <v/>
       </c>
-      <c r="L23" s="14"/>
-      <c r="M23" s="15" t="str">
+      <c r="L23" s="13"/>
+      <c r="M23" s="14" t="str">
         <f t="shared" ref="M23" si="50">IF(L$8*L23=0,"",L$8*L23)</f>
         <v/>
       </c>
-      <c r="N23" s="14"/>
-      <c r="O23" s="15" t="str">
+      <c r="N23" s="13"/>
+      <c r="O23" s="14" t="str">
         <f t="shared" ref="O23" si="51">IF(N$8*N23=0,"",N$8*N23)</f>
         <v/>
       </c>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="16" t="str">
+      <c r="P23" s="13"/>
+      <c r="Q23" s="15" t="str">
         <f t="shared" ref="Q23" si="52">IF(P$8*P23=0,"",P$8*P23)</f>
         <v/>
       </c>
-      <c r="R23" s="17">
+      <c r="R23" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A24" s="27" t="str">
+      <c r="A24" s="24" t="str">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="15" t="str">
+      <c r="B24" s="13"/>
+      <c r="C24" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="14" t="str">
         <f t="shared" ref="G24" si="53">IF(F$8*F24=0,"",F$8*F24)</f>
         <v/>
       </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="15" t="str">
+      <c r="H24" s="13"/>
+      <c r="I24" s="14" t="str">
         <f t="shared" ref="I24" si="54">IF(H$8*H24=0,"",H$8*H24)</f>
         <v/>
       </c>
-      <c r="J24" s="14"/>
-      <c r="K24" s="15" t="str">
+      <c r="J24" s="13"/>
+      <c r="K24" s="14" t="str">
         <f t="shared" ref="K24" si="55">IF(J$8*J24=0,"",J$8*J24)</f>
         <v/>
       </c>
-      <c r="L24" s="14"/>
-      <c r="M24" s="15" t="str">
+      <c r="L24" s="13"/>
+      <c r="M24" s="14" t="str">
         <f t="shared" ref="M24" si="56">IF(L$8*L24=0,"",L$8*L24)</f>
         <v/>
       </c>
-      <c r="N24" s="14"/>
-      <c r="O24" s="15" t="str">
+      <c r="N24" s="13"/>
+      <c r="O24" s="14" t="str">
         <f t="shared" ref="O24" si="57">IF(N$8*N24=0,"",N$8*N24)</f>
         <v/>
       </c>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="16" t="str">
+      <c r="P24" s="13"/>
+      <c r="Q24" s="15" t="str">
         <f t="shared" ref="Q24" si="58">IF(P$8*P24=0,"",P$8*P24)</f>
         <v/>
       </c>
-      <c r="R24" s="17">
+      <c r="R24" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A25" s="27" t="str">
+      <c r="A25" s="24" t="str">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="15" t="str">
+      <c r="B25" s="13"/>
+      <c r="C25" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F25" s="13"/>
+      <c r="G25" s="14" t="str">
         <f t="shared" ref="G25" si="59">IF(F$8*F25=0,"",F$8*F25)</f>
         <v/>
       </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15" t="str">
+      <c r="H25" s="13"/>
+      <c r="I25" s="14" t="str">
         <f t="shared" ref="I25" si="60">IF(H$8*H25=0,"",H$8*H25)</f>
         <v/>
       </c>
-      <c r="J25" s="14"/>
-      <c r="K25" s="15" t="str">
+      <c r="J25" s="13"/>
+      <c r="K25" s="14" t="str">
         <f t="shared" ref="K25" si="61">IF(J$8*J25=0,"",J$8*J25)</f>
         <v/>
       </c>
-      <c r="L25" s="14"/>
-      <c r="M25" s="15" t="str">
+      <c r="L25" s="13"/>
+      <c r="M25" s="14" t="str">
         <f t="shared" ref="M25" si="62">IF(L$8*L25=0,"",L$8*L25)</f>
         <v/>
       </c>
-      <c r="N25" s="14"/>
-      <c r="O25" s="15" t="str">
+      <c r="N25" s="13"/>
+      <c r="O25" s="14" t="str">
         <f t="shared" ref="O25" si="63">IF(N$8*N25=0,"",N$8*N25)</f>
         <v/>
       </c>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="16" t="str">
+      <c r="P25" s="13"/>
+      <c r="Q25" s="15" t="str">
         <f t="shared" ref="Q25" si="64">IF(P$8*P25=0,"",P$8*P25)</f>
         <v/>
       </c>
-      <c r="R25" s="17">
+      <c r="R25" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A26" s="27" t="str">
+      <c r="A26" s="24" t="str">
         <f t="shared" ref="A26:A41" si="65">SUBSTITUTE(MID(SUBSTITUTE($A$4," ",""),6,10),"月分","/")&amp;(ROW()-10)</f>
         <v>16</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="15" t="str">
+      <c r="B26" s="13"/>
+      <c r="C26" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F26" s="13"/>
+      <c r="G26" s="14" t="str">
         <f t="shared" ref="G26" si="66">IF(F$8*F26=0,"",F$8*F26)</f>
         <v/>
       </c>
-      <c r="H26" s="14"/>
-      <c r="I26" s="15" t="str">
+      <c r="H26" s="13"/>
+      <c r="I26" s="14" t="str">
         <f t="shared" ref="I26" si="67">IF(H$8*H26=0,"",H$8*H26)</f>
         <v/>
       </c>
-      <c r="J26" s="14"/>
-      <c r="K26" s="15" t="str">
+      <c r="J26" s="13"/>
+      <c r="K26" s="14" t="str">
         <f t="shared" ref="K26" si="68">IF(J$8*J26=0,"",J$8*J26)</f>
         <v/>
       </c>
-      <c r="L26" s="14"/>
-      <c r="M26" s="15" t="str">
+      <c r="L26" s="13"/>
+      <c r="M26" s="14" t="str">
         <f t="shared" ref="M26" si="69">IF(L$8*L26=0,"",L$8*L26)</f>
         <v/>
       </c>
-      <c r="N26" s="14"/>
-      <c r="O26" s="15" t="str">
+      <c r="N26" s="13"/>
+      <c r="O26" s="14" t="str">
         <f t="shared" ref="O26" si="70">IF(N$8*N26=0,"",N$8*N26)</f>
         <v/>
       </c>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="16" t="str">
+      <c r="P26" s="13"/>
+      <c r="Q26" s="15" t="str">
         <f t="shared" ref="Q26" si="71">IF(P$8*P26=0,"",P$8*P26)</f>
         <v/>
       </c>
-      <c r="R26" s="17">
+      <c r="R26" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A27" s="27" t="str">
+      <c r="A27" s="24" t="str">
         <f t="shared" si="65"/>
         <v>17</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="15" t="str">
+      <c r="B27" s="13"/>
+      <c r="C27" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F27" s="13"/>
+      <c r="G27" s="14" t="str">
         <f t="shared" ref="G27" si="72">IF(F$8*F27=0,"",F$8*F27)</f>
         <v/>
       </c>
-      <c r="H27" s="14"/>
-      <c r="I27" s="15" t="str">
+      <c r="H27" s="13"/>
+      <c r="I27" s="14" t="str">
         <f t="shared" ref="I27" si="73">IF(H$8*H27=0,"",H$8*H27)</f>
         <v/>
       </c>
-      <c r="J27" s="14"/>
-      <c r="K27" s="15" t="str">
+      <c r="J27" s="13"/>
+      <c r="K27" s="14" t="str">
         <f t="shared" ref="K27" si="74">IF(J$8*J27=0,"",J$8*J27)</f>
         <v/>
       </c>
-      <c r="L27" s="14"/>
-      <c r="M27" s="15" t="str">
+      <c r="L27" s="13"/>
+      <c r="M27" s="14" t="str">
         <f t="shared" ref="M27" si="75">IF(L$8*L27=0,"",L$8*L27)</f>
         <v/>
       </c>
-      <c r="N27" s="14"/>
-      <c r="O27" s="15" t="str">
+      <c r="N27" s="13"/>
+      <c r="O27" s="14" t="str">
         <f t="shared" ref="O27" si="76">IF(N$8*N27=0,"",N$8*N27)</f>
         <v/>
       </c>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="16" t="str">
+      <c r="P27" s="13"/>
+      <c r="Q27" s="15" t="str">
         <f t="shared" ref="Q27" si="77">IF(P$8*P27=0,"",P$8*P27)</f>
         <v/>
       </c>
-      <c r="R27" s="17">
+      <c r="R27" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A28" s="27" t="str">
+      <c r="A28" s="24" t="str">
         <f t="shared" si="65"/>
         <v>18</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F28" s="14"/>
-      <c r="G28" s="15" t="str">
+      <c r="B28" s="13"/>
+      <c r="C28" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F28" s="13"/>
+      <c r="G28" s="14" t="str">
         <f t="shared" ref="G28" si="78">IF(F$8*F28=0,"",F$8*F28)</f>
         <v/>
       </c>
-      <c r="H28" s="14"/>
-      <c r="I28" s="15" t="str">
+      <c r="H28" s="13"/>
+      <c r="I28" s="14" t="str">
         <f t="shared" ref="I28" si="79">IF(H$8*H28=0,"",H$8*H28)</f>
         <v/>
       </c>
-      <c r="J28" s="14"/>
-      <c r="K28" s="15" t="str">
+      <c r="J28" s="13"/>
+      <c r="K28" s="14" t="str">
         <f t="shared" ref="K28" si="80">IF(J$8*J28=0,"",J$8*J28)</f>
         <v/>
       </c>
-      <c r="L28" s="14"/>
-      <c r="M28" s="15" t="str">
+      <c r="L28" s="13"/>
+      <c r="M28" s="14" t="str">
         <f t="shared" ref="M28" si="81">IF(L$8*L28=0,"",L$8*L28)</f>
         <v/>
       </c>
-      <c r="N28" s="14"/>
-      <c r="O28" s="15" t="str">
+      <c r="N28" s="13"/>
+      <c r="O28" s="14" t="str">
         <f t="shared" ref="O28" si="82">IF(N$8*N28=0,"",N$8*N28)</f>
         <v/>
       </c>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="16" t="str">
+      <c r="P28" s="13"/>
+      <c r="Q28" s="15" t="str">
         <f t="shared" ref="Q28" si="83">IF(P$8*P28=0,"",P$8*P28)</f>
         <v/>
       </c>
-      <c r="R28" s="17">
+      <c r="R28" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A29" s="27" t="str">
+      <c r="A29" s="24" t="str">
         <f t="shared" si="65"/>
         <v>19</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="15" t="str">
+      <c r="B29" s="13"/>
+      <c r="C29" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F29" s="13"/>
+      <c r="G29" s="14" t="str">
         <f t="shared" ref="G29" si="84">IF(F$8*F29=0,"",F$8*F29)</f>
         <v/>
       </c>
-      <c r="H29" s="14"/>
-      <c r="I29" s="15" t="str">
+      <c r="H29" s="13"/>
+      <c r="I29" s="14" t="str">
         <f t="shared" ref="I29" si="85">IF(H$8*H29=0,"",H$8*H29)</f>
         <v/>
       </c>
-      <c r="J29" s="14"/>
-      <c r="K29" s="15" t="str">
+      <c r="J29" s="13"/>
+      <c r="K29" s="14" t="str">
         <f t="shared" ref="K29" si="86">IF(J$8*J29=0,"",J$8*J29)</f>
         <v/>
       </c>
-      <c r="L29" s="14"/>
-      <c r="M29" s="15" t="str">
+      <c r="L29" s="13"/>
+      <c r="M29" s="14" t="str">
         <f t="shared" ref="M29" si="87">IF(L$8*L29=0,"",L$8*L29)</f>
         <v/>
       </c>
-      <c r="N29" s="14"/>
-      <c r="O29" s="15" t="str">
+      <c r="N29" s="13"/>
+      <c r="O29" s="14" t="str">
         <f t="shared" ref="O29" si="88">IF(N$8*N29=0,"",N$8*N29)</f>
         <v/>
       </c>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="16" t="str">
+      <c r="P29" s="13"/>
+      <c r="Q29" s="15" t="str">
         <f t="shared" ref="Q29" si="89">IF(P$8*P29=0,"",P$8*P29)</f>
         <v/>
       </c>
-      <c r="R29" s="17">
+      <c r="R29" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A30" s="27" t="str">
+      <c r="A30" s="24" t="str">
         <f t="shared" si="65"/>
         <v>20</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="15" t="str">
+      <c r="B30" s="13"/>
+      <c r="C30" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D30" s="13"/>
+      <c r="E30" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F30" s="13"/>
+      <c r="G30" s="14" t="str">
         <f t="shared" ref="G30" si="90">IF(F$8*F30=0,"",F$8*F30)</f>
         <v/>
       </c>
-      <c r="H30" s="14"/>
-      <c r="I30" s="15" t="str">
+      <c r="H30" s="13"/>
+      <c r="I30" s="14" t="str">
         <f t="shared" ref="I30" si="91">IF(H$8*H30=0,"",H$8*H30)</f>
         <v/>
       </c>
-      <c r="J30" s="14"/>
-      <c r="K30" s="15" t="str">
+      <c r="J30" s="13"/>
+      <c r="K30" s="14" t="str">
         <f t="shared" ref="K30" si="92">IF(J$8*J30=0,"",J$8*J30)</f>
         <v/>
       </c>
-      <c r="L30" s="14"/>
-      <c r="M30" s="15" t="str">
+      <c r="L30" s="13"/>
+      <c r="M30" s="14" t="str">
         <f t="shared" ref="M30" si="93">IF(L$8*L30=0,"",L$8*L30)</f>
         <v/>
       </c>
-      <c r="N30" s="14"/>
-      <c r="O30" s="15" t="str">
+      <c r="N30" s="13"/>
+      <c r="O30" s="14" t="str">
         <f t="shared" ref="O30" si="94">IF(N$8*N30=0,"",N$8*N30)</f>
         <v/>
       </c>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="16" t="str">
+      <c r="P30" s="13"/>
+      <c r="Q30" s="15" t="str">
         <f t="shared" ref="Q30" si="95">IF(P$8*P30=0,"",P$8*P30)</f>
         <v/>
       </c>
-      <c r="R30" s="17">
+      <c r="R30" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A31" s="27" t="str">
+      <c r="A31" s="24" t="str">
         <f t="shared" si="65"/>
         <v>21</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="15" t="str">
+      <c r="B31" s="13"/>
+      <c r="C31" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D31" s="13"/>
+      <c r="E31" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F31" s="13"/>
+      <c r="G31" s="14" t="str">
         <f t="shared" ref="G31" si="96">IF(F$8*F31=0,"",F$8*F31)</f>
         <v/>
       </c>
-      <c r="H31" s="14"/>
-      <c r="I31" s="15" t="str">
+      <c r="H31" s="13"/>
+      <c r="I31" s="14" t="str">
         <f t="shared" ref="I31" si="97">IF(H$8*H31=0,"",H$8*H31)</f>
         <v/>
       </c>
-      <c r="J31" s="14"/>
-      <c r="K31" s="15" t="str">
+      <c r="J31" s="13"/>
+      <c r="K31" s="14" t="str">
         <f t="shared" ref="K31" si="98">IF(J$8*J31=0,"",J$8*J31)</f>
         <v/>
       </c>
-      <c r="L31" s="14"/>
-      <c r="M31" s="15" t="str">
+      <c r="L31" s="13"/>
+      <c r="M31" s="14" t="str">
         <f t="shared" ref="M31" si="99">IF(L$8*L31=0,"",L$8*L31)</f>
         <v/>
       </c>
-      <c r="N31" s="14"/>
-      <c r="O31" s="15" t="str">
+      <c r="N31" s="13"/>
+      <c r="O31" s="14" t="str">
         <f t="shared" ref="O31" si="100">IF(N$8*N31=0,"",N$8*N31)</f>
         <v/>
       </c>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="16" t="str">
+      <c r="P31" s="13"/>
+      <c r="Q31" s="15" t="str">
         <f t="shared" ref="Q31" si="101">IF(P$8*P31=0,"",P$8*P31)</f>
         <v/>
       </c>
-      <c r="R31" s="17">
+      <c r="R31" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A32" s="27" t="str">
+      <c r="A32" s="24" t="str">
         <f t="shared" si="65"/>
         <v>22</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="15" t="str">
+      <c r="B32" s="13"/>
+      <c r="C32" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F32" s="13"/>
+      <c r="G32" s="14" t="str">
         <f t="shared" ref="G32" si="102">IF(F$8*F32=0,"",F$8*F32)</f>
         <v/>
       </c>
-      <c r="H32" s="14"/>
-      <c r="I32" s="15" t="str">
+      <c r="H32" s="13"/>
+      <c r="I32" s="14" t="str">
         <f t="shared" ref="I32" si="103">IF(H$8*H32=0,"",H$8*H32)</f>
         <v/>
       </c>
-      <c r="J32" s="14"/>
-      <c r="K32" s="15" t="str">
+      <c r="J32" s="13"/>
+      <c r="K32" s="14" t="str">
         <f t="shared" ref="K32" si="104">IF(J$8*J32=0,"",J$8*J32)</f>
         <v/>
       </c>
-      <c r="L32" s="14"/>
-      <c r="M32" s="15" t="str">
+      <c r="L32" s="13"/>
+      <c r="M32" s="14" t="str">
         <f t="shared" ref="M32" si="105">IF(L$8*L32=0,"",L$8*L32)</f>
         <v/>
       </c>
-      <c r="N32" s="14"/>
-      <c r="O32" s="15" t="str">
+      <c r="N32" s="13"/>
+      <c r="O32" s="14" t="str">
         <f t="shared" ref="O32" si="106">IF(N$8*N32=0,"",N$8*N32)</f>
         <v/>
       </c>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="16" t="str">
+      <c r="P32" s="13"/>
+      <c r="Q32" s="15" t="str">
         <f t="shared" ref="Q32" si="107">IF(P$8*P32=0,"",P$8*P32)</f>
         <v/>
       </c>
-      <c r="R32" s="17">
+      <c r="R32" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A33" s="27" t="str">
+      <c r="A33" s="24" t="str">
         <f t="shared" si="65"/>
         <v>23</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="15" t="str">
+      <c r="B33" s="13"/>
+      <c r="C33" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D33" s="13"/>
+      <c r="E33" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F33" s="13"/>
+      <c r="G33" s="14" t="str">
         <f t="shared" ref="G33" si="108">IF(F$8*F33=0,"",F$8*F33)</f>
         <v/>
       </c>
-      <c r="H33" s="14"/>
-      <c r="I33" s="15" t="str">
+      <c r="H33" s="13"/>
+      <c r="I33" s="14" t="str">
         <f t="shared" ref="I33" si="109">IF(H$8*H33=0,"",H$8*H33)</f>
         <v/>
       </c>
-      <c r="J33" s="14"/>
-      <c r="K33" s="15" t="str">
+      <c r="J33" s="13"/>
+      <c r="K33" s="14" t="str">
         <f t="shared" ref="K33" si="110">IF(J$8*J33=0,"",J$8*J33)</f>
         <v/>
       </c>
-      <c r="L33" s="14"/>
-      <c r="M33" s="15" t="str">
+      <c r="L33" s="13"/>
+      <c r="M33" s="14" t="str">
         <f t="shared" ref="M33" si="111">IF(L$8*L33=0,"",L$8*L33)</f>
         <v/>
       </c>
-      <c r="N33" s="14"/>
-      <c r="O33" s="15" t="str">
+      <c r="N33" s="13"/>
+      <c r="O33" s="14" t="str">
         <f t="shared" ref="O33" si="112">IF(N$8*N33=0,"",N$8*N33)</f>
         <v/>
       </c>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="16" t="str">
+      <c r="P33" s="13"/>
+      <c r="Q33" s="15" t="str">
         <f t="shared" ref="Q33" si="113">IF(P$8*P33=0,"",P$8*P33)</f>
         <v/>
       </c>
-      <c r="R33" s="17">
+      <c r="R33" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A34" s="27" t="str">
+      <c r="A34" s="24" t="str">
         <f t="shared" si="65"/>
         <v>24</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F34" s="14"/>
-      <c r="G34" s="15" t="str">
+      <c r="B34" s="13"/>
+      <c r="C34" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D34" s="13"/>
+      <c r="E34" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F34" s="13"/>
+      <c r="G34" s="14" t="str">
         <f t="shared" ref="G34" si="114">IF(F$8*F34=0,"",F$8*F34)</f>
         <v/>
       </c>
-      <c r="H34" s="14"/>
-      <c r="I34" s="15" t="str">
+      <c r="H34" s="13"/>
+      <c r="I34" s="14" t="str">
         <f t="shared" ref="I34" si="115">IF(H$8*H34=0,"",H$8*H34)</f>
         <v/>
       </c>
-      <c r="J34" s="14"/>
-      <c r="K34" s="15" t="str">
+      <c r="J34" s="13"/>
+      <c r="K34" s="14" t="str">
         <f t="shared" ref="K34" si="116">IF(J$8*J34=0,"",J$8*J34)</f>
         <v/>
       </c>
-      <c r="L34" s="14"/>
-      <c r="M34" s="15" t="str">
+      <c r="L34" s="13"/>
+      <c r="M34" s="14" t="str">
         <f t="shared" ref="M34" si="117">IF(L$8*L34=0,"",L$8*L34)</f>
         <v/>
       </c>
-      <c r="N34" s="14"/>
-      <c r="O34" s="15" t="str">
+      <c r="N34" s="13"/>
+      <c r="O34" s="14" t="str">
         <f t="shared" ref="O34" si="118">IF(N$8*N34=0,"",N$8*N34)</f>
         <v/>
       </c>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="16" t="str">
+      <c r="P34" s="13"/>
+      <c r="Q34" s="15" t="str">
         <f t="shared" ref="Q34" si="119">IF(P$8*P34=0,"",P$8*P34)</f>
         <v/>
       </c>
-      <c r="R34" s="17">
+      <c r="R34" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A35" s="27" t="str">
+      <c r="A35" s="24" t="str">
         <f t="shared" si="65"/>
         <v>25</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D35" s="14"/>
-      <c r="E35" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F35" s="14"/>
-      <c r="G35" s="15" t="str">
+      <c r="B35" s="13"/>
+      <c r="C35" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D35" s="13"/>
+      <c r="E35" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F35" s="13"/>
+      <c r="G35" s="14" t="str">
         <f t="shared" ref="G35" si="120">IF(F$8*F35=0,"",F$8*F35)</f>
         <v/>
       </c>
-      <c r="H35" s="14"/>
-      <c r="I35" s="15" t="str">
+      <c r="H35" s="13"/>
+      <c r="I35" s="14" t="str">
         <f t="shared" ref="I35" si="121">IF(H$8*H35=0,"",H$8*H35)</f>
         <v/>
       </c>
-      <c r="J35" s="14"/>
-      <c r="K35" s="15" t="str">
+      <c r="J35" s="13"/>
+      <c r="K35" s="14" t="str">
         <f t="shared" ref="K35" si="122">IF(J$8*J35=0,"",J$8*J35)</f>
         <v/>
       </c>
-      <c r="L35" s="14"/>
-      <c r="M35" s="15" t="str">
+      <c r="L35" s="13"/>
+      <c r="M35" s="14" t="str">
         <f t="shared" ref="M35" si="123">IF(L$8*L35=0,"",L$8*L35)</f>
         <v/>
       </c>
-      <c r="N35" s="14"/>
-      <c r="O35" s="15" t="str">
+      <c r="N35" s="13"/>
+      <c r="O35" s="14" t="str">
         <f t="shared" ref="O35" si="124">IF(N$8*N35=0,"",N$8*N35)</f>
         <v/>
       </c>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="16" t="str">
+      <c r="P35" s="13"/>
+      <c r="Q35" s="15" t="str">
         <f t="shared" ref="Q35" si="125">IF(P$8*P35=0,"",P$8*P35)</f>
         <v/>
       </c>
-      <c r="R35" s="17">
+      <c r="R35" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A36" s="27" t="str">
+      <c r="A36" s="24" t="str">
         <f t="shared" si="65"/>
         <v>26</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F36" s="14"/>
-      <c r="G36" s="15" t="str">
+      <c r="B36" s="13"/>
+      <c r="C36" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D36" s="13"/>
+      <c r="E36" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F36" s="13"/>
+      <c r="G36" s="14" t="str">
         <f t="shared" ref="G36" si="126">IF(F$8*F36=0,"",F$8*F36)</f>
         <v/>
       </c>
-      <c r="H36" s="14"/>
-      <c r="I36" s="15" t="str">
+      <c r="H36" s="13"/>
+      <c r="I36" s="14" t="str">
         <f t="shared" ref="I36" si="127">IF(H$8*H36=0,"",H$8*H36)</f>
         <v/>
       </c>
-      <c r="J36" s="14"/>
-      <c r="K36" s="15" t="str">
+      <c r="J36" s="13"/>
+      <c r="K36" s="14" t="str">
         <f t="shared" ref="K36" si="128">IF(J$8*J36=0,"",J$8*J36)</f>
         <v/>
       </c>
-      <c r="L36" s="14"/>
-      <c r="M36" s="15" t="str">
+      <c r="L36" s="13"/>
+      <c r="M36" s="14" t="str">
         <f t="shared" ref="M36" si="129">IF(L$8*L36=0,"",L$8*L36)</f>
         <v/>
       </c>
-      <c r="N36" s="14"/>
-      <c r="O36" s="15" t="str">
+      <c r="N36" s="13"/>
+      <c r="O36" s="14" t="str">
         <f t="shared" ref="O36" si="130">IF(N$8*N36=0,"",N$8*N36)</f>
         <v/>
       </c>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="16" t="str">
+      <c r="P36" s="13"/>
+      <c r="Q36" s="15" t="str">
         <f t="shared" ref="Q36" si="131">IF(P$8*P36=0,"",P$8*P36)</f>
         <v/>
       </c>
-      <c r="R36" s="17">
+      <c r="R36" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A37" s="27" t="str">
+      <c r="A37" s="24" t="str">
         <f t="shared" si="65"/>
         <v>27</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D37" s="14"/>
-      <c r="E37" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F37" s="14"/>
-      <c r="G37" s="15" t="str">
+      <c r="B37" s="13"/>
+      <c r="C37" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F37" s="13"/>
+      <c r="G37" s="14" t="str">
         <f t="shared" ref="G37" si="132">IF(F$8*F37=0,"",F$8*F37)</f>
         <v/>
       </c>
-      <c r="H37" s="14"/>
-      <c r="I37" s="15" t="str">
+      <c r="H37" s="13"/>
+      <c r="I37" s="14" t="str">
         <f t="shared" ref="I37" si="133">IF(H$8*H37=0,"",H$8*H37)</f>
         <v/>
       </c>
-      <c r="J37" s="14"/>
-      <c r="K37" s="15" t="str">
+      <c r="J37" s="13"/>
+      <c r="K37" s="14" t="str">
         <f t="shared" ref="K37" si="134">IF(J$8*J37=0,"",J$8*J37)</f>
         <v/>
       </c>
-      <c r="L37" s="14"/>
-      <c r="M37" s="15" t="str">
+      <c r="L37" s="13"/>
+      <c r="M37" s="14" t="str">
         <f t="shared" ref="M37" si="135">IF(L$8*L37=0,"",L$8*L37)</f>
         <v/>
       </c>
-      <c r="N37" s="14"/>
-      <c r="O37" s="15" t="str">
+      <c r="N37" s="13"/>
+      <c r="O37" s="14" t="str">
         <f t="shared" ref="O37" si="136">IF(N$8*N37=0,"",N$8*N37)</f>
         <v/>
       </c>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="16" t="str">
+      <c r="P37" s="13"/>
+      <c r="Q37" s="15" t="str">
         <f t="shared" ref="Q37" si="137">IF(P$8*P37=0,"",P$8*P37)</f>
         <v/>
       </c>
-      <c r="R37" s="17">
+      <c r="R37" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A38" s="27" t="str">
+      <c r="A38" s="24" t="str">
         <f t="shared" si="65"/>
         <v>28</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D38" s="14"/>
-      <c r="E38" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F38" s="14"/>
-      <c r="G38" s="15" t="str">
+      <c r="B38" s="13"/>
+      <c r="C38" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D38" s="13"/>
+      <c r="E38" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F38" s="13"/>
+      <c r="G38" s="14" t="str">
         <f t="shared" ref="G38" si="138">IF(F$8*F38=0,"",F$8*F38)</f>
         <v/>
       </c>
-      <c r="H38" s="14"/>
-      <c r="I38" s="15" t="str">
+      <c r="H38" s="13"/>
+      <c r="I38" s="14" t="str">
         <f t="shared" ref="I38" si="139">IF(H$8*H38=0,"",H$8*H38)</f>
         <v/>
       </c>
-      <c r="J38" s="14"/>
-      <c r="K38" s="15" t="str">
+      <c r="J38" s="13"/>
+      <c r="K38" s="14" t="str">
         <f t="shared" ref="K38" si="140">IF(J$8*J38=0,"",J$8*J38)</f>
         <v/>
       </c>
-      <c r="L38" s="14"/>
-      <c r="M38" s="15" t="str">
+      <c r="L38" s="13"/>
+      <c r="M38" s="14" t="str">
         <f t="shared" ref="M38" si="141">IF(L$8*L38=0,"",L$8*L38)</f>
         <v/>
       </c>
-      <c r="N38" s="14"/>
-      <c r="O38" s="15" t="str">
+      <c r="N38" s="13"/>
+      <c r="O38" s="14" t="str">
         <f t="shared" ref="O38" si="142">IF(N$8*N38=0,"",N$8*N38)</f>
         <v/>
       </c>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="16" t="str">
+      <c r="P38" s="13"/>
+      <c r="Q38" s="15" t="str">
         <f t="shared" ref="Q38" si="143">IF(P$8*P38=0,"",P$8*P38)</f>
         <v/>
       </c>
-      <c r="R38" s="17">
+      <c r="R38" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A39" s="27" t="str">
+      <c r="A39" s="24" t="str">
         <f t="shared" si="65"/>
         <v>29</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D39" s="14"/>
-      <c r="E39" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F39" s="14"/>
-      <c r="G39" s="15" t="str">
+      <c r="B39" s="13"/>
+      <c r="C39" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D39" s="13"/>
+      <c r="E39" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F39" s="13"/>
+      <c r="G39" s="14" t="str">
         <f t="shared" ref="G39" si="144">IF(F$8*F39=0,"",F$8*F39)</f>
         <v/>
       </c>
-      <c r="H39" s="14"/>
-      <c r="I39" s="15" t="str">
+      <c r="H39" s="13"/>
+      <c r="I39" s="14" t="str">
         <f t="shared" ref="I39" si="145">IF(H$8*H39=0,"",H$8*H39)</f>
         <v/>
       </c>
-      <c r="J39" s="14"/>
-      <c r="K39" s="15" t="str">
+      <c r="J39" s="13"/>
+      <c r="K39" s="14" t="str">
         <f t="shared" ref="K39" si="146">IF(J$8*J39=0,"",J$8*J39)</f>
         <v/>
       </c>
-      <c r="L39" s="14"/>
-      <c r="M39" s="15" t="str">
+      <c r="L39" s="13"/>
+      <c r="M39" s="14" t="str">
         <f t="shared" ref="M39" si="147">IF(L$8*L39=0,"",L$8*L39)</f>
         <v/>
       </c>
-      <c r="N39" s="14"/>
-      <c r="O39" s="15" t="str">
+      <c r="N39" s="13"/>
+      <c r="O39" s="14" t="str">
         <f t="shared" ref="O39" si="148">IF(N$8*N39=0,"",N$8*N39)</f>
         <v/>
       </c>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="16" t="str">
+      <c r="P39" s="13"/>
+      <c r="Q39" s="15" t="str">
         <f t="shared" ref="Q39" si="149">IF(P$8*P39=0,"",P$8*P39)</f>
         <v/>
       </c>
-      <c r="R39" s="17">
+      <c r="R39" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A40" s="27" t="str">
+      <c r="A40" s="24" t="str">
         <f t="shared" si="65"/>
         <v>30</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D40" s="14"/>
-      <c r="E40" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F40" s="14"/>
-      <c r="G40" s="15" t="str">
+      <c r="B40" s="13"/>
+      <c r="C40" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D40" s="13"/>
+      <c r="E40" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F40" s="13"/>
+      <c r="G40" s="14" t="str">
         <f t="shared" ref="G40" si="150">IF(F$8*F40=0,"",F$8*F40)</f>
         <v/>
       </c>
-      <c r="H40" s="14"/>
-      <c r="I40" s="15" t="str">
+      <c r="H40" s="13"/>
+      <c r="I40" s="14" t="str">
         <f t="shared" ref="I40" si="151">IF(H$8*H40=0,"",H$8*H40)</f>
         <v/>
       </c>
-      <c r="J40" s="14"/>
-      <c r="K40" s="15" t="str">
+      <c r="J40" s="13"/>
+      <c r="K40" s="14" t="str">
         <f t="shared" ref="K40" si="152">IF(J$8*J40=0,"",J$8*J40)</f>
         <v/>
       </c>
-      <c r="L40" s="14"/>
-      <c r="M40" s="15" t="str">
+      <c r="L40" s="13"/>
+      <c r="M40" s="14" t="str">
         <f t="shared" ref="M40" si="153">IF(L$8*L40=0,"",L$8*L40)</f>
         <v/>
       </c>
-      <c r="N40" s="14"/>
-      <c r="O40" s="15" t="str">
+      <c r="N40" s="13"/>
+      <c r="O40" s="14" t="str">
         <f t="shared" ref="O40" si="154">IF(N$8*N40=0,"",N$8*N40)</f>
         <v/>
       </c>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="16" t="str">
+      <c r="P40" s="13"/>
+      <c r="Q40" s="15" t="str">
         <f t="shared" ref="Q40" si="155">IF(P$8*P40=0,"",P$8*P40)</f>
         <v/>
       </c>
-      <c r="R40" s="17">
+      <c r="R40" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A41" s="27" t="str">
+      <c r="A41" s="24" t="str">
         <f t="shared" si="65"/>
         <v>31</v>
       </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="19" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D41" s="18"/>
-      <c r="E41" s="19" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F41" s="18"/>
-      <c r="G41" s="19" t="str">
+      <c r="B41" s="17"/>
+      <c r="C41" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D41" s="17"/>
+      <c r="E41" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F41" s="17"/>
+      <c r="G41" s="18" t="str">
         <f t="shared" ref="G41" si="156">IF(F$8*F41=0,"",F$8*F41)</f>
         <v/>
       </c>
-      <c r="H41" s="18"/>
-      <c r="I41" s="19" t="str">
+      <c r="H41" s="17"/>
+      <c r="I41" s="18" t="str">
         <f t="shared" ref="I41" si="157">IF(H$8*H41=0,"",H$8*H41)</f>
         <v/>
       </c>
-      <c r="J41" s="18"/>
-      <c r="K41" s="19" t="str">
+      <c r="J41" s="17"/>
+      <c r="K41" s="18" t="str">
         <f t="shared" ref="K41" si="158">IF(J$8*J41=0,"",J$8*J41)</f>
         <v/>
       </c>
-      <c r="L41" s="18"/>
-      <c r="M41" s="19" t="str">
+      <c r="L41" s="17"/>
+      <c r="M41" s="18" t="str">
         <f t="shared" ref="M41" si="159">IF(L$8*L41=0,"",L$8*L41)</f>
         <v/>
       </c>
-      <c r="N41" s="18"/>
-      <c r="O41" s="19" t="str">
+      <c r="N41" s="17"/>
+      <c r="O41" s="18" t="str">
         <f t="shared" ref="O41" si="160">IF(N$8*N41=0,"",N$8*N41)</f>
         <v/>
       </c>
-      <c r="P41" s="18"/>
-      <c r="Q41" s="20" t="str">
+      <c r="P41" s="17"/>
+      <c r="Q41" s="19" t="str">
         <f t="shared" ref="Q41" si="161">IF(P$8*P41=0,"",P$8*P41)</f>
         <v/>
       </c>
-      <c r="R41" s="21">
+      <c r="R41" s="63" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="18">
-        <f t="shared" ref="B42:R42" si="162">SUM(B11:B41)</f>
-        <v>0</v>
-      </c>
-      <c r="C42" s="22">
+      <c r="B42" s="60" t="str">
+        <f>IF(SUM(B11:B41)=0,"",SUM(B11:B41))</f>
+        <v/>
+      </c>
+      <c r="C42" s="61" t="str">
+        <f>IF(SUM(C11:C41)=0,"",SUM(C11:C41))</f>
+        <v/>
+      </c>
+      <c r="D42" s="60" t="str">
+        <f t="shared" ref="D42:Q42" si="162">IF(SUM(D11:D41)=0,"",SUM(D11:D41))</f>
+        <v/>
+      </c>
+      <c r="E42" s="61" t="str">
         <f t="shared" si="162"/>
-        <v>0</v>
-      </c>
-      <c r="D42" s="18">
+        <v/>
+      </c>
+      <c r="F42" s="60" t="str">
         <f t="shared" si="162"/>
-        <v>0</v>
-      </c>
-      <c r="E42" s="22">
+        <v/>
+      </c>
+      <c r="G42" s="61" t="str">
         <f t="shared" si="162"/>
-        <v>0</v>
-      </c>
-      <c r="F42" s="18">
+        <v/>
+      </c>
+      <c r="H42" s="60" t="str">
         <f t="shared" si="162"/>
-        <v>0</v>
-      </c>
-      <c r="G42" s="22">
+        <v/>
+      </c>
+      <c r="I42" s="61" t="str">
         <f t="shared" si="162"/>
-        <v>0</v>
-      </c>
-      <c r="H42" s="18">
+        <v/>
+      </c>
+      <c r="J42" s="60" t="str">
         <f t="shared" si="162"/>
-        <v>0</v>
-      </c>
-      <c r="I42" s="22">
+        <v/>
+      </c>
+      <c r="K42" s="61" t="str">
         <f t="shared" si="162"/>
-        <v>0</v>
-      </c>
-      <c r="J42" s="18">
+        <v/>
+      </c>
+      <c r="L42" s="60" t="str">
         <f t="shared" si="162"/>
-        <v>0</v>
-      </c>
-      <c r="K42" s="22">
+        <v/>
+      </c>
+      <c r="M42" s="61" t="str">
         <f t="shared" si="162"/>
-        <v>0</v>
-      </c>
-      <c r="L42" s="18">
+        <v/>
+      </c>
+      <c r="N42" s="60" t="str">
         <f t="shared" si="162"/>
-        <v>0</v>
-      </c>
-      <c r="M42" s="22">
+        <v/>
+      </c>
+      <c r="O42" s="61" t="str">
         <f t="shared" si="162"/>
-        <v>0</v>
-      </c>
-      <c r="N42" s="18">
+        <v/>
+      </c>
+      <c r="P42" s="60" t="str">
         <f t="shared" si="162"/>
-        <v>0</v>
-      </c>
-      <c r="O42" s="22">
+        <v/>
+      </c>
+      <c r="Q42" s="61" t="str">
         <f t="shared" si="162"/>
-        <v>0</v>
-      </c>
-      <c r="P42" s="18">
-        <f t="shared" si="162"/>
-        <v>0</v>
-      </c>
-      <c r="Q42" s="23">
-        <f t="shared" si="162"/>
-        <v>0</v>
-      </c>
-      <c r="R42" s="21">
-        <f t="shared" si="162"/>
-        <v>0</v>
+        <v/>
+      </c>
+      <c r="R42" s="20" t="str">
+        <f>IF(SUM(R11:R41)=0,"",SUM(R11:R41))</f>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/ExcelTemplate/hoiku/請求書_指定B.xlsx
+++ b/ExcelTemplate/hoiku/請求書_指定B.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>品名</t>
     <rPh sb="0" eb="2">
@@ -154,6 +154,10 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -162,7 +166,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -220,6 +224,38 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
       <u/>
       <sz val="12"/>
       <color theme="1" tint="0.249977111117893"/>
@@ -228,7 +264,8 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="9"/>
       <color theme="1" tint="0.249977111117893"/>
       <name val="メイリオ"/>
       <family val="3"/>
@@ -435,19 +472,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color indexed="64"/>
       </left>
@@ -590,11 +614,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -619,7 +656,7 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
@@ -629,72 +666,59 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed"/>
@@ -702,26 +726,11 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -729,43 +738,74 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
+    <xf numFmtId="3" fontId="13" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1138,7 +1178,7 @@
   <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="D2" sqref="D2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.25" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -1165,19 +1205,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="38"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
+      <c r="A1" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
       <c r="F1" s="4"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
       <c r="N1" s="4"/>
@@ -1187,38 +1229,38 @@
       <c r="R1" s="4"/>
     </row>
     <row r="2" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="48" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="4"/>
       <c r="O2" s="5"/>
       <c r="P2" s="4"/>
-      <c r="Q2" s="53" t="s">
+      <c r="Q2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="53"/>
+      <c r="R2" s="42"/>
     </row>
     <row r="3" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -1227,207 +1269,207 @@
       <c r="N3" s="4"/>
       <c r="O3" s="5"/>
       <c r="P3" s="4"/>
-      <c r="Q3" s="54" t="s">
+      <c r="Q3" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="54"/>
+      <c r="R3" s="43"/>
     </row>
     <row r="4" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="37"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="45" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="46"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="43"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="39"/>
       <c r="H4" s="47" t="s">
         <v>12</v>
       </c>
       <c r="I4" s="46"/>
-      <c r="J4" s="42">
+      <c r="J4" s="38">
         <f>ROUND(F4*0.08,0)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="43"/>
+      <c r="K4" s="39"/>
       <c r="L4" s="45" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="46"/>
-      <c r="N4" s="42">
+      <c r="N4" s="38">
         <f>F4+J4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="43"/>
+      <c r="O4" s="39"/>
       <c r="P4" s="4"/>
-      <c r="Q4" s="41" t="s">
+      <c r="Q4" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="41"/>
+      <c r="R4" s="44"/>
     </row>
     <row r="5" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="45"/>
       <c r="E5" s="46"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="39"/>
       <c r="H5" s="45"/>
       <c r="I5" s="46"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="43"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="39"/>
       <c r="L5" s="45"/>
       <c r="M5" s="46"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="43"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="39"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="21"/>
       <c r="R5" s="21"/>
     </row>
     <row r="6" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
       <c r="P6" s="9"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
     </row>
     <row r="7" spans="1:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="50" t="s">
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="52" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="51"/>
-    </row>
-    <row r="9" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="22" t="s">
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="55"/>
+    </row>
+    <row r="9" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="27" t="s">
+      <c r="I9" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="27" t="s">
+      <c r="K9" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="26" t="s">
+      <c r="L9" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="27" t="s">
+      <c r="M9" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="26" t="s">
+      <c r="N9" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="O9" s="27" t="s">
+      <c r="O9" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="26" t="s">
+      <c r="P9" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="Q9" s="28" t="s">
+      <c r="Q9" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="R9" s="52"/>
-    </row>
-    <row r="10" spans="1:18" s="29" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="32"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="30"/>
+      <c r="R9" s="59"/>
+    </row>
+    <row r="10" spans="1:18" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="60"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="23"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A11" s="23" t="str">
+      <c r="A11" s="61" t="str">
         <f t="shared" ref="A11:A25" si="0">SUBSTITUTE(MID(SUBSTITUTE($A$4," ",""),6,10),"月分","/")&amp;(ROW()-10)</f>
         <v>1</v>
       </c>
@@ -1471,13 +1513,13 @@
         <f t="shared" ref="Q11:Q16" si="8">IF(P$8*P11=0,"",P$8*P11)</f>
         <v/>
       </c>
-      <c r="R11" s="62" t="str">
+      <c r="R11" s="30" t="str">
         <f>IF(SUM(C11,E11,G11,I11,K11,M11,O11,Q11)=0,"",SUM(C11,E11,G11,I11,K11,M11,O11,Q11))</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A12" s="24" t="str">
+      <c r="A12" s="62" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1527,7 +1569,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13" s="24" t="str">
+      <c r="A13" s="62" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1577,7 +1619,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A14" s="24" t="str">
+      <c r="A14" s="62" t="str">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1627,7 +1669,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="24" t="str">
+      <c r="A15" s="62" t="str">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1677,7 +1719,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="24" t="str">
+      <c r="A16" s="62" t="str">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -1727,7 +1769,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A17" s="24" t="str">
+      <c r="A17" s="62" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -1777,7 +1819,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A18" s="24" t="str">
+      <c r="A18" s="62" t="str">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -1827,7 +1869,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A19" s="24" t="str">
+      <c r="A19" s="62" t="str">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -1877,7 +1919,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A20" s="24" t="str">
+      <c r="A20" s="62" t="str">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -1927,7 +1969,7 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A21" s="24" t="str">
+      <c r="A21" s="62" t="str">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -1977,7 +2019,7 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A22" s="24" t="str">
+      <c r="A22" s="62" t="str">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -2027,7 +2069,7 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A23" s="24" t="str">
+      <c r="A23" s="62" t="str">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -2077,7 +2119,7 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A24" s="24" t="str">
+      <c r="A24" s="62" t="str">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -2127,7 +2169,7 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A25" s="24" t="str">
+      <c r="A25" s="62" t="str">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -2177,7 +2219,7 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A26" s="24" t="str">
+      <c r="A26" s="62" t="str">
         <f t="shared" ref="A26:A41" si="65">SUBSTITUTE(MID(SUBSTITUTE($A$4," ",""),6,10),"月分","/")&amp;(ROW()-10)</f>
         <v>16</v>
       </c>
@@ -2227,7 +2269,7 @@
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A27" s="24" t="str">
+      <c r="A27" s="62" t="str">
         <f t="shared" si="65"/>
         <v>17</v>
       </c>
@@ -2277,7 +2319,7 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A28" s="24" t="str">
+      <c r="A28" s="62" t="str">
         <f t="shared" si="65"/>
         <v>18</v>
       </c>
@@ -2327,7 +2369,7 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A29" s="24" t="str">
+      <c r="A29" s="62" t="str">
         <f t="shared" si="65"/>
         <v>19</v>
       </c>
@@ -2377,7 +2419,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A30" s="24" t="str">
+      <c r="A30" s="62" t="str">
         <f t="shared" si="65"/>
         <v>20</v>
       </c>
@@ -2427,7 +2469,7 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A31" s="24" t="str">
+      <c r="A31" s="62" t="str">
         <f t="shared" si="65"/>
         <v>21</v>
       </c>
@@ -2477,7 +2519,7 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A32" s="24" t="str">
+      <c r="A32" s="62" t="str">
         <f t="shared" si="65"/>
         <v>22</v>
       </c>
@@ -2527,7 +2569,7 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A33" s="24" t="str">
+      <c r="A33" s="62" t="str">
         <f t="shared" si="65"/>
         <v>23</v>
       </c>
@@ -2577,7 +2619,7 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A34" s="24" t="str">
+      <c r="A34" s="62" t="str">
         <f t="shared" si="65"/>
         <v>24</v>
       </c>
@@ -2627,7 +2669,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A35" s="24" t="str">
+      <c r="A35" s="62" t="str">
         <f t="shared" si="65"/>
         <v>25</v>
       </c>
@@ -2677,7 +2719,7 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A36" s="24" t="str">
+      <c r="A36" s="62" t="str">
         <f t="shared" si="65"/>
         <v>26</v>
       </c>
@@ -2727,7 +2769,7 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A37" s="24" t="str">
+      <c r="A37" s="62" t="str">
         <f t="shared" si="65"/>
         <v>27</v>
       </c>
@@ -2777,7 +2819,7 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A38" s="24" t="str">
+      <c r="A38" s="62" t="str">
         <f t="shared" si="65"/>
         <v>28</v>
       </c>
@@ -2827,7 +2869,7 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A39" s="24" t="str">
+      <c r="A39" s="62" t="str">
         <f t="shared" si="65"/>
         <v>29</v>
       </c>
@@ -2877,7 +2919,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A40" s="24" t="str">
+      <c r="A40" s="62" t="str">
         <f t="shared" si="65"/>
         <v>30</v>
       </c>
@@ -2927,7 +2969,7 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A41" s="24" t="str">
+      <c r="A41" s="63" t="str">
         <f t="shared" si="65"/>
         <v>31</v>
       </c>
@@ -2971,76 +3013,76 @@
         <f t="shared" ref="Q41" si="161">IF(P$8*P41=0,"",P$8*P41)</f>
         <v/>
       </c>
-      <c r="R41" s="63" t="str">
+      <c r="R41" s="31" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="60" t="str">
+      <c r="B42" s="28" t="str">
         <f>IF(SUM(B11:B41)=0,"",SUM(B11:B41))</f>
         <v/>
       </c>
-      <c r="C42" s="61" t="str">
+      <c r="C42" s="29" t="str">
         <f>IF(SUM(C11:C41)=0,"",SUM(C11:C41))</f>
         <v/>
       </c>
-      <c r="D42" s="60" t="str">
+      <c r="D42" s="28" t="str">
         <f t="shared" ref="D42:Q42" si="162">IF(SUM(D11:D41)=0,"",SUM(D11:D41))</f>
         <v/>
       </c>
-      <c r="E42" s="61" t="str">
+      <c r="E42" s="29" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="F42" s="60" t="str">
+      <c r="F42" s="28" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="G42" s="61" t="str">
+      <c r="G42" s="29" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="H42" s="60" t="str">
+      <c r="H42" s="28" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="I42" s="61" t="str">
+      <c r="I42" s="29" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="J42" s="60" t="str">
+      <c r="J42" s="28" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="K42" s="61" t="str">
+      <c r="K42" s="29" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="L42" s="60" t="str">
+      <c r="L42" s="28" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="M42" s="61" t="str">
+      <c r="M42" s="29" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="N42" s="60" t="str">
+      <c r="N42" s="28" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="O42" s="61" t="str">
+      <c r="O42" s="29" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="P42" s="60" t="str">
+      <c r="P42" s="28" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="Q42" s="61" t="str">
+      <c r="Q42" s="29" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
@@ -3051,28 +3093,6 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="R7:R9"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="L4:M5"/>
     <mergeCell ref="A4:C5"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="Q6:R6"/>
@@ -3089,6 +3109,28 @@
     <mergeCell ref="H4:I5"/>
     <mergeCell ref="J4:K5"/>
     <mergeCell ref="D2:H3"/>
+    <mergeCell ref="R7:R9"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="L4:M5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelTemplate/hoiku/請求書_指定B.xlsx
+++ b/ExcelTemplate/hoiku/請求書_指定B.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
   <si>
     <t>品名</t>
     <rPh sb="0" eb="2">
@@ -158,6 +158,10 @@
     <t>aaa</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>消費税額は、合計額に対して8%を乗じ四捨五入しています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -166,7 +170,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -271,6 +275,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -286,7 +297,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -627,11 +638,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -708,104 +730,109 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1178,7 +1205,7 @@
   <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:H3"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.25" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -1205,21 +1232,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
       <c r="F1" s="4"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
       <c r="N1" s="4"/>
@@ -1229,38 +1256,38 @@
       <c r="R1" s="4"/>
     </row>
     <row r="2" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="40" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="4"/>
       <c r="O2" s="5"/>
       <c r="P2" s="4"/>
-      <c r="Q2" s="42" t="s">
+      <c r="Q2" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="42"/>
+      <c r="R2" s="58"/>
     </row>
     <row r="3" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="24"/>
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="66"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -1269,187 +1296,189 @@
       <c r="N3" s="4"/>
       <c r="O3" s="5"/>
       <c r="P3" s="4"/>
-      <c r="Q3" s="43" t="s">
+      <c r="Q3" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="43"/>
+      <c r="R3" s="59"/>
     </row>
     <row r="4" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="45" t="s">
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="47" t="s">
+      <c r="E4" s="51"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="46"/>
-      <c r="J4" s="38">
+      <c r="I4" s="51"/>
+      <c r="J4" s="47">
         <f>ROUND(F4*0.08,0)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="39"/>
-      <c r="L4" s="45" t="s">
+      <c r="K4" s="48"/>
+      <c r="L4" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="46"/>
-      <c r="N4" s="38">
+      <c r="M4" s="51"/>
+      <c r="N4" s="47">
         <f>F4+J4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="39"/>
+      <c r="O4" s="48"/>
       <c r="P4" s="4"/>
-      <c r="Q4" s="44" t="s">
+      <c r="Q4" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="44"/>
+      <c r="R4" s="46"/>
     </row>
     <row r="5" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="39"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="48"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="21"/>
       <c r="R5" s="21"/>
     </row>
-    <row r="6" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
       <c r="P6" s="9"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
     </row>
     <row r="7" spans="1:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="52" t="s">
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="55" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="55"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="56"/>
     </row>
     <row r="9" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="56" t="s">
+      <c r="F9" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="57" t="s">
+      <c r="G9" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="56" t="s">
+      <c r="H9" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="57" t="s">
+      <c r="I9" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="56" t="s">
+      <c r="J9" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="57" t="s">
+      <c r="K9" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="56" t="s">
+      <c r="L9" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="57" t="s">
+      <c r="M9" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="56" t="s">
+      <c r="N9" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="O9" s="57" t="s">
+      <c r="O9" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="56" t="s">
+      <c r="P9" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="Q9" s="58" t="s">
+      <c r="Q9" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="R9" s="59"/>
+      <c r="R9" s="57"/>
     </row>
     <row r="10" spans="1:18" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="60"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="25"/>
       <c r="C10" s="26"/>
       <c r="D10" s="25"/>
@@ -1469,7 +1498,7 @@
       <c r="R10" s="23"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A11" s="61" t="str">
+      <c r="A11" s="37" t="str">
         <f t="shared" ref="A11:A25" si="0">SUBSTITUTE(MID(SUBSTITUTE($A$4," ",""),6,10),"月分","/")&amp;(ROW()-10)</f>
         <v>1</v>
       </c>
@@ -1519,7 +1548,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A12" s="62" t="str">
+      <c r="A12" s="38" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1569,7 +1598,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13" s="62" t="str">
+      <c r="A13" s="38" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1619,7 +1648,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A14" s="62" t="str">
+      <c r="A14" s="38" t="str">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1669,7 +1698,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="62" t="str">
+      <c r="A15" s="38" t="str">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1719,7 +1748,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="62" t="str">
+      <c r="A16" s="38" t="str">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -1769,7 +1798,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A17" s="62" t="str">
+      <c r="A17" s="38" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -1819,7 +1848,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A18" s="62" t="str">
+      <c r="A18" s="38" t="str">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -1869,7 +1898,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A19" s="62" t="str">
+      <c r="A19" s="38" t="str">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -1919,7 +1948,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A20" s="62" t="str">
+      <c r="A20" s="38" t="str">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -1969,7 +1998,7 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A21" s="62" t="str">
+      <c r="A21" s="38" t="str">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -2019,7 +2048,7 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A22" s="62" t="str">
+      <c r="A22" s="38" t="str">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -2069,7 +2098,7 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A23" s="62" t="str">
+      <c r="A23" s="38" t="str">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -2119,7 +2148,7 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A24" s="62" t="str">
+      <c r="A24" s="38" t="str">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -2169,7 +2198,7 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A25" s="62" t="str">
+      <c r="A25" s="38" t="str">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -2219,7 +2248,7 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A26" s="62" t="str">
+      <c r="A26" s="38" t="str">
         <f t="shared" ref="A26:A41" si="65">SUBSTITUTE(MID(SUBSTITUTE($A$4," ",""),6,10),"月分","/")&amp;(ROW()-10)</f>
         <v>16</v>
       </c>
@@ -2269,7 +2298,7 @@
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A27" s="62" t="str">
+      <c r="A27" s="38" t="str">
         <f t="shared" si="65"/>
         <v>17</v>
       </c>
@@ -2319,7 +2348,7 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A28" s="62" t="str">
+      <c r="A28" s="38" t="str">
         <f t="shared" si="65"/>
         <v>18</v>
       </c>
@@ -2369,7 +2398,7 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A29" s="62" t="str">
+      <c r="A29" s="38" t="str">
         <f t="shared" si="65"/>
         <v>19</v>
       </c>
@@ -2419,7 +2448,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A30" s="62" t="str">
+      <c r="A30" s="38" t="str">
         <f t="shared" si="65"/>
         <v>20</v>
       </c>
@@ -2469,7 +2498,7 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A31" s="62" t="str">
+      <c r="A31" s="38" t="str">
         <f t="shared" si="65"/>
         <v>21</v>
       </c>
@@ -2519,7 +2548,7 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A32" s="62" t="str">
+      <c r="A32" s="38" t="str">
         <f t="shared" si="65"/>
         <v>22</v>
       </c>
@@ -2569,7 +2598,7 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A33" s="62" t="str">
+      <c r="A33" s="38" t="str">
         <f t="shared" si="65"/>
         <v>23</v>
       </c>
@@ -2619,7 +2648,7 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A34" s="62" t="str">
+      <c r="A34" s="38" t="str">
         <f t="shared" si="65"/>
         <v>24</v>
       </c>
@@ -2669,7 +2698,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A35" s="62" t="str">
+      <c r="A35" s="38" t="str">
         <f t="shared" si="65"/>
         <v>25</v>
       </c>
@@ -2719,7 +2748,7 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A36" s="62" t="str">
+      <c r="A36" s="38" t="str">
         <f t="shared" si="65"/>
         <v>26</v>
       </c>
@@ -2769,7 +2798,7 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A37" s="62" t="str">
+      <c r="A37" s="38" t="str">
         <f t="shared" si="65"/>
         <v>27</v>
       </c>
@@ -2819,7 +2848,7 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A38" s="62" t="str">
+      <c r="A38" s="38" t="str">
         <f t="shared" si="65"/>
         <v>28</v>
       </c>
@@ -2869,7 +2898,7 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A39" s="62" t="str">
+      <c r="A39" s="38" t="str">
         <f t="shared" si="65"/>
         <v>29</v>
       </c>
@@ -2919,7 +2948,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A40" s="62" t="str">
+      <c r="A40" s="38" t="str">
         <f t="shared" si="65"/>
         <v>30</v>
       </c>
@@ -2969,7 +2998,7 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A41" s="63" t="str">
+      <c r="A41" s="39" t="str">
         <f t="shared" si="65"/>
         <v>31</v>
       </c>
@@ -3019,7 +3048,7 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A42" s="64" t="s">
+      <c r="A42" s="40" t="s">
         <v>5</v>
       </c>
       <c r="B42" s="28" t="str">
@@ -3092,23 +3121,19 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="I1:K2"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="N4:O5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="D4:E5"/>
-    <mergeCell ref="F4:G5"/>
-    <mergeCell ref="H4:I5"/>
-    <mergeCell ref="J4:K5"/>
-    <mergeCell ref="D2:H3"/>
+  <mergeCells count="37">
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
     <mergeCell ref="R7:R9"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="Q3:R3"/>
@@ -3121,16 +3146,19 @@
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="L4:M5"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="N4:O5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D4:E5"/>
+    <mergeCell ref="F4:G5"/>
+    <mergeCell ref="H4:I5"/>
+    <mergeCell ref="J4:K5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelTemplate/hoiku/請求書_指定B.xlsx
+++ b/ExcelTemplate/hoiku/請求書_指定B.xlsx
@@ -138,13 +138,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>消費税額(8%)</t>
-    <rPh sb="0" eb="4">
-      <t>ショウヒゼイガク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>請求額(税込)</t>
     <rPh sb="0" eb="3">
       <t>セイキュウガク</t>
@@ -159,7 +152,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>消費税額は、合計額に対して8%を乗じ四捨五入しています。</t>
+    <t>消費税額</t>
+    <rPh sb="0" eb="4">
+      <t>ショウヒゼイガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消費税額は合計額に対して8%を乗じ小数点第一位を四捨五入しています。</t>
+    <rPh sb="17" eb="20">
+      <t>ショウスウテン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イチイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -170,7 +179,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -282,6 +291,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -757,6 +773,53 @@
     <xf numFmtId="176" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -781,58 +844,11 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1232,21 +1248,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
+      <c r="A1" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
       <c r="F1" s="4"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
       <c r="N1" s="4"/>
@@ -1255,39 +1271,39 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="53" t="s">
+    <row r="2" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="4"/>
       <c r="O2" s="5"/>
       <c r="P2" s="4"/>
-      <c r="Q2" s="58" t="s">
+      <c r="Q2" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="58"/>
+      <c r="R2" s="50"/>
     </row>
     <row r="3" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="24"/>
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="66"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="42"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -1296,108 +1312,108 @@
       <c r="N3" s="4"/>
       <c r="O3" s="5"/>
       <c r="P3" s="4"/>
-      <c r="Q3" s="59" t="s">
+      <c r="Q3" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="59"/>
+      <c r="R3" s="51"/>
     </row>
     <row r="4" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="50" t="s">
+      <c r="A4" s="58"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="51"/>
-      <c r="J4" s="47">
+      <c r="E4" s="57"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="57"/>
+      <c r="J4" s="64">
         <f>ROUND(F4*0.08,0)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="48"/>
-      <c r="L4" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="51"/>
-      <c r="N4" s="47">
+      <c r="K4" s="65"/>
+      <c r="L4" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="57"/>
+      <c r="N4" s="64">
         <f>F4+J4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="48"/>
+      <c r="O4" s="65"/>
       <c r="P4" s="4"/>
-      <c r="Q4" s="46" t="s">
+      <c r="Q4" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="46"/>
+      <c r="R4" s="63"/>
     </row>
     <row r="5" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="48"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="65"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="21"/>
       <c r="R5" s="21"/>
     </row>
-    <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
       <c r="H6" s="67" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="67"/>
       <c r="J6" s="67"/>
       <c r="K6" s="67"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
       <c r="P6" s="9"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="44"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
     </row>
     <row r="7" spans="1:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="55" t="s">
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="47" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1405,23 +1421,23 @@
       <c r="A8" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="56"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="48"/>
     </row>
     <row r="9" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="32" t="s">
@@ -1475,7 +1491,7 @@
       <c r="Q9" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="R9" s="57"/>
+      <c r="R9" s="49"/>
     </row>
     <row r="10" spans="1:18" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="36"/>
@@ -3121,44 +3137,43 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="D2:G3"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
+  <mergeCells count="36">
+    <mergeCell ref="J4:K5"/>
+    <mergeCell ref="H6:M6"/>
     <mergeCell ref="R7:R9"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="L6:M6"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="L4:M5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="N4:O5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
     <mergeCell ref="A4:C5"/>
     <mergeCell ref="A1:C2"/>
-    <mergeCell ref="Q6:R6"/>
     <mergeCell ref="I1:K2"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="N4:O5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="D4:E5"/>
     <mergeCell ref="F4:G5"/>
     <mergeCell ref="H4:I5"/>
-    <mergeCell ref="J4:K5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelTemplate/hoiku/請求書_指定B.xlsx
+++ b/ExcelTemplate/hoiku/請求書_指定B.xlsx
@@ -294,7 +294,7 @@
     <font>
       <sz val="7"/>
       <color theme="1" tint="0.249977111117893"/>
-      <name val="ＭＳ ゴシック"/>
+      <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -775,6 +775,39 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -782,10 +815,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -805,50 +838,17 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1248,21 +1248,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
       <c r="F1" s="4"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
-      <c r="I1" s="62" t="s">
+      <c r="I1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
       <c r="N1" s="4"/>
@@ -1272,37 +1272,37 @@
       <c r="R1" s="4"/>
     </row>
     <row r="2" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="43" t="s">
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="41"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="4"/>
       <c r="O2" s="5"/>
       <c r="P2" s="4"/>
-      <c r="Q2" s="50" t="s">
+      <c r="Q2" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="50"/>
+      <c r="R2" s="61"/>
     </row>
     <row r="3" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="24"/>
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="42"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -1312,108 +1312,108 @@
       <c r="N3" s="4"/>
       <c r="O3" s="5"/>
       <c r="P3" s="4"/>
-      <c r="Q3" s="51" t="s">
+      <c r="Q3" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="51"/>
+      <c r="R3" s="62"/>
     </row>
     <row r="4" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="56" t="s">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="66" t="s">
+      <c r="E4" s="50"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="64">
+      <c r="I4" s="50"/>
+      <c r="J4" s="51">
         <f>ROUND(F4*0.08,0)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="65"/>
-      <c r="L4" s="56" t="s">
+      <c r="K4" s="52"/>
+      <c r="L4" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="57"/>
-      <c r="N4" s="64">
+      <c r="M4" s="50"/>
+      <c r="N4" s="51">
         <f>F4+J4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="65"/>
+      <c r="O4" s="52"/>
       <c r="P4" s="4"/>
-      <c r="Q4" s="63" t="s">
+      <c r="Q4" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="63"/>
+      <c r="R4" s="67"/>
     </row>
     <row r="5" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="58"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="65"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="52"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="21"/>
       <c r="R5" s="21"/>
     </row>
     <row r="6" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="67" t="s">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
       <c r="P6" s="9"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
     </row>
     <row r="7" spans="1:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="47" t="s">
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="65"/>
+      <c r="R7" s="58" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1421,23 +1421,23 @@
       <c r="A8" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="48"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="59"/>
     </row>
     <row r="9" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="32" t="s">
@@ -1491,7 +1491,7 @@
       <c r="Q9" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="R9" s="49"/>
+      <c r="R9" s="60"/>
     </row>
     <row r="10" spans="1:18" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="36"/>
@@ -3138,7 +3138,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="J4:K5"/>
     <mergeCell ref="H6:M6"/>
     <mergeCell ref="R7:R9"/>
     <mergeCell ref="Q2:R2"/>
@@ -3159,11 +3158,6 @@
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="J8:K8"/>
-    <mergeCell ref="D2:G3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A4:C5"/>
     <mergeCell ref="A1:C2"/>
@@ -3174,6 +3168,12 @@
     <mergeCell ref="D4:E5"/>
     <mergeCell ref="F4:G5"/>
     <mergeCell ref="H4:I5"/>
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J4:K5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelTemplate/hoiku/請求書_指定B.xlsx
+++ b/ExcelTemplate/hoiku/請求書_指定B.xlsx
@@ -179,7 +179,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -199,30 +199,9 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1" tint="0.249977111117893"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1" tint="0.249977111117893"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1" tint="0.249977111117893"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
+      <b/>
       <u/>
-      <sz val="14"/>
-      <color theme="1" tint="0.249977111117893"/>
+      <sz val="12"/>
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
@@ -231,14 +210,12 @@
       <b/>
       <u/>
       <sz val="16"/>
-      <color theme="1" tint="0.249977111117893"/>
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1" tint="0.249977111117893"/>
+      <sz val="8"/>
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
@@ -246,7 +223,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1" tint="0.249977111117893"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
@@ -254,7 +249,6 @@
     <font>
       <b/>
       <sz val="8"/>
-      <color theme="1" tint="0.249977111117893"/>
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
@@ -262,16 +256,18 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="1" tint="0.249977111117893"/>
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="12"/>
-      <color theme="1" tint="0.249977111117893"/>
+      <sz val="10"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="7"/>
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
@@ -279,21 +275,6 @@
     <font>
       <b/>
       <sz val="9"/>
-      <color theme="1" tint="0.249977111117893"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <color theme="1" tint="0.249977111117893"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color theme="1" tint="0.249977111117893"/>
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
@@ -669,7 +650,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -678,120 +659,41 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -799,56 +701,131 @@
     <xf numFmtId="3" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="3" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1248,1896 +1225,1900 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="54" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="61" t="s">
+      <c r="Q2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="61"/>
+      <c r="R2" s="10"/>
     </row>
     <row r="3" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="62" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="Q3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="62"/>
+      <c r="R3" s="15"/>
     </row>
     <row r="4" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="49" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="53" t="s">
+      <c r="E4" s="19"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="50"/>
-      <c r="J4" s="51">
+      <c r="I4" s="19"/>
+      <c r="J4" s="20">
         <f>ROUND(F4*0.08,0)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="52"/>
-      <c r="L4" s="49" t="s">
+      <c r="K4" s="21"/>
+      <c r="L4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="50"/>
-      <c r="N4" s="51">
+      <c r="M4" s="19"/>
+      <c r="N4" s="20">
         <f>F4+J4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="52"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="67" t="s">
+      <c r="O4" s="21"/>
+      <c r="Q4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="67"/>
+      <c r="R4" s="23"/>
     </row>
     <row r="5" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="21"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
     </row>
     <row r="6" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="57" t="s">
+      <c r="A6" s="25"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
     </row>
     <row r="7" spans="1:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="58" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="34" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="59"/>
-    </row>
-    <row r="9" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="32" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="37"/>
+    </row>
+    <row r="9" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="H9" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="I9" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="33" t="s">
+      <c r="J9" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="34" t="s">
+      <c r="K9" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="33" t="s">
+      <c r="L9" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="34" t="s">
+      <c r="M9" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="33" t="s">
+      <c r="N9" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="O9" s="34" t="s">
+      <c r="O9" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="33" t="s">
+      <c r="P9" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="Q9" s="35" t="s">
+      <c r="Q9" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="R9" s="60"/>
-    </row>
-    <row r="10" spans="1:18" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="36"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="23"/>
+      <c r="R9" s="41"/>
+    </row>
+    <row r="10" spans="1:18" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="42"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="46"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A11" s="37" t="str">
+      <c r="A11" s="47" t="str">
         <f t="shared" ref="A11:A25" si="0">SUBSTITUTE(MID(SUBSTITUTE($A$4," ",""),6,10),"月分","/")&amp;(ROW()-10)</f>
         <v>1</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11" t="str">
+      <c r="B11" s="48"/>
+      <c r="C11" s="49" t="str">
         <f t="shared" ref="C11:C16" si="1">IF(B$8*B11=0,"",B$8*B11)</f>
         <v/>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11" t="str">
+      <c r="D11" s="48"/>
+      <c r="E11" s="49" t="str">
         <f t="shared" ref="E11:E16" si="2">IF(D$8*D11=0,"",D$8*D11)</f>
         <v/>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11" t="str">
+      <c r="F11" s="48"/>
+      <c r="G11" s="49" t="str">
         <f t="shared" ref="G11:G16" si="3">IF(F$8*F11=0,"",F$8*F11)</f>
         <v/>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11" t="str">
+      <c r="H11" s="48"/>
+      <c r="I11" s="49" t="str">
         <f t="shared" ref="I11:I16" si="4">IF(H$8*H11=0,"",H$8*H11)</f>
         <v/>
       </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="11" t="str">
+      <c r="J11" s="48"/>
+      <c r="K11" s="49" t="str">
         <f t="shared" ref="K11:K16" si="5">IF(J$8*J11=0,"",J$8*J11)</f>
         <v/>
       </c>
-      <c r="L11" s="10"/>
-      <c r="M11" s="11" t="str">
+      <c r="L11" s="48"/>
+      <c r="M11" s="49" t="str">
         <f t="shared" ref="M11:M16" si="6">IF(L$8*L11=0,"",L$8*L11)</f>
         <v/>
       </c>
-      <c r="N11" s="10"/>
-      <c r="O11" s="11" t="str">
+      <c r="N11" s="48"/>
+      <c r="O11" s="49" t="str">
         <f t="shared" ref="O11:O16" si="7">IF(N$8*N11=0,"",N$8*N11)</f>
         <v/>
       </c>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="12" t="str">
+      <c r="P11" s="48"/>
+      <c r="Q11" s="50" t="str">
         <f t="shared" ref="Q11:Q16" si="8">IF(P$8*P11=0,"",P$8*P11)</f>
         <v/>
       </c>
-      <c r="R11" s="30" t="str">
+      <c r="R11" s="51" t="str">
         <f>IF(SUM(C11,E11,G11,I11,K11,M11,O11,Q11)=0,"",SUM(C11,E11,G11,I11,K11,M11,O11,Q11))</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A12" s="38" t="str">
+      <c r="A12" s="52" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14" t="str">
+      <c r="B12" s="53"/>
+      <c r="C12" s="54" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14" t="str">
+      <c r="D12" s="53"/>
+      <c r="E12" s="54" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="14" t="str">
+      <c r="F12" s="53"/>
+      <c r="G12" s="54" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="14" t="str">
+      <c r="H12" s="53"/>
+      <c r="I12" s="54" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="14" t="str">
+      <c r="J12" s="53"/>
+      <c r="K12" s="54" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L12" s="13"/>
-      <c r="M12" s="14" t="str">
+      <c r="L12" s="53"/>
+      <c r="M12" s="54" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N12" s="13"/>
-      <c r="O12" s="14" t="str">
+      <c r="N12" s="53"/>
+      <c r="O12" s="54" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="15" t="str">
+      <c r="P12" s="53"/>
+      <c r="Q12" s="55" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="R12" s="16" t="str">
+      <c r="R12" s="56" t="str">
         <f t="shared" ref="R12:R41" si="9">IF(SUM(C12,E12,G12,I12,K12,M12,O12,Q12)=0,"",SUM(C12,E12,G12,I12,K12,M12,O12,Q12))</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13" s="38" t="str">
+      <c r="A13" s="52" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14" t="str">
+      <c r="B13" s="53"/>
+      <c r="C13" s="54" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14" t="str">
+      <c r="D13" s="53"/>
+      <c r="E13" s="54" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14" t="str">
+      <c r="F13" s="53"/>
+      <c r="G13" s="54" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="14" t="str">
+      <c r="H13" s="53"/>
+      <c r="I13" s="54" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J13" s="13"/>
-      <c r="K13" s="14" t="str">
+      <c r="J13" s="53"/>
+      <c r="K13" s="54" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L13" s="13"/>
-      <c r="M13" s="14" t="str">
+      <c r="L13" s="53"/>
+      <c r="M13" s="54" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="14" t="str">
+      <c r="N13" s="53"/>
+      <c r="O13" s="54" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="15" t="str">
+      <c r="P13" s="53"/>
+      <c r="Q13" s="55" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="R13" s="16" t="str">
+      <c r="R13" s="56" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A14" s="38" t="str">
+      <c r="A14" s="52" t="str">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14" t="str">
+      <c r="B14" s="53"/>
+      <c r="C14" s="54" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14" t="str">
+      <c r="D14" s="53"/>
+      <c r="E14" s="54" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="14" t="str">
+      <c r="F14" s="53"/>
+      <c r="G14" s="54" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="14" t="str">
+      <c r="H14" s="53"/>
+      <c r="I14" s="54" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="13"/>
-      <c r="K14" s="14" t="str">
+      <c r="J14" s="53"/>
+      <c r="K14" s="54" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L14" s="13"/>
-      <c r="M14" s="14" t="str">
+      <c r="L14" s="53"/>
+      <c r="M14" s="54" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N14" s="13"/>
-      <c r="O14" s="14" t="str">
+      <c r="N14" s="53"/>
+      <c r="O14" s="54" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="15" t="str">
+      <c r="P14" s="53"/>
+      <c r="Q14" s="55" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="R14" s="16" t="str">
+      <c r="R14" s="56" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="38" t="str">
+      <c r="A15" s="52" t="str">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="14" t="str">
+      <c r="B15" s="53"/>
+      <c r="C15" s="54" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14" t="str">
+      <c r="D15" s="53"/>
+      <c r="E15" s="54" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="14" t="str">
+      <c r="F15" s="53"/>
+      <c r="G15" s="54" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="14" t="str">
+      <c r="H15" s="53"/>
+      <c r="I15" s="54" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J15" s="13"/>
-      <c r="K15" s="14" t="str">
+      <c r="J15" s="53"/>
+      <c r="K15" s="54" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="13"/>
-      <c r="M15" s="14" t="str">
+      <c r="L15" s="53"/>
+      <c r="M15" s="54" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N15" s="13"/>
-      <c r="O15" s="14" t="str">
+      <c r="N15" s="53"/>
+      <c r="O15" s="54" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="15" t="str">
+      <c r="P15" s="53"/>
+      <c r="Q15" s="55" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="R15" s="16" t="str">
+      <c r="R15" s="56" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="38" t="str">
+      <c r="A16" s="52" t="str">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14" t="str">
+      <c r="B16" s="53"/>
+      <c r="C16" s="54" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14" t="str">
+      <c r="D16" s="53"/>
+      <c r="E16" s="54" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="14" t="str">
+      <c r="F16" s="53"/>
+      <c r="G16" s="54" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="14" t="str">
+      <c r="H16" s="53"/>
+      <c r="I16" s="54" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J16" s="13"/>
-      <c r="K16" s="14" t="str">
+      <c r="J16" s="53"/>
+      <c r="K16" s="54" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L16" s="13"/>
-      <c r="M16" s="14" t="str">
+      <c r="L16" s="53"/>
+      <c r="M16" s="54" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N16" s="13"/>
-      <c r="O16" s="14" t="str">
+      <c r="N16" s="53"/>
+      <c r="O16" s="54" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="15" t="str">
+      <c r="P16" s="53"/>
+      <c r="Q16" s="55" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="R16" s="16" t="str">
+      <c r="R16" s="56" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A17" s="38" t="str">
+      <c r="A17" s="52" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14" t="str">
+      <c r="B17" s="53"/>
+      <c r="C17" s="54" t="str">
         <f t="shared" ref="C17:E41" si="10">IF(B$8*B17=0,"",B$8*B17)</f>
         <v/>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="14" t="str">
+      <c r="D17" s="53"/>
+      <c r="E17" s="54" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F17" s="53"/>
+      <c r="G17" s="54" t="str">
         <f t="shared" ref="G17" si="11">IF(F$8*F17=0,"",F$8*F17)</f>
         <v/>
       </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="14" t="str">
+      <c r="H17" s="53"/>
+      <c r="I17" s="54" t="str">
         <f t="shared" ref="I17" si="12">IF(H$8*H17=0,"",H$8*H17)</f>
         <v/>
       </c>
-      <c r="J17" s="13"/>
-      <c r="K17" s="14" t="str">
+      <c r="J17" s="53"/>
+      <c r="K17" s="54" t="str">
         <f t="shared" ref="K17" si="13">IF(J$8*J17=0,"",J$8*J17)</f>
         <v/>
       </c>
-      <c r="L17" s="13"/>
-      <c r="M17" s="14" t="str">
+      <c r="L17" s="53"/>
+      <c r="M17" s="54" t="str">
         <f t="shared" ref="M17" si="14">IF(L$8*L17=0,"",L$8*L17)</f>
         <v/>
       </c>
-      <c r="N17" s="13"/>
-      <c r="O17" s="14" t="str">
+      <c r="N17" s="53"/>
+      <c r="O17" s="54" t="str">
         <f t="shared" ref="O17" si="15">IF(N$8*N17=0,"",N$8*N17)</f>
         <v/>
       </c>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="15" t="str">
+      <c r="P17" s="53"/>
+      <c r="Q17" s="55" t="str">
         <f t="shared" ref="Q17" si="16">IF(P$8*P17=0,"",P$8*P17)</f>
         <v/>
       </c>
-      <c r="R17" s="16" t="str">
+      <c r="R17" s="56" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A18" s="38" t="str">
+      <c r="A18" s="52" t="str">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="14" t="str">
+      <c r="B18" s="53"/>
+      <c r="C18" s="54" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D18" s="53"/>
+      <c r="E18" s="54" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F18" s="53"/>
+      <c r="G18" s="54" t="str">
         <f t="shared" ref="G18" si="17">IF(F$8*F18=0,"",F$8*F18)</f>
         <v/>
       </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="14" t="str">
+      <c r="H18" s="53"/>
+      <c r="I18" s="54" t="str">
         <f t="shared" ref="I18" si="18">IF(H$8*H18=0,"",H$8*H18)</f>
         <v/>
       </c>
-      <c r="J18" s="13"/>
-      <c r="K18" s="14" t="str">
+      <c r="J18" s="53"/>
+      <c r="K18" s="54" t="str">
         <f t="shared" ref="K18" si="19">IF(J$8*J18=0,"",J$8*J18)</f>
         <v/>
       </c>
-      <c r="L18" s="13"/>
-      <c r="M18" s="14" t="str">
+      <c r="L18" s="53"/>
+      <c r="M18" s="54" t="str">
         <f t="shared" ref="M18" si="20">IF(L$8*L18=0,"",L$8*L18)</f>
         <v/>
       </c>
-      <c r="N18" s="13"/>
-      <c r="O18" s="14" t="str">
+      <c r="N18" s="53"/>
+      <c r="O18" s="54" t="str">
         <f t="shared" ref="O18" si="21">IF(N$8*N18=0,"",N$8*N18)</f>
         <v/>
       </c>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="15" t="str">
+      <c r="P18" s="53"/>
+      <c r="Q18" s="55" t="str">
         <f t="shared" ref="Q18" si="22">IF(P$8*P18=0,"",P$8*P18)</f>
         <v/>
       </c>
-      <c r="R18" s="16" t="str">
+      <c r="R18" s="56" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A19" s="38" t="str">
+      <c r="A19" s="52" t="str">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="14" t="str">
+      <c r="B19" s="53"/>
+      <c r="C19" s="54" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D19" s="53"/>
+      <c r="E19" s="54" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F19" s="53"/>
+      <c r="G19" s="54" t="str">
         <f t="shared" ref="G19" si="23">IF(F$8*F19=0,"",F$8*F19)</f>
         <v/>
       </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="14" t="str">
+      <c r="H19" s="53"/>
+      <c r="I19" s="54" t="str">
         <f t="shared" ref="I19" si="24">IF(H$8*H19=0,"",H$8*H19)</f>
         <v/>
       </c>
-      <c r="J19" s="13"/>
-      <c r="K19" s="14" t="str">
+      <c r="J19" s="53"/>
+      <c r="K19" s="54" t="str">
         <f t="shared" ref="K19" si="25">IF(J$8*J19=0,"",J$8*J19)</f>
         <v/>
       </c>
-      <c r="L19" s="13"/>
-      <c r="M19" s="14" t="str">
+      <c r="L19" s="53"/>
+      <c r="M19" s="54" t="str">
         <f t="shared" ref="M19" si="26">IF(L$8*L19=0,"",L$8*L19)</f>
         <v/>
       </c>
-      <c r="N19" s="13"/>
-      <c r="O19" s="14" t="str">
+      <c r="N19" s="53"/>
+      <c r="O19" s="54" t="str">
         <f t="shared" ref="O19" si="27">IF(N$8*N19=0,"",N$8*N19)</f>
         <v/>
       </c>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="15" t="str">
+      <c r="P19" s="53"/>
+      <c r="Q19" s="55" t="str">
         <f t="shared" ref="Q19" si="28">IF(P$8*P19=0,"",P$8*P19)</f>
         <v/>
       </c>
-      <c r="R19" s="16" t="str">
+      <c r="R19" s="56" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A20" s="38" t="str">
+      <c r="A20" s="52" t="str">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="14" t="str">
+      <c r="B20" s="53"/>
+      <c r="C20" s="54" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D20" s="53"/>
+      <c r="E20" s="54" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F20" s="53"/>
+      <c r="G20" s="54" t="str">
         <f t="shared" ref="G20" si="29">IF(F$8*F20=0,"",F$8*F20)</f>
         <v/>
       </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="14" t="str">
+      <c r="H20" s="53"/>
+      <c r="I20" s="54" t="str">
         <f t="shared" ref="I20" si="30">IF(H$8*H20=0,"",H$8*H20)</f>
         <v/>
       </c>
-      <c r="J20" s="13"/>
-      <c r="K20" s="14" t="str">
+      <c r="J20" s="53"/>
+      <c r="K20" s="54" t="str">
         <f t="shared" ref="K20" si="31">IF(J$8*J20=0,"",J$8*J20)</f>
         <v/>
       </c>
-      <c r="L20" s="13"/>
-      <c r="M20" s="14" t="str">
+      <c r="L20" s="53"/>
+      <c r="M20" s="54" t="str">
         <f t="shared" ref="M20" si="32">IF(L$8*L20=0,"",L$8*L20)</f>
         <v/>
       </c>
-      <c r="N20" s="13"/>
-      <c r="O20" s="14" t="str">
+      <c r="N20" s="53"/>
+      <c r="O20" s="54" t="str">
         <f t="shared" ref="O20" si="33">IF(N$8*N20=0,"",N$8*N20)</f>
         <v/>
       </c>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="15" t="str">
+      <c r="P20" s="53"/>
+      <c r="Q20" s="55" t="str">
         <f t="shared" ref="Q20" si="34">IF(P$8*P20=0,"",P$8*P20)</f>
         <v/>
       </c>
-      <c r="R20" s="16" t="str">
+      <c r="R20" s="56" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A21" s="38" t="str">
+      <c r="A21" s="52" t="str">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="14" t="str">
+      <c r="B21" s="53"/>
+      <c r="C21" s="54" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D21" s="53"/>
+      <c r="E21" s="54" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F21" s="53"/>
+      <c r="G21" s="54" t="str">
         <f t="shared" ref="G21" si="35">IF(F$8*F21=0,"",F$8*F21)</f>
         <v/>
       </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14" t="str">
+      <c r="H21" s="53"/>
+      <c r="I21" s="54" t="str">
         <f t="shared" ref="I21" si="36">IF(H$8*H21=0,"",H$8*H21)</f>
         <v/>
       </c>
-      <c r="J21" s="13"/>
-      <c r="K21" s="14" t="str">
+      <c r="J21" s="53"/>
+      <c r="K21" s="54" t="str">
         <f t="shared" ref="K21" si="37">IF(J$8*J21=0,"",J$8*J21)</f>
         <v/>
       </c>
-      <c r="L21" s="13"/>
-      <c r="M21" s="14" t="str">
+      <c r="L21" s="53"/>
+      <c r="M21" s="54" t="str">
         <f t="shared" ref="M21" si="38">IF(L$8*L21=0,"",L$8*L21)</f>
         <v/>
       </c>
-      <c r="N21" s="13"/>
-      <c r="O21" s="14" t="str">
+      <c r="N21" s="53"/>
+      <c r="O21" s="54" t="str">
         <f t="shared" ref="O21" si="39">IF(N$8*N21=0,"",N$8*N21)</f>
         <v/>
       </c>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="15" t="str">
+      <c r="P21" s="53"/>
+      <c r="Q21" s="55" t="str">
         <f t="shared" ref="Q21" si="40">IF(P$8*P21=0,"",P$8*P21)</f>
         <v/>
       </c>
-      <c r="R21" s="16" t="str">
+      <c r="R21" s="56" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A22" s="38" t="str">
+      <c r="A22" s="52" t="str">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="14" t="str">
+      <c r="B22" s="53"/>
+      <c r="C22" s="54" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D22" s="53"/>
+      <c r="E22" s="54" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F22" s="53"/>
+      <c r="G22" s="54" t="str">
         <f t="shared" ref="G22" si="41">IF(F$8*F22=0,"",F$8*F22)</f>
         <v/>
       </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="14" t="str">
+      <c r="H22" s="53"/>
+      <c r="I22" s="54" t="str">
         <f t="shared" ref="I22" si="42">IF(H$8*H22=0,"",H$8*H22)</f>
         <v/>
       </c>
-      <c r="J22" s="13"/>
-      <c r="K22" s="14" t="str">
+      <c r="J22" s="53"/>
+      <c r="K22" s="54" t="str">
         <f t="shared" ref="K22" si="43">IF(J$8*J22=0,"",J$8*J22)</f>
         <v/>
       </c>
-      <c r="L22" s="13"/>
-      <c r="M22" s="14" t="str">
+      <c r="L22" s="53"/>
+      <c r="M22" s="54" t="str">
         <f t="shared" ref="M22" si="44">IF(L$8*L22=0,"",L$8*L22)</f>
         <v/>
       </c>
-      <c r="N22" s="13"/>
-      <c r="O22" s="14" t="str">
+      <c r="N22" s="53"/>
+      <c r="O22" s="54" t="str">
         <f t="shared" ref="O22" si="45">IF(N$8*N22=0,"",N$8*N22)</f>
         <v/>
       </c>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="15" t="str">
+      <c r="P22" s="53"/>
+      <c r="Q22" s="55" t="str">
         <f t="shared" ref="Q22" si="46">IF(P$8*P22=0,"",P$8*P22)</f>
         <v/>
       </c>
-      <c r="R22" s="16" t="str">
+      <c r="R22" s="56" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A23" s="38" t="str">
+      <c r="A23" s="52" t="str">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="14" t="str">
+      <c r="B23" s="53"/>
+      <c r="C23" s="54" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D23" s="53"/>
+      <c r="E23" s="54" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F23" s="53"/>
+      <c r="G23" s="54" t="str">
         <f t="shared" ref="G23" si="47">IF(F$8*F23=0,"",F$8*F23)</f>
         <v/>
       </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="14" t="str">
+      <c r="H23" s="53"/>
+      <c r="I23" s="54" t="str">
         <f t="shared" ref="I23" si="48">IF(H$8*H23=0,"",H$8*H23)</f>
         <v/>
       </c>
-      <c r="J23" s="13"/>
-      <c r="K23" s="14" t="str">
+      <c r="J23" s="53"/>
+      <c r="K23" s="54" t="str">
         <f t="shared" ref="K23" si="49">IF(J$8*J23=0,"",J$8*J23)</f>
         <v/>
       </c>
-      <c r="L23" s="13"/>
-      <c r="M23" s="14" t="str">
+      <c r="L23" s="53"/>
+      <c r="M23" s="54" t="str">
         <f t="shared" ref="M23" si="50">IF(L$8*L23=0,"",L$8*L23)</f>
         <v/>
       </c>
-      <c r="N23" s="13"/>
-      <c r="O23" s="14" t="str">
+      <c r="N23" s="53"/>
+      <c r="O23" s="54" t="str">
         <f t="shared" ref="O23" si="51">IF(N$8*N23=0,"",N$8*N23)</f>
         <v/>
       </c>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="15" t="str">
+      <c r="P23" s="53"/>
+      <c r="Q23" s="55" t="str">
         <f t="shared" ref="Q23" si="52">IF(P$8*P23=0,"",P$8*P23)</f>
         <v/>
       </c>
-      <c r="R23" s="16" t="str">
+      <c r="R23" s="56" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A24" s="38" t="str">
+      <c r="A24" s="52" t="str">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="14" t="str">
+      <c r="B24" s="53"/>
+      <c r="C24" s="54" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D24" s="53"/>
+      <c r="E24" s="54" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F24" s="53"/>
+      <c r="G24" s="54" t="str">
         <f t="shared" ref="G24" si="53">IF(F$8*F24=0,"",F$8*F24)</f>
         <v/>
       </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="14" t="str">
+      <c r="H24" s="53"/>
+      <c r="I24" s="54" t="str">
         <f t="shared" ref="I24" si="54">IF(H$8*H24=0,"",H$8*H24)</f>
         <v/>
       </c>
-      <c r="J24" s="13"/>
-      <c r="K24" s="14" t="str">
+      <c r="J24" s="53"/>
+      <c r="K24" s="54" t="str">
         <f t="shared" ref="K24" si="55">IF(J$8*J24=0,"",J$8*J24)</f>
         <v/>
       </c>
-      <c r="L24" s="13"/>
-      <c r="M24" s="14" t="str">
+      <c r="L24" s="53"/>
+      <c r="M24" s="54" t="str">
         <f t="shared" ref="M24" si="56">IF(L$8*L24=0,"",L$8*L24)</f>
         <v/>
       </c>
-      <c r="N24" s="13"/>
-      <c r="O24" s="14" t="str">
+      <c r="N24" s="53"/>
+      <c r="O24" s="54" t="str">
         <f t="shared" ref="O24" si="57">IF(N$8*N24=0,"",N$8*N24)</f>
         <v/>
       </c>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="15" t="str">
+      <c r="P24" s="53"/>
+      <c r="Q24" s="55" t="str">
         <f t="shared" ref="Q24" si="58">IF(P$8*P24=0,"",P$8*P24)</f>
         <v/>
       </c>
-      <c r="R24" s="16" t="str">
+      <c r="R24" s="56" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A25" s="38" t="str">
+      <c r="A25" s="52" t="str">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="14" t="str">
+      <c r="B25" s="53"/>
+      <c r="C25" s="54" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D25" s="53"/>
+      <c r="E25" s="54" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F25" s="53"/>
+      <c r="G25" s="54" t="str">
         <f t="shared" ref="G25" si="59">IF(F$8*F25=0,"",F$8*F25)</f>
         <v/>
       </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="14" t="str">
+      <c r="H25" s="53"/>
+      <c r="I25" s="54" t="str">
         <f t="shared" ref="I25" si="60">IF(H$8*H25=0,"",H$8*H25)</f>
         <v/>
       </c>
-      <c r="J25" s="13"/>
-      <c r="K25" s="14" t="str">
+      <c r="J25" s="53"/>
+      <c r="K25" s="54" t="str">
         <f t="shared" ref="K25" si="61">IF(J$8*J25=0,"",J$8*J25)</f>
         <v/>
       </c>
-      <c r="L25" s="13"/>
-      <c r="M25" s="14" t="str">
+      <c r="L25" s="53"/>
+      <c r="M25" s="54" t="str">
         <f t="shared" ref="M25" si="62">IF(L$8*L25=0,"",L$8*L25)</f>
         <v/>
       </c>
-      <c r="N25" s="13"/>
-      <c r="O25" s="14" t="str">
+      <c r="N25" s="53"/>
+      <c r="O25" s="54" t="str">
         <f t="shared" ref="O25" si="63">IF(N$8*N25=0,"",N$8*N25)</f>
         <v/>
       </c>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="15" t="str">
+      <c r="P25" s="53"/>
+      <c r="Q25" s="55" t="str">
         <f t="shared" ref="Q25" si="64">IF(P$8*P25=0,"",P$8*P25)</f>
         <v/>
       </c>
-      <c r="R25" s="16" t="str">
+      <c r="R25" s="56" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A26" s="38" t="str">
+      <c r="A26" s="52" t="str">
         <f t="shared" ref="A26:A41" si="65">SUBSTITUTE(MID(SUBSTITUTE($A$4," ",""),6,10),"月分","/")&amp;(ROW()-10)</f>
         <v>16</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="14" t="str">
+      <c r="B26" s="53"/>
+      <c r="C26" s="54" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D26" s="53"/>
+      <c r="E26" s="54" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F26" s="53"/>
+      <c r="G26" s="54" t="str">
         <f t="shared" ref="G26" si="66">IF(F$8*F26=0,"",F$8*F26)</f>
         <v/>
       </c>
-      <c r="H26" s="13"/>
-      <c r="I26" s="14" t="str">
+      <c r="H26" s="53"/>
+      <c r="I26" s="54" t="str">
         <f t="shared" ref="I26" si="67">IF(H$8*H26=0,"",H$8*H26)</f>
         <v/>
       </c>
-      <c r="J26" s="13"/>
-      <c r="K26" s="14" t="str">
+      <c r="J26" s="53"/>
+      <c r="K26" s="54" t="str">
         <f t="shared" ref="K26" si="68">IF(J$8*J26=0,"",J$8*J26)</f>
         <v/>
       </c>
-      <c r="L26" s="13"/>
-      <c r="M26" s="14" t="str">
+      <c r="L26" s="53"/>
+      <c r="M26" s="54" t="str">
         <f t="shared" ref="M26" si="69">IF(L$8*L26=0,"",L$8*L26)</f>
         <v/>
       </c>
-      <c r="N26" s="13"/>
-      <c r="O26" s="14" t="str">
+      <c r="N26" s="53"/>
+      <c r="O26" s="54" t="str">
         <f t="shared" ref="O26" si="70">IF(N$8*N26=0,"",N$8*N26)</f>
         <v/>
       </c>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="15" t="str">
+      <c r="P26" s="53"/>
+      <c r="Q26" s="55" t="str">
         <f t="shared" ref="Q26" si="71">IF(P$8*P26=0,"",P$8*P26)</f>
         <v/>
       </c>
-      <c r="R26" s="16" t="str">
+      <c r="R26" s="56" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A27" s="38" t="str">
+      <c r="A27" s="52" t="str">
         <f t="shared" si="65"/>
         <v>17</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="14" t="str">
+      <c r="B27" s="53"/>
+      <c r="C27" s="54" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D27" s="53"/>
+      <c r="E27" s="54" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F27" s="53"/>
+      <c r="G27" s="54" t="str">
         <f t="shared" ref="G27" si="72">IF(F$8*F27=0,"",F$8*F27)</f>
         <v/>
       </c>
-      <c r="H27" s="13"/>
-      <c r="I27" s="14" t="str">
+      <c r="H27" s="53"/>
+      <c r="I27" s="54" t="str">
         <f t="shared" ref="I27" si="73">IF(H$8*H27=0,"",H$8*H27)</f>
         <v/>
       </c>
-      <c r="J27" s="13"/>
-      <c r="K27" s="14" t="str">
+      <c r="J27" s="53"/>
+      <c r="K27" s="54" t="str">
         <f t="shared" ref="K27" si="74">IF(J$8*J27=0,"",J$8*J27)</f>
         <v/>
       </c>
-      <c r="L27" s="13"/>
-      <c r="M27" s="14" t="str">
+      <c r="L27" s="53"/>
+      <c r="M27" s="54" t="str">
         <f t="shared" ref="M27" si="75">IF(L$8*L27=0,"",L$8*L27)</f>
         <v/>
       </c>
-      <c r="N27" s="13"/>
-      <c r="O27" s="14" t="str">
+      <c r="N27" s="53"/>
+      <c r="O27" s="54" t="str">
         <f t="shared" ref="O27" si="76">IF(N$8*N27=0,"",N$8*N27)</f>
         <v/>
       </c>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="15" t="str">
+      <c r="P27" s="53"/>
+      <c r="Q27" s="55" t="str">
         <f t="shared" ref="Q27" si="77">IF(P$8*P27=0,"",P$8*P27)</f>
         <v/>
       </c>
-      <c r="R27" s="16" t="str">
+      <c r="R27" s="56" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A28" s="38" t="str">
+      <c r="A28" s="52" t="str">
         <f t="shared" si="65"/>
         <v>18</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="14" t="str">
+      <c r="B28" s="53"/>
+      <c r="C28" s="54" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D28" s="53"/>
+      <c r="E28" s="54" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F28" s="53"/>
+      <c r="G28" s="54" t="str">
         <f t="shared" ref="G28" si="78">IF(F$8*F28=0,"",F$8*F28)</f>
         <v/>
       </c>
-      <c r="H28" s="13"/>
-      <c r="I28" s="14" t="str">
+      <c r="H28" s="53"/>
+      <c r="I28" s="54" t="str">
         <f t="shared" ref="I28" si="79">IF(H$8*H28=0,"",H$8*H28)</f>
         <v/>
       </c>
-      <c r="J28" s="13"/>
-      <c r="K28" s="14" t="str">
+      <c r="J28" s="53"/>
+      <c r="K28" s="54" t="str">
         <f t="shared" ref="K28" si="80">IF(J$8*J28=0,"",J$8*J28)</f>
         <v/>
       </c>
-      <c r="L28" s="13"/>
-      <c r="M28" s="14" t="str">
+      <c r="L28" s="53"/>
+      <c r="M28" s="54" t="str">
         <f t="shared" ref="M28" si="81">IF(L$8*L28=0,"",L$8*L28)</f>
         <v/>
       </c>
-      <c r="N28" s="13"/>
-      <c r="O28" s="14" t="str">
+      <c r="N28" s="53"/>
+      <c r="O28" s="54" t="str">
         <f t="shared" ref="O28" si="82">IF(N$8*N28=0,"",N$8*N28)</f>
         <v/>
       </c>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="15" t="str">
+      <c r="P28" s="53"/>
+      <c r="Q28" s="55" t="str">
         <f t="shared" ref="Q28" si="83">IF(P$8*P28=0,"",P$8*P28)</f>
         <v/>
       </c>
-      <c r="R28" s="16" t="str">
+      <c r="R28" s="56" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A29" s="38" t="str">
+      <c r="A29" s="52" t="str">
         <f t="shared" si="65"/>
         <v>19</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="14" t="str">
+      <c r="B29" s="53"/>
+      <c r="C29" s="54" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D29" s="53"/>
+      <c r="E29" s="54" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F29" s="53"/>
+      <c r="G29" s="54" t="str">
         <f t="shared" ref="G29" si="84">IF(F$8*F29=0,"",F$8*F29)</f>
         <v/>
       </c>
-      <c r="H29" s="13"/>
-      <c r="I29" s="14" t="str">
+      <c r="H29" s="53"/>
+      <c r="I29" s="54" t="str">
         <f t="shared" ref="I29" si="85">IF(H$8*H29=0,"",H$8*H29)</f>
         <v/>
       </c>
-      <c r="J29" s="13"/>
-      <c r="K29" s="14" t="str">
+      <c r="J29" s="53"/>
+      <c r="K29" s="54" t="str">
         <f t="shared" ref="K29" si="86">IF(J$8*J29=0,"",J$8*J29)</f>
         <v/>
       </c>
-      <c r="L29" s="13"/>
-      <c r="M29" s="14" t="str">
+      <c r="L29" s="53"/>
+      <c r="M29" s="54" t="str">
         <f t="shared" ref="M29" si="87">IF(L$8*L29=0,"",L$8*L29)</f>
         <v/>
       </c>
-      <c r="N29" s="13"/>
-      <c r="O29" s="14" t="str">
+      <c r="N29" s="53"/>
+      <c r="O29" s="54" t="str">
         <f t="shared" ref="O29" si="88">IF(N$8*N29=0,"",N$8*N29)</f>
         <v/>
       </c>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="15" t="str">
+      <c r="P29" s="53"/>
+      <c r="Q29" s="55" t="str">
         <f t="shared" ref="Q29" si="89">IF(P$8*P29=0,"",P$8*P29)</f>
         <v/>
       </c>
-      <c r="R29" s="16" t="str">
+      <c r="R29" s="56" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A30" s="38" t="str">
+      <c r="A30" s="52" t="str">
         <f t="shared" si="65"/>
         <v>20</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="14" t="str">
+      <c r="B30" s="53"/>
+      <c r="C30" s="54" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D30" s="53"/>
+      <c r="E30" s="54" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F30" s="53"/>
+      <c r="G30" s="54" t="str">
         <f t="shared" ref="G30" si="90">IF(F$8*F30=0,"",F$8*F30)</f>
         <v/>
       </c>
-      <c r="H30" s="13"/>
-      <c r="I30" s="14" t="str">
+      <c r="H30" s="53"/>
+      <c r="I30" s="54" t="str">
         <f t="shared" ref="I30" si="91">IF(H$8*H30=0,"",H$8*H30)</f>
         <v/>
       </c>
-      <c r="J30" s="13"/>
-      <c r="K30" s="14" t="str">
+      <c r="J30" s="53"/>
+      <c r="K30" s="54" t="str">
         <f t="shared" ref="K30" si="92">IF(J$8*J30=0,"",J$8*J30)</f>
         <v/>
       </c>
-      <c r="L30" s="13"/>
-      <c r="M30" s="14" t="str">
+      <c r="L30" s="53"/>
+      <c r="M30" s="54" t="str">
         <f t="shared" ref="M30" si="93">IF(L$8*L30=0,"",L$8*L30)</f>
         <v/>
       </c>
-      <c r="N30" s="13"/>
-      <c r="O30" s="14" t="str">
+      <c r="N30" s="53"/>
+      <c r="O30" s="54" t="str">
         <f t="shared" ref="O30" si="94">IF(N$8*N30=0,"",N$8*N30)</f>
         <v/>
       </c>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="15" t="str">
+      <c r="P30" s="53"/>
+      <c r="Q30" s="55" t="str">
         <f t="shared" ref="Q30" si="95">IF(P$8*P30=0,"",P$8*P30)</f>
         <v/>
       </c>
-      <c r="R30" s="16" t="str">
+      <c r="R30" s="56" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A31" s="38" t="str">
+      <c r="A31" s="52" t="str">
         <f t="shared" si="65"/>
         <v>21</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="14" t="str">
+      <c r="B31" s="53"/>
+      <c r="C31" s="54" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D31" s="53"/>
+      <c r="E31" s="54" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F31" s="53"/>
+      <c r="G31" s="54" t="str">
         <f t="shared" ref="G31" si="96">IF(F$8*F31=0,"",F$8*F31)</f>
         <v/>
       </c>
-      <c r="H31" s="13"/>
-      <c r="I31" s="14" t="str">
+      <c r="H31" s="53"/>
+      <c r="I31" s="54" t="str">
         <f t="shared" ref="I31" si="97">IF(H$8*H31=0,"",H$8*H31)</f>
         <v/>
       </c>
-      <c r="J31" s="13"/>
-      <c r="K31" s="14" t="str">
+      <c r="J31" s="53"/>
+      <c r="K31" s="54" t="str">
         <f t="shared" ref="K31" si="98">IF(J$8*J31=0,"",J$8*J31)</f>
         <v/>
       </c>
-      <c r="L31" s="13"/>
-      <c r="M31" s="14" t="str">
+      <c r="L31" s="53"/>
+      <c r="M31" s="54" t="str">
         <f t="shared" ref="M31" si="99">IF(L$8*L31=0,"",L$8*L31)</f>
         <v/>
       </c>
-      <c r="N31" s="13"/>
-      <c r="O31" s="14" t="str">
+      <c r="N31" s="53"/>
+      <c r="O31" s="54" t="str">
         <f t="shared" ref="O31" si="100">IF(N$8*N31=0,"",N$8*N31)</f>
         <v/>
       </c>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="15" t="str">
+      <c r="P31" s="53"/>
+      <c r="Q31" s="55" t="str">
         <f t="shared" ref="Q31" si="101">IF(P$8*P31=0,"",P$8*P31)</f>
         <v/>
       </c>
-      <c r="R31" s="16" t="str">
+      <c r="R31" s="56" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A32" s="38" t="str">
+      <c r="A32" s="52" t="str">
         <f t="shared" si="65"/>
         <v>22</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="14" t="str">
+      <c r="B32" s="53"/>
+      <c r="C32" s="54" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D32" s="53"/>
+      <c r="E32" s="54" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F32" s="53"/>
+      <c r="G32" s="54" t="str">
         <f t="shared" ref="G32" si="102">IF(F$8*F32=0,"",F$8*F32)</f>
         <v/>
       </c>
-      <c r="H32" s="13"/>
-      <c r="I32" s="14" t="str">
+      <c r="H32" s="53"/>
+      <c r="I32" s="54" t="str">
         <f t="shared" ref="I32" si="103">IF(H$8*H32=0,"",H$8*H32)</f>
         <v/>
       </c>
-      <c r="J32" s="13"/>
-      <c r="K32" s="14" t="str">
+      <c r="J32" s="53"/>
+      <c r="K32" s="54" t="str">
         <f t="shared" ref="K32" si="104">IF(J$8*J32=0,"",J$8*J32)</f>
         <v/>
       </c>
-      <c r="L32" s="13"/>
-      <c r="M32" s="14" t="str">
+      <c r="L32" s="53"/>
+      <c r="M32" s="54" t="str">
         <f t="shared" ref="M32" si="105">IF(L$8*L32=0,"",L$8*L32)</f>
         <v/>
       </c>
-      <c r="N32" s="13"/>
-      <c r="O32" s="14" t="str">
+      <c r="N32" s="53"/>
+      <c r="O32" s="54" t="str">
         <f t="shared" ref="O32" si="106">IF(N$8*N32=0,"",N$8*N32)</f>
         <v/>
       </c>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="15" t="str">
+      <c r="P32" s="53"/>
+      <c r="Q32" s="55" t="str">
         <f t="shared" ref="Q32" si="107">IF(P$8*P32=0,"",P$8*P32)</f>
         <v/>
       </c>
-      <c r="R32" s="16" t="str">
+      <c r="R32" s="56" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A33" s="38" t="str">
+      <c r="A33" s="52" t="str">
         <f t="shared" si="65"/>
         <v>23</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="14" t="str">
+      <c r="B33" s="53"/>
+      <c r="C33" s="54" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D33" s="53"/>
+      <c r="E33" s="54" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F33" s="53"/>
+      <c r="G33" s="54" t="str">
         <f t="shared" ref="G33" si="108">IF(F$8*F33=0,"",F$8*F33)</f>
         <v/>
       </c>
-      <c r="H33" s="13"/>
-      <c r="I33" s="14" t="str">
+      <c r="H33" s="53"/>
+      <c r="I33" s="54" t="str">
         <f t="shared" ref="I33" si="109">IF(H$8*H33=0,"",H$8*H33)</f>
         <v/>
       </c>
-      <c r="J33" s="13"/>
-      <c r="K33" s="14" t="str">
+      <c r="J33" s="53"/>
+      <c r="K33" s="54" t="str">
         <f t="shared" ref="K33" si="110">IF(J$8*J33=0,"",J$8*J33)</f>
         <v/>
       </c>
-      <c r="L33" s="13"/>
-      <c r="M33" s="14" t="str">
+      <c r="L33" s="53"/>
+      <c r="M33" s="54" t="str">
         <f t="shared" ref="M33" si="111">IF(L$8*L33=0,"",L$8*L33)</f>
         <v/>
       </c>
-      <c r="N33" s="13"/>
-      <c r="O33" s="14" t="str">
+      <c r="N33" s="53"/>
+      <c r="O33" s="54" t="str">
         <f t="shared" ref="O33" si="112">IF(N$8*N33=0,"",N$8*N33)</f>
         <v/>
       </c>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="15" t="str">
+      <c r="P33" s="53"/>
+      <c r="Q33" s="55" t="str">
         <f t="shared" ref="Q33" si="113">IF(P$8*P33=0,"",P$8*P33)</f>
         <v/>
       </c>
-      <c r="R33" s="16" t="str">
+      <c r="R33" s="56" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A34" s="38" t="str">
+      <c r="A34" s="52" t="str">
         <f t="shared" si="65"/>
         <v>24</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F34" s="13"/>
-      <c r="G34" s="14" t="str">
+      <c r="B34" s="53"/>
+      <c r="C34" s="54" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D34" s="53"/>
+      <c r="E34" s="54" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F34" s="53"/>
+      <c r="G34" s="54" t="str">
         <f t="shared" ref="G34" si="114">IF(F$8*F34=0,"",F$8*F34)</f>
         <v/>
       </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="14" t="str">
+      <c r="H34" s="53"/>
+      <c r="I34" s="54" t="str">
         <f t="shared" ref="I34" si="115">IF(H$8*H34=0,"",H$8*H34)</f>
         <v/>
       </c>
-      <c r="J34" s="13"/>
-      <c r="K34" s="14" t="str">
+      <c r="J34" s="53"/>
+      <c r="K34" s="54" t="str">
         <f t="shared" ref="K34" si="116">IF(J$8*J34=0,"",J$8*J34)</f>
         <v/>
       </c>
-      <c r="L34" s="13"/>
-      <c r="M34" s="14" t="str">
+      <c r="L34" s="53"/>
+      <c r="M34" s="54" t="str">
         <f t="shared" ref="M34" si="117">IF(L$8*L34=0,"",L$8*L34)</f>
         <v/>
       </c>
-      <c r="N34" s="13"/>
-      <c r="O34" s="14" t="str">
+      <c r="N34" s="53"/>
+      <c r="O34" s="54" t="str">
         <f t="shared" ref="O34" si="118">IF(N$8*N34=0,"",N$8*N34)</f>
         <v/>
       </c>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="15" t="str">
+      <c r="P34" s="53"/>
+      <c r="Q34" s="55" t="str">
         <f t="shared" ref="Q34" si="119">IF(P$8*P34=0,"",P$8*P34)</f>
         <v/>
       </c>
-      <c r="R34" s="16" t="str">
+      <c r="R34" s="56" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A35" s="38" t="str">
+      <c r="A35" s="52" t="str">
         <f t="shared" si="65"/>
         <v>25</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F35" s="13"/>
-      <c r="G35" s="14" t="str">
+      <c r="B35" s="53"/>
+      <c r="C35" s="54" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D35" s="53"/>
+      <c r="E35" s="54" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F35" s="53"/>
+      <c r="G35" s="54" t="str">
         <f t="shared" ref="G35" si="120">IF(F$8*F35=0,"",F$8*F35)</f>
         <v/>
       </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="14" t="str">
+      <c r="H35" s="53"/>
+      <c r="I35" s="54" t="str">
         <f t="shared" ref="I35" si="121">IF(H$8*H35=0,"",H$8*H35)</f>
         <v/>
       </c>
-      <c r="J35" s="13"/>
-      <c r="K35" s="14" t="str">
+      <c r="J35" s="53"/>
+      <c r="K35" s="54" t="str">
         <f t="shared" ref="K35" si="122">IF(J$8*J35=0,"",J$8*J35)</f>
         <v/>
       </c>
-      <c r="L35" s="13"/>
-      <c r="M35" s="14" t="str">
+      <c r="L35" s="53"/>
+      <c r="M35" s="54" t="str">
         <f t="shared" ref="M35" si="123">IF(L$8*L35=0,"",L$8*L35)</f>
         <v/>
       </c>
-      <c r="N35" s="13"/>
-      <c r="O35" s="14" t="str">
+      <c r="N35" s="53"/>
+      <c r="O35" s="54" t="str">
         <f t="shared" ref="O35" si="124">IF(N$8*N35=0,"",N$8*N35)</f>
         <v/>
       </c>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="15" t="str">
+      <c r="P35" s="53"/>
+      <c r="Q35" s="55" t="str">
         <f t="shared" ref="Q35" si="125">IF(P$8*P35=0,"",P$8*P35)</f>
         <v/>
       </c>
-      <c r="R35" s="16" t="str">
+      <c r="R35" s="56" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A36" s="38" t="str">
+      <c r="A36" s="52" t="str">
         <f t="shared" si="65"/>
         <v>26</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F36" s="13"/>
-      <c r="G36" s="14" t="str">
+      <c r="B36" s="53"/>
+      <c r="C36" s="54" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D36" s="53"/>
+      <c r="E36" s="54" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F36" s="53"/>
+      <c r="G36" s="54" t="str">
         <f t="shared" ref="G36" si="126">IF(F$8*F36=0,"",F$8*F36)</f>
         <v/>
       </c>
-      <c r="H36" s="13"/>
-      <c r="I36" s="14" t="str">
+      <c r="H36" s="53"/>
+      <c r="I36" s="54" t="str">
         <f t="shared" ref="I36" si="127">IF(H$8*H36=0,"",H$8*H36)</f>
         <v/>
       </c>
-      <c r="J36" s="13"/>
-      <c r="K36" s="14" t="str">
+      <c r="J36" s="53"/>
+      <c r="K36" s="54" t="str">
         <f t="shared" ref="K36" si="128">IF(J$8*J36=0,"",J$8*J36)</f>
         <v/>
       </c>
-      <c r="L36" s="13"/>
-      <c r="M36" s="14" t="str">
+      <c r="L36" s="53"/>
+      <c r="M36" s="54" t="str">
         <f t="shared" ref="M36" si="129">IF(L$8*L36=0,"",L$8*L36)</f>
         <v/>
       </c>
-      <c r="N36" s="13"/>
-      <c r="O36" s="14" t="str">
+      <c r="N36" s="53"/>
+      <c r="O36" s="54" t="str">
         <f t="shared" ref="O36" si="130">IF(N$8*N36=0,"",N$8*N36)</f>
         <v/>
       </c>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="15" t="str">
+      <c r="P36" s="53"/>
+      <c r="Q36" s="55" t="str">
         <f t="shared" ref="Q36" si="131">IF(P$8*P36=0,"",P$8*P36)</f>
         <v/>
       </c>
-      <c r="R36" s="16" t="str">
+      <c r="R36" s="56" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A37" s="38" t="str">
+      <c r="A37" s="52" t="str">
         <f t="shared" si="65"/>
         <v>27</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F37" s="13"/>
-      <c r="G37" s="14" t="str">
+      <c r="B37" s="53"/>
+      <c r="C37" s="54" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D37" s="53"/>
+      <c r="E37" s="54" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F37" s="53"/>
+      <c r="G37" s="54" t="str">
         <f t="shared" ref="G37" si="132">IF(F$8*F37=0,"",F$8*F37)</f>
         <v/>
       </c>
-      <c r="H37" s="13"/>
-      <c r="I37" s="14" t="str">
+      <c r="H37" s="53"/>
+      <c r="I37" s="54" t="str">
         <f t="shared" ref="I37" si="133">IF(H$8*H37=0,"",H$8*H37)</f>
         <v/>
       </c>
-      <c r="J37" s="13"/>
-      <c r="K37" s="14" t="str">
+      <c r="J37" s="53"/>
+      <c r="K37" s="54" t="str">
         <f t="shared" ref="K37" si="134">IF(J$8*J37=0,"",J$8*J37)</f>
         <v/>
       </c>
-      <c r="L37" s="13"/>
-      <c r="M37" s="14" t="str">
+      <c r="L37" s="53"/>
+      <c r="M37" s="54" t="str">
         <f t="shared" ref="M37" si="135">IF(L$8*L37=0,"",L$8*L37)</f>
         <v/>
       </c>
-      <c r="N37" s="13"/>
-      <c r="O37" s="14" t="str">
+      <c r="N37" s="53"/>
+      <c r="O37" s="54" t="str">
         <f t="shared" ref="O37" si="136">IF(N$8*N37=0,"",N$8*N37)</f>
         <v/>
       </c>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="15" t="str">
+      <c r="P37" s="53"/>
+      <c r="Q37" s="55" t="str">
         <f t="shared" ref="Q37" si="137">IF(P$8*P37=0,"",P$8*P37)</f>
         <v/>
       </c>
-      <c r="R37" s="16" t="str">
+      <c r="R37" s="56" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A38" s="38" t="str">
+      <c r="A38" s="52" t="str">
         <f t="shared" si="65"/>
         <v>28</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F38" s="13"/>
-      <c r="G38" s="14" t="str">
+      <c r="B38" s="53"/>
+      <c r="C38" s="54" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D38" s="53"/>
+      <c r="E38" s="54" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F38" s="53"/>
+      <c r="G38" s="54" t="str">
         <f t="shared" ref="G38" si="138">IF(F$8*F38=0,"",F$8*F38)</f>
         <v/>
       </c>
-      <c r="H38" s="13"/>
-      <c r="I38" s="14" t="str">
+      <c r="H38" s="53"/>
+      <c r="I38" s="54" t="str">
         <f t="shared" ref="I38" si="139">IF(H$8*H38=0,"",H$8*H38)</f>
         <v/>
       </c>
-      <c r="J38" s="13"/>
-      <c r="K38" s="14" t="str">
+      <c r="J38" s="53"/>
+      <c r="K38" s="54" t="str">
         <f t="shared" ref="K38" si="140">IF(J$8*J38=0,"",J$8*J38)</f>
         <v/>
       </c>
-      <c r="L38" s="13"/>
-      <c r="M38" s="14" t="str">
+      <c r="L38" s="53"/>
+      <c r="M38" s="54" t="str">
         <f t="shared" ref="M38" si="141">IF(L$8*L38=0,"",L$8*L38)</f>
         <v/>
       </c>
-      <c r="N38" s="13"/>
-      <c r="O38" s="14" t="str">
+      <c r="N38" s="53"/>
+      <c r="O38" s="54" t="str">
         <f t="shared" ref="O38" si="142">IF(N$8*N38=0,"",N$8*N38)</f>
         <v/>
       </c>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="15" t="str">
+      <c r="P38" s="53"/>
+      <c r="Q38" s="55" t="str">
         <f t="shared" ref="Q38" si="143">IF(P$8*P38=0,"",P$8*P38)</f>
         <v/>
       </c>
-      <c r="R38" s="16" t="str">
+      <c r="R38" s="56" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A39" s="38" t="str">
+      <c r="A39" s="52" t="str">
         <f t="shared" si="65"/>
         <v>29</v>
       </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F39" s="13"/>
-      <c r="G39" s="14" t="str">
+      <c r="B39" s="53"/>
+      <c r="C39" s="54" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D39" s="53"/>
+      <c r="E39" s="54" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F39" s="53"/>
+      <c r="G39" s="54" t="str">
         <f t="shared" ref="G39" si="144">IF(F$8*F39=0,"",F$8*F39)</f>
         <v/>
       </c>
-      <c r="H39" s="13"/>
-      <c r="I39" s="14" t="str">
+      <c r="H39" s="53"/>
+      <c r="I39" s="54" t="str">
         <f t="shared" ref="I39" si="145">IF(H$8*H39=0,"",H$8*H39)</f>
         <v/>
       </c>
-      <c r="J39" s="13"/>
-      <c r="K39" s="14" t="str">
+      <c r="J39" s="53"/>
+      <c r="K39" s="54" t="str">
         <f t="shared" ref="K39" si="146">IF(J$8*J39=0,"",J$8*J39)</f>
         <v/>
       </c>
-      <c r="L39" s="13"/>
-      <c r="M39" s="14" t="str">
+      <c r="L39" s="53"/>
+      <c r="M39" s="54" t="str">
         <f t="shared" ref="M39" si="147">IF(L$8*L39=0,"",L$8*L39)</f>
         <v/>
       </c>
-      <c r="N39" s="13"/>
-      <c r="O39" s="14" t="str">
+      <c r="N39" s="53"/>
+      <c r="O39" s="54" t="str">
         <f t="shared" ref="O39" si="148">IF(N$8*N39=0,"",N$8*N39)</f>
         <v/>
       </c>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="15" t="str">
+      <c r="P39" s="53"/>
+      <c r="Q39" s="55" t="str">
         <f t="shared" ref="Q39" si="149">IF(P$8*P39=0,"",P$8*P39)</f>
         <v/>
       </c>
-      <c r="R39" s="16" t="str">
+      <c r="R39" s="56" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A40" s="38" t="str">
+      <c r="A40" s="52" t="str">
         <f t="shared" si="65"/>
         <v>30</v>
       </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D40" s="13"/>
-      <c r="E40" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F40" s="13"/>
-      <c r="G40" s="14" t="str">
+      <c r="B40" s="53"/>
+      <c r="C40" s="54" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D40" s="53"/>
+      <c r="E40" s="54" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F40" s="53"/>
+      <c r="G40" s="54" t="str">
         <f t="shared" ref="G40" si="150">IF(F$8*F40=0,"",F$8*F40)</f>
         <v/>
       </c>
-      <c r="H40" s="13"/>
-      <c r="I40" s="14" t="str">
+      <c r="H40" s="53"/>
+      <c r="I40" s="54" t="str">
         <f t="shared" ref="I40" si="151">IF(H$8*H40=0,"",H$8*H40)</f>
         <v/>
       </c>
-      <c r="J40" s="13"/>
-      <c r="K40" s="14" t="str">
+      <c r="J40" s="53"/>
+      <c r="K40" s="54" t="str">
         <f t="shared" ref="K40" si="152">IF(J$8*J40=0,"",J$8*J40)</f>
         <v/>
       </c>
-      <c r="L40" s="13"/>
-      <c r="M40" s="14" t="str">
+      <c r="L40" s="53"/>
+      <c r="M40" s="54" t="str">
         <f t="shared" ref="M40" si="153">IF(L$8*L40=0,"",L$8*L40)</f>
         <v/>
       </c>
-      <c r="N40" s="13"/>
-      <c r="O40" s="14" t="str">
+      <c r="N40" s="53"/>
+      <c r="O40" s="54" t="str">
         <f t="shared" ref="O40" si="154">IF(N$8*N40=0,"",N$8*N40)</f>
         <v/>
       </c>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="15" t="str">
+      <c r="P40" s="53"/>
+      <c r="Q40" s="55" t="str">
         <f t="shared" ref="Q40" si="155">IF(P$8*P40=0,"",P$8*P40)</f>
         <v/>
       </c>
-      <c r="R40" s="16" t="str">
+      <c r="R40" s="56" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A41" s="39" t="str">
+      <c r="A41" s="57" t="str">
         <f t="shared" si="65"/>
         <v>31</v>
       </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D41" s="17"/>
-      <c r="E41" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F41" s="17"/>
-      <c r="G41" s="18" t="str">
+      <c r="B41" s="58"/>
+      <c r="C41" s="59" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D41" s="58"/>
+      <c r="E41" s="59" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F41" s="58"/>
+      <c r="G41" s="59" t="str">
         <f t="shared" ref="G41" si="156">IF(F$8*F41=0,"",F$8*F41)</f>
         <v/>
       </c>
-      <c r="H41" s="17"/>
-      <c r="I41" s="18" t="str">
+      <c r="H41" s="58"/>
+      <c r="I41" s="59" t="str">
         <f t="shared" ref="I41" si="157">IF(H$8*H41=0,"",H$8*H41)</f>
         <v/>
       </c>
-      <c r="J41" s="17"/>
-      <c r="K41" s="18" t="str">
+      <c r="J41" s="58"/>
+      <c r="K41" s="59" t="str">
         <f t="shared" ref="K41" si="158">IF(J$8*J41=0,"",J$8*J41)</f>
         <v/>
       </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="18" t="str">
+      <c r="L41" s="58"/>
+      <c r="M41" s="59" t="str">
         <f t="shared" ref="M41" si="159">IF(L$8*L41=0,"",L$8*L41)</f>
         <v/>
       </c>
-      <c r="N41" s="17"/>
-      <c r="O41" s="18" t="str">
+      <c r="N41" s="58"/>
+      <c r="O41" s="59" t="str">
         <f t="shared" ref="O41" si="160">IF(N$8*N41=0,"",N$8*N41)</f>
         <v/>
       </c>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="19" t="str">
+      <c r="P41" s="58"/>
+      <c r="Q41" s="60" t="str">
         <f t="shared" ref="Q41" si="161">IF(P$8*P41=0,"",P$8*P41)</f>
         <v/>
       </c>
-      <c r="R41" s="31" t="str">
+      <c r="R41" s="61" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A42" s="40" t="s">
+      <c r="A42" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="28" t="str">
+      <c r="B42" s="63" t="str">
         <f>IF(SUM(B11:B41)=0,"",SUM(B11:B41))</f>
         <v/>
       </c>
-      <c r="C42" s="29" t="str">
+      <c r="C42" s="64" t="str">
         <f>IF(SUM(C11:C41)=0,"",SUM(C11:C41))</f>
         <v/>
       </c>
-      <c r="D42" s="28" t="str">
+      <c r="D42" s="63" t="str">
         <f t="shared" ref="D42:Q42" si="162">IF(SUM(D11:D41)=0,"",SUM(D11:D41))</f>
         <v/>
       </c>
-      <c r="E42" s="29" t="str">
+      <c r="E42" s="64" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="F42" s="28" t="str">
+      <c r="F42" s="63" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="G42" s="29" t="str">
+      <c r="G42" s="64" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="H42" s="28" t="str">
+      <c r="H42" s="63" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="I42" s="29" t="str">
+      <c r="I42" s="64" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="J42" s="28" t="str">
+      <c r="J42" s="63" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="K42" s="29" t="str">
+      <c r="K42" s="64" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="L42" s="28" t="str">
+      <c r="L42" s="63" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="M42" s="29" t="str">
+      <c r="M42" s="64" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="N42" s="28" t="str">
+      <c r="N42" s="63" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="O42" s="29" t="str">
+      <c r="O42" s="64" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="P42" s="28" t="str">
+      <c r="P42" s="63" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="Q42" s="29" t="str">
+      <c r="Q42" s="64" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="R42" s="20" t="str">
+      <c r="R42" s="65" t="str">
         <f>IF(SUM(R11:R41)=0,"",SUM(R11:R41))</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J4:K5"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D4:E5"/>
+    <mergeCell ref="F4:G5"/>
+    <mergeCell ref="H4:I5"/>
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
     <mergeCell ref="H6:M6"/>
     <mergeCell ref="R7:R9"/>
     <mergeCell ref="Q2:R2"/>
@@ -3153,27 +3134,7 @@
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="N4:O5"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="I1:K2"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D4:E5"/>
-    <mergeCell ref="F4:G5"/>
-    <mergeCell ref="H4:I5"/>
-    <mergeCell ref="D2:G3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J4:K5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelTemplate/hoiku/請求書_指定B.xlsx
+++ b/ExcelTemplate/hoiku/請求書_指定B.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\herokuspace\deliba\ExcelTemplate\hoiku\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA2CE73-25AB-4F67-B4BA-C5CCC55608DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12060"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -23,7 +24,19 @@
     <definedName name="金額百万">#REF!</definedName>
     <definedName name="金額万">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" iterate="1" iterateCount="1" iterateDelta="0"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="1" iterateDelta="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -175,7 +188,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d"/>
   </numFmts>
@@ -662,97 +675,25 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -760,9 +701,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="14" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -826,6 +764,81 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1191,13 +1204,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
@@ -1225,1901 +1238,1880 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="7" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="8" t="s">
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="Q2" s="10" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="Q2" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="10"/>
+      <c r="R2" s="59"/>
     </row>
     <row r="3" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="Q3" s="15" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="Q3" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="15"/>
+      <c r="R3" s="60"/>
     </row>
     <row r="4" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18" t="s">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="22" t="s">
+      <c r="E4" s="50"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="20">
+      <c r="I4" s="50"/>
+      <c r="J4" s="42">
         <f>ROUND(F4*0.08,0)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="21"/>
-      <c r="L4" s="18" t="s">
+      <c r="K4" s="43"/>
+      <c r="L4" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="19"/>
-      <c r="N4" s="20">
+      <c r="M4" s="50"/>
+      <c r="N4" s="42">
         <f>F4+J4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="21"/>
-      <c r="Q4" s="23" t="s">
+      <c r="O4" s="43"/>
+      <c r="Q4" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="23"/>
+      <c r="R4" s="65"/>
     </row>
     <row r="5" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="21"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="43"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
     </row>
     <row r="6" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="25"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="27" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
     </row>
     <row r="7" spans="1:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="34" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="63"/>
+      <c r="R7" s="56" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="37"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="57"/>
     </row>
     <row r="9" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="39" t="s">
+      <c r="G9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="38" t="s">
+      <c r="H9" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="39" t="s">
+      <c r="I9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="38" t="s">
+      <c r="J9" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="39" t="s">
+      <c r="K9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="38" t="s">
+      <c r="L9" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="39" t="s">
+      <c r="M9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="38" t="s">
+      <c r="N9" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="O9" s="39" t="s">
+      <c r="O9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="38" t="s">
+      <c r="P9" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="Q9" s="40" t="s">
+      <c r="Q9" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="R9" s="41"/>
+      <c r="R9" s="58"/>
     </row>
     <row r="10" spans="1:18" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="42"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="46"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="21"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A11" s="47" t="str">
+      <c r="A11" s="22" t="str">
         <f t="shared" ref="A11:A25" si="0">SUBSTITUTE(MID(SUBSTITUTE($A$4," ",""),6,10),"月分","/")&amp;(ROW()-10)</f>
         <v>1</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="49" t="str">
+      <c r="B11" s="23"/>
+      <c r="C11" s="24" t="str">
         <f t="shared" ref="C11:C16" si="1">IF(B$8*B11=0,"",B$8*B11)</f>
         <v/>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="49" t="str">
+      <c r="D11" s="23"/>
+      <c r="E11" s="24" t="str">
         <f t="shared" ref="E11:E16" si="2">IF(D$8*D11=0,"",D$8*D11)</f>
         <v/>
       </c>
-      <c r="F11" s="48"/>
-      <c r="G11" s="49" t="str">
+      <c r="F11" s="23"/>
+      <c r="G11" s="24" t="str">
         <f t="shared" ref="G11:G16" si="3">IF(F$8*F11=0,"",F$8*F11)</f>
         <v/>
       </c>
-      <c r="H11" s="48"/>
-      <c r="I11" s="49" t="str">
+      <c r="H11" s="23"/>
+      <c r="I11" s="24" t="str">
         <f t="shared" ref="I11:I16" si="4">IF(H$8*H11=0,"",H$8*H11)</f>
         <v/>
       </c>
-      <c r="J11" s="48"/>
-      <c r="K11" s="49" t="str">
+      <c r="J11" s="23"/>
+      <c r="K11" s="24" t="str">
         <f t="shared" ref="K11:K16" si="5">IF(J$8*J11=0,"",J$8*J11)</f>
         <v/>
       </c>
-      <c r="L11" s="48"/>
-      <c r="M11" s="49" t="str">
+      <c r="L11" s="23"/>
+      <c r="M11" s="24" t="str">
         <f t="shared" ref="M11:M16" si="6">IF(L$8*L11=0,"",L$8*L11)</f>
         <v/>
       </c>
-      <c r="N11" s="48"/>
-      <c r="O11" s="49" t="str">
+      <c r="N11" s="23"/>
+      <c r="O11" s="24" t="str">
         <f t="shared" ref="O11:O16" si="7">IF(N$8*N11=0,"",N$8*N11)</f>
         <v/>
       </c>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="50" t="str">
+      <c r="P11" s="23"/>
+      <c r="Q11" s="25" t="str">
         <f t="shared" ref="Q11:Q16" si="8">IF(P$8*P11=0,"",P$8*P11)</f>
         <v/>
       </c>
-      <c r="R11" s="51" t="str">
+      <c r="R11" s="26" t="str">
         <f>IF(SUM(C11,E11,G11,I11,K11,M11,O11,Q11)=0,"",SUM(C11,E11,G11,I11,K11,M11,O11,Q11))</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A12" s="52" t="str">
+      <c r="A12" s="27" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="54" t="str">
+      <c r="B12" s="28"/>
+      <c r="C12" s="29" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="54" t="str">
+      <c r="D12" s="28"/>
+      <c r="E12" s="29" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F12" s="53"/>
-      <c r="G12" s="54" t="str">
+      <c r="F12" s="28"/>
+      <c r="G12" s="29" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H12" s="53"/>
-      <c r="I12" s="54" t="str">
+      <c r="H12" s="28"/>
+      <c r="I12" s="29" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J12" s="53"/>
-      <c r="K12" s="54" t="str">
+      <c r="J12" s="28"/>
+      <c r="K12" s="29" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L12" s="53"/>
-      <c r="M12" s="54" t="str">
+      <c r="L12" s="28"/>
+      <c r="M12" s="29" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N12" s="53"/>
-      <c r="O12" s="54" t="str">
+      <c r="N12" s="28"/>
+      <c r="O12" s="29" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="55" t="str">
+      <c r="P12" s="28"/>
+      <c r="Q12" s="30" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="R12" s="56" t="str">
+      <c r="R12" s="31" t="str">
         <f t="shared" ref="R12:R41" si="9">IF(SUM(C12,E12,G12,I12,K12,M12,O12,Q12)=0,"",SUM(C12,E12,G12,I12,K12,M12,O12,Q12))</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13" s="52" t="str">
+      <c r="A13" s="27" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="54" t="str">
+      <c r="B13" s="28"/>
+      <c r="C13" s="29" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="54" t="str">
+      <c r="D13" s="28"/>
+      <c r="E13" s="29" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F13" s="53"/>
-      <c r="G13" s="54" t="str">
+      <c r="F13" s="28"/>
+      <c r="G13" s="29" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="53"/>
-      <c r="I13" s="54" t="str">
+      <c r="H13" s="28"/>
+      <c r="I13" s="29" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J13" s="53"/>
-      <c r="K13" s="54" t="str">
+      <c r="J13" s="28"/>
+      <c r="K13" s="29" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L13" s="53"/>
-      <c r="M13" s="54" t="str">
+      <c r="L13" s="28"/>
+      <c r="M13" s="29" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N13" s="53"/>
-      <c r="O13" s="54" t="str">
+      <c r="N13" s="28"/>
+      <c r="O13" s="29" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="55" t="str">
+      <c r="P13" s="28"/>
+      <c r="Q13" s="30" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="R13" s="56" t="str">
+      <c r="R13" s="31" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A14" s="52" t="str">
+      <c r="A14" s="27" t="str">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="54" t="str">
+      <c r="B14" s="28"/>
+      <c r="C14" s="29" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="54" t="str">
+      <c r="D14" s="28"/>
+      <c r="E14" s="29" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F14" s="53"/>
-      <c r="G14" s="54" t="str">
+      <c r="F14" s="28"/>
+      <c r="G14" s="29" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H14" s="53"/>
-      <c r="I14" s="54" t="str">
+      <c r="H14" s="28"/>
+      <c r="I14" s="29" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="53"/>
-      <c r="K14" s="54" t="str">
+      <c r="J14" s="28"/>
+      <c r="K14" s="29" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L14" s="53"/>
-      <c r="M14" s="54" t="str">
+      <c r="L14" s="28"/>
+      <c r="M14" s="29" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N14" s="53"/>
-      <c r="O14" s="54" t="str">
+      <c r="N14" s="28"/>
+      <c r="O14" s="29" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="55" t="str">
+      <c r="P14" s="28"/>
+      <c r="Q14" s="30" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="R14" s="56" t="str">
+      <c r="R14" s="31" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="52" t="str">
+      <c r="A15" s="27" t="str">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="54" t="str">
+      <c r="B15" s="28"/>
+      <c r="C15" s="29" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54" t="str">
+      <c r="D15" s="28"/>
+      <c r="E15" s="29" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F15" s="53"/>
-      <c r="G15" s="54" t="str">
+      <c r="F15" s="28"/>
+      <c r="G15" s="29" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H15" s="53"/>
-      <c r="I15" s="54" t="str">
+      <c r="H15" s="28"/>
+      <c r="I15" s="29" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J15" s="53"/>
-      <c r="K15" s="54" t="str">
+      <c r="J15" s="28"/>
+      <c r="K15" s="29" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="53"/>
-      <c r="M15" s="54" t="str">
+      <c r="L15" s="28"/>
+      <c r="M15" s="29" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N15" s="53"/>
-      <c r="O15" s="54" t="str">
+      <c r="N15" s="28"/>
+      <c r="O15" s="29" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="55" t="str">
+      <c r="P15" s="28"/>
+      <c r="Q15" s="30" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="R15" s="56" t="str">
+      <c r="R15" s="31" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="52" t="str">
+      <c r="A16" s="27" t="str">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="54" t="str">
+      <c r="B16" s="28"/>
+      <c r="C16" s="29" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D16" s="53"/>
-      <c r="E16" s="54" t="str">
+      <c r="D16" s="28"/>
+      <c r="E16" s="29" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F16" s="53"/>
-      <c r="G16" s="54" t="str">
+      <c r="F16" s="28"/>
+      <c r="G16" s="29" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H16" s="53"/>
-      <c r="I16" s="54" t="str">
+      <c r="H16" s="28"/>
+      <c r="I16" s="29" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J16" s="53"/>
-      <c r="K16" s="54" t="str">
+      <c r="J16" s="28"/>
+      <c r="K16" s="29" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L16" s="53"/>
-      <c r="M16" s="54" t="str">
+      <c r="L16" s="28"/>
+      <c r="M16" s="29" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N16" s="53"/>
-      <c r="O16" s="54" t="str">
+      <c r="N16" s="28"/>
+      <c r="O16" s="29" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="55" t="str">
+      <c r="P16" s="28"/>
+      <c r="Q16" s="30" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="R16" s="56" t="str">
+      <c r="R16" s="31" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A17" s="52" t="str">
+      <c r="A17" s="27" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="54" t="str">
+      <c r="B17" s="28"/>
+      <c r="C17" s="29" t="str">
         <f t="shared" ref="C17:E41" si="10">IF(B$8*B17=0,"",B$8*B17)</f>
         <v/>
       </c>
-      <c r="D17" s="53"/>
-      <c r="E17" s="54" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F17" s="53"/>
-      <c r="G17" s="54" t="str">
+      <c r="D17" s="28"/>
+      <c r="E17" s="29" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29" t="str">
         <f t="shared" ref="G17" si="11">IF(F$8*F17=0,"",F$8*F17)</f>
         <v/>
       </c>
-      <c r="H17" s="53"/>
-      <c r="I17" s="54" t="str">
+      <c r="H17" s="28"/>
+      <c r="I17" s="29" t="str">
         <f t="shared" ref="I17" si="12">IF(H$8*H17=0,"",H$8*H17)</f>
         <v/>
       </c>
-      <c r="J17" s="53"/>
-      <c r="K17" s="54" t="str">
+      <c r="J17" s="28"/>
+      <c r="K17" s="29" t="str">
         <f t="shared" ref="K17" si="13">IF(J$8*J17=0,"",J$8*J17)</f>
         <v/>
       </c>
-      <c r="L17" s="53"/>
-      <c r="M17" s="54" t="str">
+      <c r="L17" s="28"/>
+      <c r="M17" s="29" t="str">
         <f t="shared" ref="M17" si="14">IF(L$8*L17=0,"",L$8*L17)</f>
         <v/>
       </c>
-      <c r="N17" s="53"/>
-      <c r="O17" s="54" t="str">
+      <c r="N17" s="28"/>
+      <c r="O17" s="29" t="str">
         <f t="shared" ref="O17" si="15">IF(N$8*N17=0,"",N$8*N17)</f>
         <v/>
       </c>
-      <c r="P17" s="53"/>
-      <c r="Q17" s="55" t="str">
+      <c r="P17" s="28"/>
+      <c r="Q17" s="30" t="str">
         <f t="shared" ref="Q17" si="16">IF(P$8*P17=0,"",P$8*P17)</f>
         <v/>
       </c>
-      <c r="R17" s="56" t="str">
+      <c r="R17" s="31" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A18" s="52" t="str">
+      <c r="A18" s="27" t="str">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B18" s="53"/>
-      <c r="C18" s="54" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D18" s="53"/>
-      <c r="E18" s="54" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F18" s="53"/>
-      <c r="G18" s="54" t="str">
+      <c r="B18" s="28"/>
+      <c r="C18" s="29" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="29" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F18" s="28"/>
+      <c r="G18" s="29" t="str">
         <f t="shared" ref="G18" si="17">IF(F$8*F18=0,"",F$8*F18)</f>
         <v/>
       </c>
-      <c r="H18" s="53"/>
-      <c r="I18" s="54" t="str">
+      <c r="H18" s="28"/>
+      <c r="I18" s="29" t="str">
         <f t="shared" ref="I18" si="18">IF(H$8*H18=0,"",H$8*H18)</f>
         <v/>
       </c>
-      <c r="J18" s="53"/>
-      <c r="K18" s="54" t="str">
+      <c r="J18" s="28"/>
+      <c r="K18" s="29" t="str">
         <f t="shared" ref="K18" si="19">IF(J$8*J18=0,"",J$8*J18)</f>
         <v/>
       </c>
-      <c r="L18" s="53"/>
-      <c r="M18" s="54" t="str">
+      <c r="L18" s="28"/>
+      <c r="M18" s="29" t="str">
         <f t="shared" ref="M18" si="20">IF(L$8*L18=0,"",L$8*L18)</f>
         <v/>
       </c>
-      <c r="N18" s="53"/>
-      <c r="O18" s="54" t="str">
+      <c r="N18" s="28"/>
+      <c r="O18" s="29" t="str">
         <f t="shared" ref="O18" si="21">IF(N$8*N18=0,"",N$8*N18)</f>
         <v/>
       </c>
-      <c r="P18" s="53"/>
-      <c r="Q18" s="55" t="str">
+      <c r="P18" s="28"/>
+      <c r="Q18" s="30" t="str">
         <f t="shared" ref="Q18" si="22">IF(P$8*P18=0,"",P$8*P18)</f>
         <v/>
       </c>
-      <c r="R18" s="56" t="str">
+      <c r="R18" s="31" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A19" s="52" t="str">
+      <c r="A19" s="27" t="str">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="54" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D19" s="53"/>
-      <c r="E19" s="54" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F19" s="53"/>
-      <c r="G19" s="54" t="str">
+      <c r="B19" s="28"/>
+      <c r="C19" s="29" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D19" s="28"/>
+      <c r="E19" s="29" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F19" s="28"/>
+      <c r="G19" s="29" t="str">
         <f t="shared" ref="G19" si="23">IF(F$8*F19=0,"",F$8*F19)</f>
         <v/>
       </c>
-      <c r="H19" s="53"/>
-      <c r="I19" s="54" t="str">
+      <c r="H19" s="28"/>
+      <c r="I19" s="29" t="str">
         <f t="shared" ref="I19" si="24">IF(H$8*H19=0,"",H$8*H19)</f>
         <v/>
       </c>
-      <c r="J19" s="53"/>
-      <c r="K19" s="54" t="str">
+      <c r="J19" s="28"/>
+      <c r="K19" s="29" t="str">
         <f t="shared" ref="K19" si="25">IF(J$8*J19=0,"",J$8*J19)</f>
         <v/>
       </c>
-      <c r="L19" s="53"/>
-      <c r="M19" s="54" t="str">
+      <c r="L19" s="28"/>
+      <c r="M19" s="29" t="str">
         <f t="shared" ref="M19" si="26">IF(L$8*L19=0,"",L$8*L19)</f>
         <v/>
       </c>
-      <c r="N19" s="53"/>
-      <c r="O19" s="54" t="str">
+      <c r="N19" s="28"/>
+      <c r="O19" s="29" t="str">
         <f t="shared" ref="O19" si="27">IF(N$8*N19=0,"",N$8*N19)</f>
         <v/>
       </c>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="55" t="str">
+      <c r="P19" s="28"/>
+      <c r="Q19" s="30" t="str">
         <f t="shared" ref="Q19" si="28">IF(P$8*P19=0,"",P$8*P19)</f>
         <v/>
       </c>
-      <c r="R19" s="56" t="str">
+      <c r="R19" s="31" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A20" s="52" t="str">
+      <c r="A20" s="27" t="str">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="54" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D20" s="53"/>
-      <c r="E20" s="54" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F20" s="53"/>
-      <c r="G20" s="54" t="str">
+      <c r="B20" s="28"/>
+      <c r="C20" s="29" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D20" s="28"/>
+      <c r="E20" s="29" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F20" s="28"/>
+      <c r="G20" s="29" t="str">
         <f t="shared" ref="G20" si="29">IF(F$8*F20=0,"",F$8*F20)</f>
         <v/>
       </c>
-      <c r="H20" s="53"/>
-      <c r="I20" s="54" t="str">
+      <c r="H20" s="28"/>
+      <c r="I20" s="29" t="str">
         <f t="shared" ref="I20" si="30">IF(H$8*H20=0,"",H$8*H20)</f>
         <v/>
       </c>
-      <c r="J20" s="53"/>
-      <c r="K20" s="54" t="str">
+      <c r="J20" s="28"/>
+      <c r="K20" s="29" t="str">
         <f t="shared" ref="K20" si="31">IF(J$8*J20=0,"",J$8*J20)</f>
         <v/>
       </c>
-      <c r="L20" s="53"/>
-      <c r="M20" s="54" t="str">
+      <c r="L20" s="28"/>
+      <c r="M20" s="29" t="str">
         <f t="shared" ref="M20" si="32">IF(L$8*L20=0,"",L$8*L20)</f>
         <v/>
       </c>
-      <c r="N20" s="53"/>
-      <c r="O20" s="54" t="str">
+      <c r="N20" s="28"/>
+      <c r="O20" s="29" t="str">
         <f t="shared" ref="O20" si="33">IF(N$8*N20=0,"",N$8*N20)</f>
         <v/>
       </c>
-      <c r="P20" s="53"/>
-      <c r="Q20" s="55" t="str">
+      <c r="P20" s="28"/>
+      <c r="Q20" s="30" t="str">
         <f t="shared" ref="Q20" si="34">IF(P$8*P20=0,"",P$8*P20)</f>
         <v/>
       </c>
-      <c r="R20" s="56" t="str">
+      <c r="R20" s="31" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A21" s="52" t="str">
+      <c r="A21" s="27" t="str">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B21" s="53"/>
-      <c r="C21" s="54" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D21" s="53"/>
-      <c r="E21" s="54" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F21" s="53"/>
-      <c r="G21" s="54" t="str">
+      <c r="B21" s="28"/>
+      <c r="C21" s="29" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D21" s="28"/>
+      <c r="E21" s="29" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29" t="str">
         <f t="shared" ref="G21" si="35">IF(F$8*F21=0,"",F$8*F21)</f>
         <v/>
       </c>
-      <c r="H21" s="53"/>
-      <c r="I21" s="54" t="str">
+      <c r="H21" s="28"/>
+      <c r="I21" s="29" t="str">
         <f t="shared" ref="I21" si="36">IF(H$8*H21=0,"",H$8*H21)</f>
         <v/>
       </c>
-      <c r="J21" s="53"/>
-      <c r="K21" s="54" t="str">
+      <c r="J21" s="28"/>
+      <c r="K21" s="29" t="str">
         <f t="shared" ref="K21" si="37">IF(J$8*J21=0,"",J$8*J21)</f>
         <v/>
       </c>
-      <c r="L21" s="53"/>
-      <c r="M21" s="54" t="str">
+      <c r="L21" s="28"/>
+      <c r="M21" s="29" t="str">
         <f t="shared" ref="M21" si="38">IF(L$8*L21=0,"",L$8*L21)</f>
         <v/>
       </c>
-      <c r="N21" s="53"/>
-      <c r="O21" s="54" t="str">
+      <c r="N21" s="28"/>
+      <c r="O21" s="29" t="str">
         <f t="shared" ref="O21" si="39">IF(N$8*N21=0,"",N$8*N21)</f>
         <v/>
       </c>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="55" t="str">
+      <c r="P21" s="28"/>
+      <c r="Q21" s="30" t="str">
         <f t="shared" ref="Q21" si="40">IF(P$8*P21=0,"",P$8*P21)</f>
         <v/>
       </c>
-      <c r="R21" s="56" t="str">
+      <c r="R21" s="31" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A22" s="52" t="str">
+      <c r="A22" s="27" t="str">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B22" s="53"/>
-      <c r="C22" s="54" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D22" s="53"/>
-      <c r="E22" s="54" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F22" s="53"/>
-      <c r="G22" s="54" t="str">
+      <c r="B22" s="28"/>
+      <c r="C22" s="29" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D22" s="28"/>
+      <c r="E22" s="29" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F22" s="28"/>
+      <c r="G22" s="29" t="str">
         <f t="shared" ref="G22" si="41">IF(F$8*F22=0,"",F$8*F22)</f>
         <v/>
       </c>
-      <c r="H22" s="53"/>
-      <c r="I22" s="54" t="str">
+      <c r="H22" s="28"/>
+      <c r="I22" s="29" t="str">
         <f t="shared" ref="I22" si="42">IF(H$8*H22=0,"",H$8*H22)</f>
         <v/>
       </c>
-      <c r="J22" s="53"/>
-      <c r="K22" s="54" t="str">
+      <c r="J22" s="28"/>
+      <c r="K22" s="29" t="str">
         <f t="shared" ref="K22" si="43">IF(J$8*J22=0,"",J$8*J22)</f>
         <v/>
       </c>
-      <c r="L22" s="53"/>
-      <c r="M22" s="54" t="str">
+      <c r="L22" s="28"/>
+      <c r="M22" s="29" t="str">
         <f t="shared" ref="M22" si="44">IF(L$8*L22=0,"",L$8*L22)</f>
         <v/>
       </c>
-      <c r="N22" s="53"/>
-      <c r="O22" s="54" t="str">
+      <c r="N22" s="28"/>
+      <c r="O22" s="29" t="str">
         <f t="shared" ref="O22" si="45">IF(N$8*N22=0,"",N$8*N22)</f>
         <v/>
       </c>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="55" t="str">
+      <c r="P22" s="28"/>
+      <c r="Q22" s="30" t="str">
         <f t="shared" ref="Q22" si="46">IF(P$8*P22=0,"",P$8*P22)</f>
         <v/>
       </c>
-      <c r="R22" s="56" t="str">
+      <c r="R22" s="31" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A23" s="52" t="str">
+      <c r="A23" s="27" t="str">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B23" s="53"/>
-      <c r="C23" s="54" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D23" s="53"/>
-      <c r="E23" s="54" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F23" s="53"/>
-      <c r="G23" s="54" t="str">
+      <c r="B23" s="28"/>
+      <c r="C23" s="29" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D23" s="28"/>
+      <c r="E23" s="29" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F23" s="28"/>
+      <c r="G23" s="29" t="str">
         <f t="shared" ref="G23" si="47">IF(F$8*F23=0,"",F$8*F23)</f>
         <v/>
       </c>
-      <c r="H23" s="53"/>
-      <c r="I23" s="54" t="str">
+      <c r="H23" s="28"/>
+      <c r="I23" s="29" t="str">
         <f t="shared" ref="I23" si="48">IF(H$8*H23=0,"",H$8*H23)</f>
         <v/>
       </c>
-      <c r="J23" s="53"/>
-      <c r="K23" s="54" t="str">
+      <c r="J23" s="28"/>
+      <c r="K23" s="29" t="str">
         <f t="shared" ref="K23" si="49">IF(J$8*J23=0,"",J$8*J23)</f>
         <v/>
       </c>
-      <c r="L23" s="53"/>
-      <c r="M23" s="54" t="str">
+      <c r="L23" s="28"/>
+      <c r="M23" s="29" t="str">
         <f t="shared" ref="M23" si="50">IF(L$8*L23=0,"",L$8*L23)</f>
         <v/>
       </c>
-      <c r="N23" s="53"/>
-      <c r="O23" s="54" t="str">
+      <c r="N23" s="28"/>
+      <c r="O23" s="29" t="str">
         <f t="shared" ref="O23" si="51">IF(N$8*N23=0,"",N$8*N23)</f>
         <v/>
       </c>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="55" t="str">
+      <c r="P23" s="28"/>
+      <c r="Q23" s="30" t="str">
         <f t="shared" ref="Q23" si="52">IF(P$8*P23=0,"",P$8*P23)</f>
         <v/>
       </c>
-      <c r="R23" s="56" t="str">
+      <c r="R23" s="31" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A24" s="52" t="str">
+      <c r="A24" s="27" t="str">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B24" s="53"/>
-      <c r="C24" s="54" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D24" s="53"/>
-      <c r="E24" s="54" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F24" s="53"/>
-      <c r="G24" s="54" t="str">
+      <c r="B24" s="28"/>
+      <c r="C24" s="29" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D24" s="28"/>
+      <c r="E24" s="29" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F24" s="28"/>
+      <c r="G24" s="29" t="str">
         <f t="shared" ref="G24" si="53">IF(F$8*F24=0,"",F$8*F24)</f>
         <v/>
       </c>
-      <c r="H24" s="53"/>
-      <c r="I24" s="54" t="str">
+      <c r="H24" s="28"/>
+      <c r="I24" s="29" t="str">
         <f t="shared" ref="I24" si="54">IF(H$8*H24=0,"",H$8*H24)</f>
         <v/>
       </c>
-      <c r="J24" s="53"/>
-      <c r="K24" s="54" t="str">
+      <c r="J24" s="28"/>
+      <c r="K24" s="29" t="str">
         <f t="shared" ref="K24" si="55">IF(J$8*J24=0,"",J$8*J24)</f>
         <v/>
       </c>
-      <c r="L24" s="53"/>
-      <c r="M24" s="54" t="str">
+      <c r="L24" s="28"/>
+      <c r="M24" s="29" t="str">
         <f t="shared" ref="M24" si="56">IF(L$8*L24=0,"",L$8*L24)</f>
         <v/>
       </c>
-      <c r="N24" s="53"/>
-      <c r="O24" s="54" t="str">
+      <c r="N24" s="28"/>
+      <c r="O24" s="29" t="str">
         <f t="shared" ref="O24" si="57">IF(N$8*N24=0,"",N$8*N24)</f>
         <v/>
       </c>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="55" t="str">
+      <c r="P24" s="28"/>
+      <c r="Q24" s="30" t="str">
         <f t="shared" ref="Q24" si="58">IF(P$8*P24=0,"",P$8*P24)</f>
         <v/>
       </c>
-      <c r="R24" s="56" t="str">
+      <c r="R24" s="31" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A25" s="52" t="str">
+      <c r="A25" s="27" t="str">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B25" s="53"/>
-      <c r="C25" s="54" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D25" s="53"/>
-      <c r="E25" s="54" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F25" s="53"/>
-      <c r="G25" s="54" t="str">
+      <c r="B25" s="28"/>
+      <c r="C25" s="29" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D25" s="28"/>
+      <c r="E25" s="29" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29" t="str">
         <f t="shared" ref="G25" si="59">IF(F$8*F25=0,"",F$8*F25)</f>
         <v/>
       </c>
-      <c r="H25" s="53"/>
-      <c r="I25" s="54" t="str">
+      <c r="H25" s="28"/>
+      <c r="I25" s="29" t="str">
         <f t="shared" ref="I25" si="60">IF(H$8*H25=0,"",H$8*H25)</f>
         <v/>
       </c>
-      <c r="J25" s="53"/>
-      <c r="K25" s="54" t="str">
+      <c r="J25" s="28"/>
+      <c r="K25" s="29" t="str">
         <f t="shared" ref="K25" si="61">IF(J$8*J25=0,"",J$8*J25)</f>
         <v/>
       </c>
-      <c r="L25" s="53"/>
-      <c r="M25" s="54" t="str">
+      <c r="L25" s="28"/>
+      <c r="M25" s="29" t="str">
         <f t="shared" ref="M25" si="62">IF(L$8*L25=0,"",L$8*L25)</f>
         <v/>
       </c>
-      <c r="N25" s="53"/>
-      <c r="O25" s="54" t="str">
+      <c r="N25" s="28"/>
+      <c r="O25" s="29" t="str">
         <f t="shared" ref="O25" si="63">IF(N$8*N25=0,"",N$8*N25)</f>
         <v/>
       </c>
-      <c r="P25" s="53"/>
-      <c r="Q25" s="55" t="str">
+      <c r="P25" s="28"/>
+      <c r="Q25" s="30" t="str">
         <f t="shared" ref="Q25" si="64">IF(P$8*P25=0,"",P$8*P25)</f>
         <v/>
       </c>
-      <c r="R25" s="56" t="str">
+      <c r="R25" s="31" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A26" s="52" t="str">
+      <c r="A26" s="27" t="str">
         <f t="shared" ref="A26:A41" si="65">SUBSTITUTE(MID(SUBSTITUTE($A$4," ",""),6,10),"月分","/")&amp;(ROW()-10)</f>
         <v>16</v>
       </c>
-      <c r="B26" s="53"/>
-      <c r="C26" s="54" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D26" s="53"/>
-      <c r="E26" s="54" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F26" s="53"/>
-      <c r="G26" s="54" t="str">
+      <c r="B26" s="28"/>
+      <c r="C26" s="29" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D26" s="28"/>
+      <c r="E26" s="29" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F26" s="28"/>
+      <c r="G26" s="29" t="str">
         <f t="shared" ref="G26" si="66">IF(F$8*F26=0,"",F$8*F26)</f>
         <v/>
       </c>
-      <c r="H26" s="53"/>
-      <c r="I26" s="54" t="str">
+      <c r="H26" s="28"/>
+      <c r="I26" s="29" t="str">
         <f t="shared" ref="I26" si="67">IF(H$8*H26=0,"",H$8*H26)</f>
         <v/>
       </c>
-      <c r="J26" s="53"/>
-      <c r="K26" s="54" t="str">
+      <c r="J26" s="28"/>
+      <c r="K26" s="29" t="str">
         <f t="shared" ref="K26" si="68">IF(J$8*J26=0,"",J$8*J26)</f>
         <v/>
       </c>
-      <c r="L26" s="53"/>
-      <c r="M26" s="54" t="str">
+      <c r="L26" s="28"/>
+      <c r="M26" s="29" t="str">
         <f t="shared" ref="M26" si="69">IF(L$8*L26=0,"",L$8*L26)</f>
         <v/>
       </c>
-      <c r="N26" s="53"/>
-      <c r="O26" s="54" t="str">
+      <c r="N26" s="28"/>
+      <c r="O26" s="29" t="str">
         <f t="shared" ref="O26" si="70">IF(N$8*N26=0,"",N$8*N26)</f>
         <v/>
       </c>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="55" t="str">
+      <c r="P26" s="28"/>
+      <c r="Q26" s="30" t="str">
         <f t="shared" ref="Q26" si="71">IF(P$8*P26=0,"",P$8*P26)</f>
         <v/>
       </c>
-      <c r="R26" s="56" t="str">
+      <c r="R26" s="31" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A27" s="52" t="str">
+      <c r="A27" s="27" t="str">
         <f t="shared" si="65"/>
         <v>17</v>
       </c>
-      <c r="B27" s="53"/>
-      <c r="C27" s="54" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D27" s="53"/>
-      <c r="E27" s="54" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F27" s="53"/>
-      <c r="G27" s="54" t="str">
+      <c r="B27" s="28"/>
+      <c r="C27" s="29" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D27" s="28"/>
+      <c r="E27" s="29" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F27" s="28"/>
+      <c r="G27" s="29" t="str">
         <f t="shared" ref="G27" si="72">IF(F$8*F27=0,"",F$8*F27)</f>
         <v/>
       </c>
-      <c r="H27" s="53"/>
-      <c r="I27" s="54" t="str">
+      <c r="H27" s="28"/>
+      <c r="I27" s="29" t="str">
         <f t="shared" ref="I27" si="73">IF(H$8*H27=0,"",H$8*H27)</f>
         <v/>
       </c>
-      <c r="J27" s="53"/>
-      <c r="K27" s="54" t="str">
+      <c r="J27" s="28"/>
+      <c r="K27" s="29" t="str">
         <f t="shared" ref="K27" si="74">IF(J$8*J27=0,"",J$8*J27)</f>
         <v/>
       </c>
-      <c r="L27" s="53"/>
-      <c r="M27" s="54" t="str">
+      <c r="L27" s="28"/>
+      <c r="M27" s="29" t="str">
         <f t="shared" ref="M27" si="75">IF(L$8*L27=0,"",L$8*L27)</f>
         <v/>
       </c>
-      <c r="N27" s="53"/>
-      <c r="O27" s="54" t="str">
+      <c r="N27" s="28"/>
+      <c r="O27" s="29" t="str">
         <f t="shared" ref="O27" si="76">IF(N$8*N27=0,"",N$8*N27)</f>
         <v/>
       </c>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="55" t="str">
+      <c r="P27" s="28"/>
+      <c r="Q27" s="30" t="str">
         <f t="shared" ref="Q27" si="77">IF(P$8*P27=0,"",P$8*P27)</f>
         <v/>
       </c>
-      <c r="R27" s="56" t="str">
+      <c r="R27" s="31" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A28" s="52" t="str">
+      <c r="A28" s="27" t="str">
         <f t="shared" si="65"/>
         <v>18</v>
       </c>
-      <c r="B28" s="53"/>
-      <c r="C28" s="54" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D28" s="53"/>
-      <c r="E28" s="54" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F28" s="53"/>
-      <c r="G28" s="54" t="str">
+      <c r="B28" s="28"/>
+      <c r="C28" s="29" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D28" s="28"/>
+      <c r="E28" s="29" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F28" s="28"/>
+      <c r="G28" s="29" t="str">
         <f t="shared" ref="G28" si="78">IF(F$8*F28=0,"",F$8*F28)</f>
         <v/>
       </c>
-      <c r="H28" s="53"/>
-      <c r="I28" s="54" t="str">
+      <c r="H28" s="28"/>
+      <c r="I28" s="29" t="str">
         <f t="shared" ref="I28" si="79">IF(H$8*H28=0,"",H$8*H28)</f>
         <v/>
       </c>
-      <c r="J28" s="53"/>
-      <c r="K28" s="54" t="str">
+      <c r="J28" s="28"/>
+      <c r="K28" s="29" t="str">
         <f t="shared" ref="K28" si="80">IF(J$8*J28=0,"",J$8*J28)</f>
         <v/>
       </c>
-      <c r="L28" s="53"/>
-      <c r="M28" s="54" t="str">
+      <c r="L28" s="28"/>
+      <c r="M28" s="29" t="str">
         <f t="shared" ref="M28" si="81">IF(L$8*L28=0,"",L$8*L28)</f>
         <v/>
       </c>
-      <c r="N28" s="53"/>
-      <c r="O28" s="54" t="str">
+      <c r="N28" s="28"/>
+      <c r="O28" s="29" t="str">
         <f t="shared" ref="O28" si="82">IF(N$8*N28=0,"",N$8*N28)</f>
         <v/>
       </c>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="55" t="str">
+      <c r="P28" s="28"/>
+      <c r="Q28" s="30" t="str">
         <f t="shared" ref="Q28" si="83">IF(P$8*P28=0,"",P$8*P28)</f>
         <v/>
       </c>
-      <c r="R28" s="56" t="str">
+      <c r="R28" s="31" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A29" s="52" t="str">
+      <c r="A29" s="27" t="str">
         <f t="shared" si="65"/>
         <v>19</v>
       </c>
-      <c r="B29" s="53"/>
-      <c r="C29" s="54" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D29" s="53"/>
-      <c r="E29" s="54" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F29" s="53"/>
-      <c r="G29" s="54" t="str">
+      <c r="B29" s="28"/>
+      <c r="C29" s="29" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D29" s="28"/>
+      <c r="E29" s="29" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F29" s="28"/>
+      <c r="G29" s="29" t="str">
         <f t="shared" ref="G29" si="84">IF(F$8*F29=0,"",F$8*F29)</f>
         <v/>
       </c>
-      <c r="H29" s="53"/>
-      <c r="I29" s="54" t="str">
+      <c r="H29" s="28"/>
+      <c r="I29" s="29" t="str">
         <f t="shared" ref="I29" si="85">IF(H$8*H29=0,"",H$8*H29)</f>
         <v/>
       </c>
-      <c r="J29" s="53"/>
-      <c r="K29" s="54" t="str">
+      <c r="J29" s="28"/>
+      <c r="K29" s="29" t="str">
         <f t="shared" ref="K29" si="86">IF(J$8*J29=0,"",J$8*J29)</f>
         <v/>
       </c>
-      <c r="L29" s="53"/>
-      <c r="M29" s="54" t="str">
+      <c r="L29" s="28"/>
+      <c r="M29" s="29" t="str">
         <f t="shared" ref="M29" si="87">IF(L$8*L29=0,"",L$8*L29)</f>
         <v/>
       </c>
-      <c r="N29" s="53"/>
-      <c r="O29" s="54" t="str">
+      <c r="N29" s="28"/>
+      <c r="O29" s="29" t="str">
         <f t="shared" ref="O29" si="88">IF(N$8*N29=0,"",N$8*N29)</f>
         <v/>
       </c>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="55" t="str">
+      <c r="P29" s="28"/>
+      <c r="Q29" s="30" t="str">
         <f t="shared" ref="Q29" si="89">IF(P$8*P29=0,"",P$8*P29)</f>
         <v/>
       </c>
-      <c r="R29" s="56" t="str">
+      <c r="R29" s="31" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A30" s="52" t="str">
+      <c r="A30" s="27" t="str">
         <f t="shared" si="65"/>
         <v>20</v>
       </c>
-      <c r="B30" s="53"/>
-      <c r="C30" s="54" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D30" s="53"/>
-      <c r="E30" s="54" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F30" s="53"/>
-      <c r="G30" s="54" t="str">
+      <c r="B30" s="28"/>
+      <c r="C30" s="29" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D30" s="28"/>
+      <c r="E30" s="29" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F30" s="28"/>
+      <c r="G30" s="29" t="str">
         <f t="shared" ref="G30" si="90">IF(F$8*F30=0,"",F$8*F30)</f>
         <v/>
       </c>
-      <c r="H30" s="53"/>
-      <c r="I30" s="54" t="str">
+      <c r="H30" s="28"/>
+      <c r="I30" s="29" t="str">
         <f t="shared" ref="I30" si="91">IF(H$8*H30=0,"",H$8*H30)</f>
         <v/>
       </c>
-      <c r="J30" s="53"/>
-      <c r="K30" s="54" t="str">
+      <c r="J30" s="28"/>
+      <c r="K30" s="29" t="str">
         <f t="shared" ref="K30" si="92">IF(J$8*J30=0,"",J$8*J30)</f>
         <v/>
       </c>
-      <c r="L30" s="53"/>
-      <c r="M30" s="54" t="str">
+      <c r="L30" s="28"/>
+      <c r="M30" s="29" t="str">
         <f t="shared" ref="M30" si="93">IF(L$8*L30=0,"",L$8*L30)</f>
         <v/>
       </c>
-      <c r="N30" s="53"/>
-      <c r="O30" s="54" t="str">
+      <c r="N30" s="28"/>
+      <c r="O30" s="29" t="str">
         <f t="shared" ref="O30" si="94">IF(N$8*N30=0,"",N$8*N30)</f>
         <v/>
       </c>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="55" t="str">
+      <c r="P30" s="28"/>
+      <c r="Q30" s="30" t="str">
         <f t="shared" ref="Q30" si="95">IF(P$8*P30=0,"",P$8*P30)</f>
         <v/>
       </c>
-      <c r="R30" s="56" t="str">
+      <c r="R30" s="31" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A31" s="52" t="str">
+      <c r="A31" s="27" t="str">
         <f t="shared" si="65"/>
         <v>21</v>
       </c>
-      <c r="B31" s="53"/>
-      <c r="C31" s="54" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D31" s="53"/>
-      <c r="E31" s="54" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F31" s="53"/>
-      <c r="G31" s="54" t="str">
+      <c r="B31" s="28"/>
+      <c r="C31" s="29" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D31" s="28"/>
+      <c r="E31" s="29" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F31" s="28"/>
+      <c r="G31" s="29" t="str">
         <f t="shared" ref="G31" si="96">IF(F$8*F31=0,"",F$8*F31)</f>
         <v/>
       </c>
-      <c r="H31" s="53"/>
-      <c r="I31" s="54" t="str">
+      <c r="H31" s="28"/>
+      <c r="I31" s="29" t="str">
         <f t="shared" ref="I31" si="97">IF(H$8*H31=0,"",H$8*H31)</f>
         <v/>
       </c>
-      <c r="J31" s="53"/>
-      <c r="K31" s="54" t="str">
+      <c r="J31" s="28"/>
+      <c r="K31" s="29" t="str">
         <f t="shared" ref="K31" si="98">IF(J$8*J31=0,"",J$8*J31)</f>
         <v/>
       </c>
-      <c r="L31" s="53"/>
-      <c r="M31" s="54" t="str">
+      <c r="L31" s="28"/>
+      <c r="M31" s="29" t="str">
         <f t="shared" ref="M31" si="99">IF(L$8*L31=0,"",L$8*L31)</f>
         <v/>
       </c>
-      <c r="N31" s="53"/>
-      <c r="O31" s="54" t="str">
+      <c r="N31" s="28"/>
+      <c r="O31" s="29" t="str">
         <f t="shared" ref="O31" si="100">IF(N$8*N31=0,"",N$8*N31)</f>
         <v/>
       </c>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="55" t="str">
+      <c r="P31" s="28"/>
+      <c r="Q31" s="30" t="str">
         <f t="shared" ref="Q31" si="101">IF(P$8*P31=0,"",P$8*P31)</f>
         <v/>
       </c>
-      <c r="R31" s="56" t="str">
+      <c r="R31" s="31" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A32" s="52" t="str">
+      <c r="A32" s="27" t="str">
         <f t="shared" si="65"/>
         <v>22</v>
       </c>
-      <c r="B32" s="53"/>
-      <c r="C32" s="54" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D32" s="53"/>
-      <c r="E32" s="54" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F32" s="53"/>
-      <c r="G32" s="54" t="str">
+      <c r="B32" s="28"/>
+      <c r="C32" s="29" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D32" s="28"/>
+      <c r="E32" s="29" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F32" s="28"/>
+      <c r="G32" s="29" t="str">
         <f t="shared" ref="G32" si="102">IF(F$8*F32=0,"",F$8*F32)</f>
         <v/>
       </c>
-      <c r="H32" s="53"/>
-      <c r="I32" s="54" t="str">
+      <c r="H32" s="28"/>
+      <c r="I32" s="29" t="str">
         <f t="shared" ref="I32" si="103">IF(H$8*H32=0,"",H$8*H32)</f>
         <v/>
       </c>
-      <c r="J32" s="53"/>
-      <c r="K32" s="54" t="str">
+      <c r="J32" s="28"/>
+      <c r="K32" s="29" t="str">
         <f t="shared" ref="K32" si="104">IF(J$8*J32=0,"",J$8*J32)</f>
         <v/>
       </c>
-      <c r="L32" s="53"/>
-      <c r="M32" s="54" t="str">
+      <c r="L32" s="28"/>
+      <c r="M32" s="29" t="str">
         <f t="shared" ref="M32" si="105">IF(L$8*L32=0,"",L$8*L32)</f>
         <v/>
       </c>
-      <c r="N32" s="53"/>
-      <c r="O32" s="54" t="str">
+      <c r="N32" s="28"/>
+      <c r="O32" s="29" t="str">
         <f t="shared" ref="O32" si="106">IF(N$8*N32=0,"",N$8*N32)</f>
         <v/>
       </c>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="55" t="str">
+      <c r="P32" s="28"/>
+      <c r="Q32" s="30" t="str">
         <f t="shared" ref="Q32" si="107">IF(P$8*P32=0,"",P$8*P32)</f>
         <v/>
       </c>
-      <c r="R32" s="56" t="str">
+      <c r="R32" s="31" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A33" s="52" t="str">
+      <c r="A33" s="27" t="str">
         <f t="shared" si="65"/>
         <v>23</v>
       </c>
-      <c r="B33" s="53"/>
-      <c r="C33" s="54" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D33" s="53"/>
-      <c r="E33" s="54" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F33" s="53"/>
-      <c r="G33" s="54" t="str">
+      <c r="B33" s="28"/>
+      <c r="C33" s="29" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D33" s="28"/>
+      <c r="E33" s="29" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F33" s="28"/>
+      <c r="G33" s="29" t="str">
         <f t="shared" ref="G33" si="108">IF(F$8*F33=0,"",F$8*F33)</f>
         <v/>
       </c>
-      <c r="H33" s="53"/>
-      <c r="I33" s="54" t="str">
+      <c r="H33" s="28"/>
+      <c r="I33" s="29" t="str">
         <f t="shared" ref="I33" si="109">IF(H$8*H33=0,"",H$8*H33)</f>
         <v/>
       </c>
-      <c r="J33" s="53"/>
-      <c r="K33" s="54" t="str">
+      <c r="J33" s="28"/>
+      <c r="K33" s="29" t="str">
         <f t="shared" ref="K33" si="110">IF(J$8*J33=0,"",J$8*J33)</f>
         <v/>
       </c>
-      <c r="L33" s="53"/>
-      <c r="M33" s="54" t="str">
+      <c r="L33" s="28"/>
+      <c r="M33" s="29" t="str">
         <f t="shared" ref="M33" si="111">IF(L$8*L33=0,"",L$8*L33)</f>
         <v/>
       </c>
-      <c r="N33" s="53"/>
-      <c r="O33" s="54" t="str">
+      <c r="N33" s="28"/>
+      <c r="O33" s="29" t="str">
         <f t="shared" ref="O33" si="112">IF(N$8*N33=0,"",N$8*N33)</f>
         <v/>
       </c>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="55" t="str">
+      <c r="P33" s="28"/>
+      <c r="Q33" s="30" t="str">
         <f t="shared" ref="Q33" si="113">IF(P$8*P33=0,"",P$8*P33)</f>
         <v/>
       </c>
-      <c r="R33" s="56" t="str">
+      <c r="R33" s="31" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A34" s="52" t="str">
+      <c r="A34" s="27" t="str">
         <f t="shared" si="65"/>
         <v>24</v>
       </c>
-      <c r="B34" s="53"/>
-      <c r="C34" s="54" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D34" s="53"/>
-      <c r="E34" s="54" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F34" s="53"/>
-      <c r="G34" s="54" t="str">
+      <c r="B34" s="28"/>
+      <c r="C34" s="29" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D34" s="28"/>
+      <c r="E34" s="29" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F34" s="28"/>
+      <c r="G34" s="29" t="str">
         <f t="shared" ref="G34" si="114">IF(F$8*F34=0,"",F$8*F34)</f>
         <v/>
       </c>
-      <c r="H34" s="53"/>
-      <c r="I34" s="54" t="str">
+      <c r="H34" s="28"/>
+      <c r="I34" s="29" t="str">
         <f t="shared" ref="I34" si="115">IF(H$8*H34=0,"",H$8*H34)</f>
         <v/>
       </c>
-      <c r="J34" s="53"/>
-      <c r="K34" s="54" t="str">
+      <c r="J34" s="28"/>
+      <c r="K34" s="29" t="str">
         <f t="shared" ref="K34" si="116">IF(J$8*J34=0,"",J$8*J34)</f>
         <v/>
       </c>
-      <c r="L34" s="53"/>
-      <c r="M34" s="54" t="str">
+      <c r="L34" s="28"/>
+      <c r="M34" s="29" t="str">
         <f t="shared" ref="M34" si="117">IF(L$8*L34=0,"",L$8*L34)</f>
         <v/>
       </c>
-      <c r="N34" s="53"/>
-      <c r="O34" s="54" t="str">
+      <c r="N34" s="28"/>
+      <c r="O34" s="29" t="str">
         <f t="shared" ref="O34" si="118">IF(N$8*N34=0,"",N$8*N34)</f>
         <v/>
       </c>
-      <c r="P34" s="53"/>
-      <c r="Q34" s="55" t="str">
+      <c r="P34" s="28"/>
+      <c r="Q34" s="30" t="str">
         <f t="shared" ref="Q34" si="119">IF(P$8*P34=0,"",P$8*P34)</f>
         <v/>
       </c>
-      <c r="R34" s="56" t="str">
+      <c r="R34" s="31" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A35" s="52" t="str">
+      <c r="A35" s="27" t="str">
         <f t="shared" si="65"/>
         <v>25</v>
       </c>
-      <c r="B35" s="53"/>
-      <c r="C35" s="54" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D35" s="53"/>
-      <c r="E35" s="54" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F35" s="53"/>
-      <c r="G35" s="54" t="str">
+      <c r="B35" s="28"/>
+      <c r="C35" s="29" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D35" s="28"/>
+      <c r="E35" s="29" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F35" s="28"/>
+      <c r="G35" s="29" t="str">
         <f t="shared" ref="G35" si="120">IF(F$8*F35=0,"",F$8*F35)</f>
         <v/>
       </c>
-      <c r="H35" s="53"/>
-      <c r="I35" s="54" t="str">
+      <c r="H35" s="28"/>
+      <c r="I35" s="29" t="str">
         <f t="shared" ref="I35" si="121">IF(H$8*H35=0,"",H$8*H35)</f>
         <v/>
       </c>
-      <c r="J35" s="53"/>
-      <c r="K35" s="54" t="str">
+      <c r="J35" s="28"/>
+      <c r="K35" s="29" t="str">
         <f t="shared" ref="K35" si="122">IF(J$8*J35=0,"",J$8*J35)</f>
         <v/>
       </c>
-      <c r="L35" s="53"/>
-      <c r="M35" s="54" t="str">
+      <c r="L35" s="28"/>
+      <c r="M35" s="29" t="str">
         <f t="shared" ref="M35" si="123">IF(L$8*L35=0,"",L$8*L35)</f>
         <v/>
       </c>
-      <c r="N35" s="53"/>
-      <c r="O35" s="54" t="str">
+      <c r="N35" s="28"/>
+      <c r="O35" s="29" t="str">
         <f t="shared" ref="O35" si="124">IF(N$8*N35=0,"",N$8*N35)</f>
         <v/>
       </c>
-      <c r="P35" s="53"/>
-      <c r="Q35" s="55" t="str">
+      <c r="P35" s="28"/>
+      <c r="Q35" s="30" t="str">
         <f t="shared" ref="Q35" si="125">IF(P$8*P35=0,"",P$8*P35)</f>
         <v/>
       </c>
-      <c r="R35" s="56" t="str">
+      <c r="R35" s="31" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A36" s="52" t="str">
+      <c r="A36" s="27" t="str">
         <f t="shared" si="65"/>
         <v>26</v>
       </c>
-      <c r="B36" s="53"/>
-      <c r="C36" s="54" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D36" s="53"/>
-      <c r="E36" s="54" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F36" s="53"/>
-      <c r="G36" s="54" t="str">
+      <c r="B36" s="28"/>
+      <c r="C36" s="29" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D36" s="28"/>
+      <c r="E36" s="29" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F36" s="28"/>
+      <c r="G36" s="29" t="str">
         <f t="shared" ref="G36" si="126">IF(F$8*F36=0,"",F$8*F36)</f>
         <v/>
       </c>
-      <c r="H36" s="53"/>
-      <c r="I36" s="54" t="str">
+      <c r="H36" s="28"/>
+      <c r="I36" s="29" t="str">
         <f t="shared" ref="I36" si="127">IF(H$8*H36=0,"",H$8*H36)</f>
         <v/>
       </c>
-      <c r="J36" s="53"/>
-      <c r="K36" s="54" t="str">
+      <c r="J36" s="28"/>
+      <c r="K36" s="29" t="str">
         <f t="shared" ref="K36" si="128">IF(J$8*J36=0,"",J$8*J36)</f>
         <v/>
       </c>
-      <c r="L36" s="53"/>
-      <c r="M36" s="54" t="str">
+      <c r="L36" s="28"/>
+      <c r="M36" s="29" t="str">
         <f t="shared" ref="M36" si="129">IF(L$8*L36=0,"",L$8*L36)</f>
         <v/>
       </c>
-      <c r="N36" s="53"/>
-      <c r="O36" s="54" t="str">
+      <c r="N36" s="28"/>
+      <c r="O36" s="29" t="str">
         <f t="shared" ref="O36" si="130">IF(N$8*N36=0,"",N$8*N36)</f>
         <v/>
       </c>
-      <c r="P36" s="53"/>
-      <c r="Q36" s="55" t="str">
+      <c r="P36" s="28"/>
+      <c r="Q36" s="30" t="str">
         <f t="shared" ref="Q36" si="131">IF(P$8*P36=0,"",P$8*P36)</f>
         <v/>
       </c>
-      <c r="R36" s="56" t="str">
+      <c r="R36" s="31" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A37" s="52" t="str">
+      <c r="A37" s="27" t="str">
         <f t="shared" si="65"/>
         <v>27</v>
       </c>
-      <c r="B37" s="53"/>
-      <c r="C37" s="54" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D37" s="53"/>
-      <c r="E37" s="54" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F37" s="53"/>
-      <c r="G37" s="54" t="str">
+      <c r="B37" s="28"/>
+      <c r="C37" s="29" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D37" s="28"/>
+      <c r="E37" s="29" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F37" s="28"/>
+      <c r="G37" s="29" t="str">
         <f t="shared" ref="G37" si="132">IF(F$8*F37=0,"",F$8*F37)</f>
         <v/>
       </c>
-      <c r="H37" s="53"/>
-      <c r="I37" s="54" t="str">
+      <c r="H37" s="28"/>
+      <c r="I37" s="29" t="str">
         <f t="shared" ref="I37" si="133">IF(H$8*H37=0,"",H$8*H37)</f>
         <v/>
       </c>
-      <c r="J37" s="53"/>
-      <c r="K37" s="54" t="str">
+      <c r="J37" s="28"/>
+      <c r="K37" s="29" t="str">
         <f t="shared" ref="K37" si="134">IF(J$8*J37=0,"",J$8*J37)</f>
         <v/>
       </c>
-      <c r="L37" s="53"/>
-      <c r="M37" s="54" t="str">
+      <c r="L37" s="28"/>
+      <c r="M37" s="29" t="str">
         <f t="shared" ref="M37" si="135">IF(L$8*L37=0,"",L$8*L37)</f>
         <v/>
       </c>
-      <c r="N37" s="53"/>
-      <c r="O37" s="54" t="str">
+      <c r="N37" s="28"/>
+      <c r="O37" s="29" t="str">
         <f t="shared" ref="O37" si="136">IF(N$8*N37=0,"",N$8*N37)</f>
         <v/>
       </c>
-      <c r="P37" s="53"/>
-      <c r="Q37" s="55" t="str">
+      <c r="P37" s="28"/>
+      <c r="Q37" s="30" t="str">
         <f t="shared" ref="Q37" si="137">IF(P$8*P37=0,"",P$8*P37)</f>
         <v/>
       </c>
-      <c r="R37" s="56" t="str">
+      <c r="R37" s="31" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A38" s="52" t="str">
+      <c r="A38" s="27" t="str">
         <f t="shared" si="65"/>
         <v>28</v>
       </c>
-      <c r="B38" s="53"/>
-      <c r="C38" s="54" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D38" s="53"/>
-      <c r="E38" s="54" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F38" s="53"/>
-      <c r="G38" s="54" t="str">
+      <c r="B38" s="28"/>
+      <c r="C38" s="29" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D38" s="28"/>
+      <c r="E38" s="29" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F38" s="28"/>
+      <c r="G38" s="29" t="str">
         <f t="shared" ref="G38" si="138">IF(F$8*F38=0,"",F$8*F38)</f>
         <v/>
       </c>
-      <c r="H38" s="53"/>
-      <c r="I38" s="54" t="str">
+      <c r="H38" s="28"/>
+      <c r="I38" s="29" t="str">
         <f t="shared" ref="I38" si="139">IF(H$8*H38=0,"",H$8*H38)</f>
         <v/>
       </c>
-      <c r="J38" s="53"/>
-      <c r="K38" s="54" t="str">
+      <c r="J38" s="28"/>
+      <c r="K38" s="29" t="str">
         <f t="shared" ref="K38" si="140">IF(J$8*J38=0,"",J$8*J38)</f>
         <v/>
       </c>
-      <c r="L38" s="53"/>
-      <c r="M38" s="54" t="str">
+      <c r="L38" s="28"/>
+      <c r="M38" s="29" t="str">
         <f t="shared" ref="M38" si="141">IF(L$8*L38=0,"",L$8*L38)</f>
         <v/>
       </c>
-      <c r="N38" s="53"/>
-      <c r="O38" s="54" t="str">
+      <c r="N38" s="28"/>
+      <c r="O38" s="29" t="str">
         <f t="shared" ref="O38" si="142">IF(N$8*N38=0,"",N$8*N38)</f>
         <v/>
       </c>
-      <c r="P38" s="53"/>
-      <c r="Q38" s="55" t="str">
+      <c r="P38" s="28"/>
+      <c r="Q38" s="30" t="str">
         <f t="shared" ref="Q38" si="143">IF(P$8*P38=0,"",P$8*P38)</f>
         <v/>
       </c>
-      <c r="R38" s="56" t="str">
+      <c r="R38" s="31" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A39" s="52" t="str">
+      <c r="A39" s="27" t="str">
         <f t="shared" si="65"/>
         <v>29</v>
       </c>
-      <c r="B39" s="53"/>
-      <c r="C39" s="54" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D39" s="53"/>
-      <c r="E39" s="54" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F39" s="53"/>
-      <c r="G39" s="54" t="str">
+      <c r="B39" s="28"/>
+      <c r="C39" s="29" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D39" s="28"/>
+      <c r="E39" s="29" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F39" s="28"/>
+      <c r="G39" s="29" t="str">
         <f t="shared" ref="G39" si="144">IF(F$8*F39=0,"",F$8*F39)</f>
         <v/>
       </c>
-      <c r="H39" s="53"/>
-      <c r="I39" s="54" t="str">
+      <c r="H39" s="28"/>
+      <c r="I39" s="29" t="str">
         <f t="shared" ref="I39" si="145">IF(H$8*H39=0,"",H$8*H39)</f>
         <v/>
       </c>
-      <c r="J39" s="53"/>
-      <c r="K39" s="54" t="str">
+      <c r="J39" s="28"/>
+      <c r="K39" s="29" t="str">
         <f t="shared" ref="K39" si="146">IF(J$8*J39=0,"",J$8*J39)</f>
         <v/>
       </c>
-      <c r="L39" s="53"/>
-      <c r="M39" s="54" t="str">
+      <c r="L39" s="28"/>
+      <c r="M39" s="29" t="str">
         <f t="shared" ref="M39" si="147">IF(L$8*L39=0,"",L$8*L39)</f>
         <v/>
       </c>
-      <c r="N39" s="53"/>
-      <c r="O39" s="54" t="str">
+      <c r="N39" s="28"/>
+      <c r="O39" s="29" t="str">
         <f t="shared" ref="O39" si="148">IF(N$8*N39=0,"",N$8*N39)</f>
         <v/>
       </c>
-      <c r="P39" s="53"/>
-      <c r="Q39" s="55" t="str">
+      <c r="P39" s="28"/>
+      <c r="Q39" s="30" t="str">
         <f t="shared" ref="Q39" si="149">IF(P$8*P39=0,"",P$8*P39)</f>
         <v/>
       </c>
-      <c r="R39" s="56" t="str">
+      <c r="R39" s="31" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A40" s="52" t="str">
+      <c r="A40" s="27" t="str">
         <f t="shared" si="65"/>
         <v>30</v>
       </c>
-      <c r="B40" s="53"/>
-      <c r="C40" s="54" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D40" s="53"/>
-      <c r="E40" s="54" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F40" s="53"/>
-      <c r="G40" s="54" t="str">
+      <c r="B40" s="28"/>
+      <c r="C40" s="29" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D40" s="28"/>
+      <c r="E40" s="29" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F40" s="28"/>
+      <c r="G40" s="29" t="str">
         <f t="shared" ref="G40" si="150">IF(F$8*F40=0,"",F$8*F40)</f>
         <v/>
       </c>
-      <c r="H40" s="53"/>
-      <c r="I40" s="54" t="str">
+      <c r="H40" s="28"/>
+      <c r="I40" s="29" t="str">
         <f t="shared" ref="I40" si="151">IF(H$8*H40=0,"",H$8*H40)</f>
         <v/>
       </c>
-      <c r="J40" s="53"/>
-      <c r="K40" s="54" t="str">
+      <c r="J40" s="28"/>
+      <c r="K40" s="29" t="str">
         <f t="shared" ref="K40" si="152">IF(J$8*J40=0,"",J$8*J40)</f>
         <v/>
       </c>
-      <c r="L40" s="53"/>
-      <c r="M40" s="54" t="str">
+      <c r="L40" s="28"/>
+      <c r="M40" s="29" t="str">
         <f t="shared" ref="M40" si="153">IF(L$8*L40=0,"",L$8*L40)</f>
         <v/>
       </c>
-      <c r="N40" s="53"/>
-      <c r="O40" s="54" t="str">
+      <c r="N40" s="28"/>
+      <c r="O40" s="29" t="str">
         <f t="shared" ref="O40" si="154">IF(N$8*N40=0,"",N$8*N40)</f>
         <v/>
       </c>
-      <c r="P40" s="53"/>
-      <c r="Q40" s="55" t="str">
+      <c r="P40" s="28"/>
+      <c r="Q40" s="30" t="str">
         <f t="shared" ref="Q40" si="155">IF(P$8*P40=0,"",P$8*P40)</f>
         <v/>
       </c>
-      <c r="R40" s="56" t="str">
+      <c r="R40" s="31" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A41" s="57" t="str">
+      <c r="A41" s="32" t="str">
         <f t="shared" si="65"/>
         <v>31</v>
       </c>
-      <c r="B41" s="58"/>
-      <c r="C41" s="59" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D41" s="58"/>
-      <c r="E41" s="59" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F41" s="58"/>
-      <c r="G41" s="59" t="str">
+      <c r="B41" s="33"/>
+      <c r="C41" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D41" s="33"/>
+      <c r="E41" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F41" s="33"/>
+      <c r="G41" s="34" t="str">
         <f t="shared" ref="G41" si="156">IF(F$8*F41=0,"",F$8*F41)</f>
         <v/>
       </c>
-      <c r="H41" s="58"/>
-      <c r="I41" s="59" t="str">
+      <c r="H41" s="33"/>
+      <c r="I41" s="34" t="str">
         <f t="shared" ref="I41" si="157">IF(H$8*H41=0,"",H$8*H41)</f>
         <v/>
       </c>
-      <c r="J41" s="58"/>
-      <c r="K41" s="59" t="str">
+      <c r="J41" s="33"/>
+      <c r="K41" s="34" t="str">
         <f t="shared" ref="K41" si="158">IF(J$8*J41=0,"",J$8*J41)</f>
         <v/>
       </c>
-      <c r="L41" s="58"/>
-      <c r="M41" s="59" t="str">
+      <c r="L41" s="33"/>
+      <c r="M41" s="34" t="str">
         <f t="shared" ref="M41" si="159">IF(L$8*L41=0,"",L$8*L41)</f>
         <v/>
       </c>
-      <c r="N41" s="58"/>
-      <c r="O41" s="59" t="str">
+      <c r="N41" s="33"/>
+      <c r="O41" s="34" t="str">
         <f t="shared" ref="O41" si="160">IF(N$8*N41=0,"",N$8*N41)</f>
         <v/>
       </c>
-      <c r="P41" s="58"/>
-      <c r="Q41" s="60" t="str">
+      <c r="P41" s="33"/>
+      <c r="Q41" s="35" t="str">
         <f t="shared" ref="Q41" si="161">IF(P$8*P41=0,"",P$8*P41)</f>
         <v/>
       </c>
-      <c r="R41" s="61" t="str">
+      <c r="R41" s="36" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A42" s="62" t="s">
+      <c r="A42" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="63" t="str">
+      <c r="B42" s="38" t="str">
         <f>IF(SUM(B11:B41)=0,"",SUM(B11:B41))</f>
         <v/>
       </c>
-      <c r="C42" s="64" t="str">
+      <c r="C42" s="39" t="str">
         <f>IF(SUM(C11:C41)=0,"",SUM(C11:C41))</f>
         <v/>
       </c>
-      <c r="D42" s="63" t="str">
+      <c r="D42" s="38" t="str">
         <f t="shared" ref="D42:Q42" si="162">IF(SUM(D11:D41)=0,"",SUM(D11:D41))</f>
         <v/>
       </c>
-      <c r="E42" s="64" t="str">
+      <c r="E42" s="39" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="F42" s="63" t="str">
+      <c r="F42" s="38" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="G42" s="64" t="str">
+      <c r="G42" s="39" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="H42" s="63" t="str">
+      <c r="H42" s="38" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="I42" s="64" t="str">
+      <c r="I42" s="39" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="J42" s="63" t="str">
+      <c r="J42" s="38" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="K42" s="64" t="str">
+      <c r="K42" s="39" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="L42" s="63" t="str">
+      <c r="L42" s="38" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="M42" s="64" t="str">
+      <c r="M42" s="39" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="N42" s="63" t="str">
+      <c r="N42" s="38" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="O42" s="64" t="str">
+      <c r="O42" s="39" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="P42" s="63" t="str">
+      <c r="P42" s="38" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="Q42" s="64" t="str">
+      <c r="Q42" s="39" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="R42" s="65" t="str">
+      <c r="R42" s="40" t="str">
         <f>IF(SUM(R11:R41)=0,"",SUM(R11:R41))</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J4:K5"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="I1:K2"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D4:E5"/>
-    <mergeCell ref="F4:G5"/>
-    <mergeCell ref="H4:I5"/>
-    <mergeCell ref="D2:G3"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="H6:M6"/>
     <mergeCell ref="R7:R9"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="Q3:R3"/>
@@ -3134,6 +3126,27 @@
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="N4:O5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D4:E5"/>
+    <mergeCell ref="F4:G5"/>
+    <mergeCell ref="H4:I5"/>
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J4:K5"/>
+    <mergeCell ref="A4:C5"/>
     <mergeCell ref="J7:K7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>

--- a/ExcelTemplate/hoiku/請求書_指定B.xlsx
+++ b/ExcelTemplate/hoiku/請求書_指定B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\herokuspace\deliba\ExcelTemplate\hoiku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA2CE73-25AB-4F67-B4BA-C5CCC55608DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F870BF-6790-4573-B8DC-697E3ABDE69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -663,7 +663,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -675,22 +675,21 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="distributed"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -765,80 +764,80 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1210,8 +1209,8 @@
   </sheetPr>
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:C2"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.25" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -1238,1880 +1237,1901 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="52" t="s">
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="Q2" s="59" t="s">
+      <c r="Q2" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="59"/>
+      <c r="R2" s="43"/>
     </row>
     <row r="3" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
       <c r="H3" s="8"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
-      <c r="Q3" s="60" t="s">
+      <c r="Q3" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="60"/>
+      <c r="R3" s="44"/>
     </row>
     <row r="4" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="49" t="s">
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="51" t="s">
+      <c r="E4" s="51"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="50"/>
-      <c r="J4" s="42">
+      <c r="I4" s="51"/>
+      <c r="J4" s="54">
         <f>ROUND(F4*0.08,0)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="43"/>
-      <c r="L4" s="49" t="s">
+      <c r="K4" s="55"/>
+      <c r="L4" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="50"/>
-      <c r="N4" s="42">
+      <c r="M4" s="51"/>
+      <c r="N4" s="54">
         <f>F4+J4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="43"/>
-      <c r="Q4" s="65" t="s">
+      <c r="O4" s="55"/>
+      <c r="Q4" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="65"/>
+      <c r="R4" s="53"/>
     </row>
     <row r="5" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="43"/>
+      <c r="A5" s="63"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="55"/>
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
     </row>
     <row r="6" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="55" t="s">
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="64"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
     </row>
     <row r="7" spans="1:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="56" t="s">
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="40" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="57"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="41"/>
     </row>
     <row r="9" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="L9" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="15" t="s">
+      <c r="M9" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="14" t="s">
+      <c r="N9" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="O9" s="15" t="s">
+      <c r="O9" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="14" t="s">
+      <c r="P9" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Q9" s="16" t="s">
+      <c r="Q9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="R9" s="58"/>
+      <c r="R9" s="42"/>
     </row>
     <row r="10" spans="1:18" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="21"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="20"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A11" s="22" t="str">
+      <c r="A11" s="21" t="str">
         <f t="shared" ref="A11:A25" si="0">SUBSTITUTE(MID(SUBSTITUTE($A$4," ",""),6,10),"月分","/")&amp;(ROW()-10)</f>
         <v>1</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24" t="str">
+      <c r="B11" s="22"/>
+      <c r="C11" s="23" t="str">
         <f t="shared" ref="C11:C16" si="1">IF(B$8*B11=0,"",B$8*B11)</f>
         <v/>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24" t="str">
+      <c r="D11" s="22"/>
+      <c r="E11" s="23" t="str">
         <f t="shared" ref="E11:E16" si="2">IF(D$8*D11=0,"",D$8*D11)</f>
         <v/>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="24" t="str">
+      <c r="F11" s="22"/>
+      <c r="G11" s="23" t="str">
         <f t="shared" ref="G11:G16" si="3">IF(F$8*F11=0,"",F$8*F11)</f>
         <v/>
       </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="24" t="str">
+      <c r="H11" s="22"/>
+      <c r="I11" s="23" t="str">
         <f t="shared" ref="I11:I16" si="4">IF(H$8*H11=0,"",H$8*H11)</f>
         <v/>
       </c>
-      <c r="J11" s="23"/>
-      <c r="K11" s="24" t="str">
+      <c r="J11" s="22"/>
+      <c r="K11" s="23" t="str">
         <f t="shared" ref="K11:K16" si="5">IF(J$8*J11=0,"",J$8*J11)</f>
         <v/>
       </c>
-      <c r="L11" s="23"/>
-      <c r="M11" s="24" t="str">
+      <c r="L11" s="22"/>
+      <c r="M11" s="23" t="str">
         <f t="shared" ref="M11:M16" si="6">IF(L$8*L11=0,"",L$8*L11)</f>
         <v/>
       </c>
-      <c r="N11" s="23"/>
-      <c r="O11" s="24" t="str">
+      <c r="N11" s="22"/>
+      <c r="O11" s="23" t="str">
         <f t="shared" ref="O11:O16" si="7">IF(N$8*N11=0,"",N$8*N11)</f>
         <v/>
       </c>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="25" t="str">
+      <c r="P11" s="22"/>
+      <c r="Q11" s="24" t="str">
         <f t="shared" ref="Q11:Q16" si="8">IF(P$8*P11=0,"",P$8*P11)</f>
         <v/>
       </c>
-      <c r="R11" s="26" t="str">
+      <c r="R11" s="25" t="str">
         <f>IF(SUM(C11,E11,G11,I11,K11,M11,O11,Q11)=0,"",SUM(C11,E11,G11,I11,K11,M11,O11,Q11))</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A12" s="27" t="str">
+      <c r="A12" s="26" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29" t="str">
+      <c r="B12" s="27"/>
+      <c r="C12" s="28" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="29" t="str">
+      <c r="D12" s="27"/>
+      <c r="E12" s="28" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="29" t="str">
+      <c r="F12" s="27"/>
+      <c r="G12" s="28" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="29" t="str">
+      <c r="H12" s="27"/>
+      <c r="I12" s="28" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J12" s="28"/>
-      <c r="K12" s="29" t="str">
+      <c r="J12" s="27"/>
+      <c r="K12" s="28" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L12" s="28"/>
-      <c r="M12" s="29" t="str">
+      <c r="L12" s="27"/>
+      <c r="M12" s="28" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N12" s="28"/>
-      <c r="O12" s="29" t="str">
+      <c r="N12" s="27"/>
+      <c r="O12" s="28" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="30" t="str">
+      <c r="P12" s="27"/>
+      <c r="Q12" s="29" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="R12" s="31" t="str">
+      <c r="R12" s="30" t="str">
         <f t="shared" ref="R12:R41" si="9">IF(SUM(C12,E12,G12,I12,K12,M12,O12,Q12)=0,"",SUM(C12,E12,G12,I12,K12,M12,O12,Q12))</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13" s="27" t="str">
+      <c r="A13" s="26" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29" t="str">
+      <c r="B13" s="27"/>
+      <c r="C13" s="28" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="29" t="str">
+      <c r="D13" s="27"/>
+      <c r="E13" s="28" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="29" t="str">
+      <c r="F13" s="27"/>
+      <c r="G13" s="28" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="29" t="str">
+      <c r="H13" s="27"/>
+      <c r="I13" s="28" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J13" s="28"/>
-      <c r="K13" s="29" t="str">
+      <c r="J13" s="27"/>
+      <c r="K13" s="28" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L13" s="28"/>
-      <c r="M13" s="29" t="str">
+      <c r="L13" s="27"/>
+      <c r="M13" s="28" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N13" s="28"/>
-      <c r="O13" s="29" t="str">
+      <c r="N13" s="27"/>
+      <c r="O13" s="28" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="30" t="str">
+      <c r="P13" s="27"/>
+      <c r="Q13" s="29" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="R13" s="31" t="str">
+      <c r="R13" s="30" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A14" s="27" t="str">
+      <c r="A14" s="26" t="str">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="29" t="str">
+      <c r="B14" s="27"/>
+      <c r="C14" s="28" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29" t="str">
+      <c r="D14" s="27"/>
+      <c r="E14" s="28" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="29" t="str">
+      <c r="F14" s="27"/>
+      <c r="G14" s="28" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="29" t="str">
+      <c r="H14" s="27"/>
+      <c r="I14" s="28" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="28"/>
-      <c r="K14" s="29" t="str">
+      <c r="J14" s="27"/>
+      <c r="K14" s="28" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L14" s="28"/>
-      <c r="M14" s="29" t="str">
+      <c r="L14" s="27"/>
+      <c r="M14" s="28" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N14" s="28"/>
-      <c r="O14" s="29" t="str">
+      <c r="N14" s="27"/>
+      <c r="O14" s="28" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="30" t="str">
+      <c r="P14" s="27"/>
+      <c r="Q14" s="29" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="R14" s="31" t="str">
+      <c r="R14" s="30" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="27" t="str">
+      <c r="A15" s="26" t="str">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29" t="str">
+      <c r="B15" s="27"/>
+      <c r="C15" s="28" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29" t="str">
+      <c r="D15" s="27"/>
+      <c r="E15" s="28" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="29" t="str">
+      <c r="F15" s="27"/>
+      <c r="G15" s="28" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H15" s="28"/>
-      <c r="I15" s="29" t="str">
+      <c r="H15" s="27"/>
+      <c r="I15" s="28" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J15" s="28"/>
-      <c r="K15" s="29" t="str">
+      <c r="J15" s="27"/>
+      <c r="K15" s="28" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="28"/>
-      <c r="M15" s="29" t="str">
+      <c r="L15" s="27"/>
+      <c r="M15" s="28" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N15" s="28"/>
-      <c r="O15" s="29" t="str">
+      <c r="N15" s="27"/>
+      <c r="O15" s="28" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="30" t="str">
+      <c r="P15" s="27"/>
+      <c r="Q15" s="29" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="R15" s="31" t="str">
+      <c r="R15" s="30" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="27" t="str">
+      <c r="A16" s="26" t="str">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29" t="str">
+      <c r="B16" s="27"/>
+      <c r="C16" s="28" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29" t="str">
+      <c r="D16" s="27"/>
+      <c r="E16" s="28" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="29" t="str">
+      <c r="F16" s="27"/>
+      <c r="G16" s="28" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H16" s="28"/>
-      <c r="I16" s="29" t="str">
+      <c r="H16" s="27"/>
+      <c r="I16" s="28" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J16" s="28"/>
-      <c r="K16" s="29" t="str">
+      <c r="J16" s="27"/>
+      <c r="K16" s="28" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L16" s="28"/>
-      <c r="M16" s="29" t="str">
+      <c r="L16" s="27"/>
+      <c r="M16" s="28" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N16" s="28"/>
-      <c r="O16" s="29" t="str">
+      <c r="N16" s="27"/>
+      <c r="O16" s="28" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="30" t="str">
+      <c r="P16" s="27"/>
+      <c r="Q16" s="29" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="R16" s="31" t="str">
+      <c r="R16" s="30" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A17" s="27" t="str">
+      <c r="A17" s="26" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29" t="str">
+      <c r="B17" s="27"/>
+      <c r="C17" s="28" t="str">
         <f t="shared" ref="C17:E41" si="10">IF(B$8*B17=0,"",B$8*B17)</f>
         <v/>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="29" t="str">
+      <c r="D17" s="27"/>
+      <c r="E17" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F17" s="27"/>
+      <c r="G17" s="28" t="str">
         <f t="shared" ref="G17" si="11">IF(F$8*F17=0,"",F$8*F17)</f>
         <v/>
       </c>
-      <c r="H17" s="28"/>
-      <c r="I17" s="29" t="str">
+      <c r="H17" s="27"/>
+      <c r="I17" s="28" t="str">
         <f t="shared" ref="I17" si="12">IF(H$8*H17=0,"",H$8*H17)</f>
         <v/>
       </c>
-      <c r="J17" s="28"/>
-      <c r="K17" s="29" t="str">
+      <c r="J17" s="27"/>
+      <c r="K17" s="28" t="str">
         <f t="shared" ref="K17" si="13">IF(J$8*J17=0,"",J$8*J17)</f>
         <v/>
       </c>
-      <c r="L17" s="28"/>
-      <c r="M17" s="29" t="str">
+      <c r="L17" s="27"/>
+      <c r="M17" s="28" t="str">
         <f t="shared" ref="M17" si="14">IF(L$8*L17=0,"",L$8*L17)</f>
         <v/>
       </c>
-      <c r="N17" s="28"/>
-      <c r="O17" s="29" t="str">
+      <c r="N17" s="27"/>
+      <c r="O17" s="28" t="str">
         <f t="shared" ref="O17" si="15">IF(N$8*N17=0,"",N$8*N17)</f>
         <v/>
       </c>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="30" t="str">
+      <c r="P17" s="27"/>
+      <c r="Q17" s="29" t="str">
         <f t="shared" ref="Q17" si="16">IF(P$8*P17=0,"",P$8*P17)</f>
         <v/>
       </c>
-      <c r="R17" s="31" t="str">
+      <c r="R17" s="30" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A18" s="27" t="str">
+      <c r="A18" s="26" t="str">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="29" t="str">
+      <c r="B18" s="27"/>
+      <c r="C18" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28" t="str">
         <f t="shared" ref="G18" si="17">IF(F$8*F18=0,"",F$8*F18)</f>
         <v/>
       </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="29" t="str">
+      <c r="H18" s="27"/>
+      <c r="I18" s="28" t="str">
         <f t="shared" ref="I18" si="18">IF(H$8*H18=0,"",H$8*H18)</f>
         <v/>
       </c>
-      <c r="J18" s="28"/>
-      <c r="K18" s="29" t="str">
+      <c r="J18" s="27"/>
+      <c r="K18" s="28" t="str">
         <f t="shared" ref="K18" si="19">IF(J$8*J18=0,"",J$8*J18)</f>
         <v/>
       </c>
-      <c r="L18" s="28"/>
-      <c r="M18" s="29" t="str">
+      <c r="L18" s="27"/>
+      <c r="M18" s="28" t="str">
         <f t="shared" ref="M18" si="20">IF(L$8*L18=0,"",L$8*L18)</f>
         <v/>
       </c>
-      <c r="N18" s="28"/>
-      <c r="O18" s="29" t="str">
+      <c r="N18" s="27"/>
+      <c r="O18" s="28" t="str">
         <f t="shared" ref="O18" si="21">IF(N$8*N18=0,"",N$8*N18)</f>
         <v/>
       </c>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="30" t="str">
+      <c r="P18" s="27"/>
+      <c r="Q18" s="29" t="str">
         <f t="shared" ref="Q18" si="22">IF(P$8*P18=0,"",P$8*P18)</f>
         <v/>
       </c>
-      <c r="R18" s="31" t="str">
+      <c r="R18" s="30" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A19" s="27" t="str">
+      <c r="A19" s="26" t="str">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="29" t="str">
+      <c r="B19" s="27"/>
+      <c r="C19" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28" t="str">
         <f t="shared" ref="G19" si="23">IF(F$8*F19=0,"",F$8*F19)</f>
         <v/>
       </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="29" t="str">
+      <c r="H19" s="27"/>
+      <c r="I19" s="28" t="str">
         <f t="shared" ref="I19" si="24">IF(H$8*H19=0,"",H$8*H19)</f>
         <v/>
       </c>
-      <c r="J19" s="28"/>
-      <c r="K19" s="29" t="str">
+      <c r="J19" s="27"/>
+      <c r="K19" s="28" t="str">
         <f t="shared" ref="K19" si="25">IF(J$8*J19=0,"",J$8*J19)</f>
         <v/>
       </c>
-      <c r="L19" s="28"/>
-      <c r="M19" s="29" t="str">
+      <c r="L19" s="27"/>
+      <c r="M19" s="28" t="str">
         <f t="shared" ref="M19" si="26">IF(L$8*L19=0,"",L$8*L19)</f>
         <v/>
       </c>
-      <c r="N19" s="28"/>
-      <c r="O19" s="29" t="str">
+      <c r="N19" s="27"/>
+      <c r="O19" s="28" t="str">
         <f t="shared" ref="O19" si="27">IF(N$8*N19=0,"",N$8*N19)</f>
         <v/>
       </c>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="30" t="str">
+      <c r="P19" s="27"/>
+      <c r="Q19" s="29" t="str">
         <f t="shared" ref="Q19" si="28">IF(P$8*P19=0,"",P$8*P19)</f>
         <v/>
       </c>
-      <c r="R19" s="31" t="str">
+      <c r="R19" s="30" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A20" s="27" t="str">
+      <c r="A20" s="26" t="str">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="29" t="str">
+      <c r="B20" s="27"/>
+      <c r="C20" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D20" s="27"/>
+      <c r="E20" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28" t="str">
         <f t="shared" ref="G20" si="29">IF(F$8*F20=0,"",F$8*F20)</f>
         <v/>
       </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="29" t="str">
+      <c r="H20" s="27"/>
+      <c r="I20" s="28" t="str">
         <f t="shared" ref="I20" si="30">IF(H$8*H20=0,"",H$8*H20)</f>
         <v/>
       </c>
-      <c r="J20" s="28"/>
-      <c r="K20" s="29" t="str">
+      <c r="J20" s="27"/>
+      <c r="K20" s="28" t="str">
         <f t="shared" ref="K20" si="31">IF(J$8*J20=0,"",J$8*J20)</f>
         <v/>
       </c>
-      <c r="L20" s="28"/>
-      <c r="M20" s="29" t="str">
+      <c r="L20" s="27"/>
+      <c r="M20" s="28" t="str">
         <f t="shared" ref="M20" si="32">IF(L$8*L20=0,"",L$8*L20)</f>
         <v/>
       </c>
-      <c r="N20" s="28"/>
-      <c r="O20" s="29" t="str">
+      <c r="N20" s="27"/>
+      <c r="O20" s="28" t="str">
         <f t="shared" ref="O20" si="33">IF(N$8*N20=0,"",N$8*N20)</f>
         <v/>
       </c>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="30" t="str">
+      <c r="P20" s="27"/>
+      <c r="Q20" s="29" t="str">
         <f t="shared" ref="Q20" si="34">IF(P$8*P20=0,"",P$8*P20)</f>
         <v/>
       </c>
-      <c r="R20" s="31" t="str">
+      <c r="R20" s="30" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A21" s="27" t="str">
+      <c r="A21" s="26" t="str">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="29" t="str">
+      <c r="B21" s="27"/>
+      <c r="C21" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D21" s="27"/>
+      <c r="E21" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F21" s="27"/>
+      <c r="G21" s="28" t="str">
         <f t="shared" ref="G21" si="35">IF(F$8*F21=0,"",F$8*F21)</f>
         <v/>
       </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="29" t="str">
+      <c r="H21" s="27"/>
+      <c r="I21" s="28" t="str">
         <f t="shared" ref="I21" si="36">IF(H$8*H21=0,"",H$8*H21)</f>
         <v/>
       </c>
-      <c r="J21" s="28"/>
-      <c r="K21" s="29" t="str">
+      <c r="J21" s="27"/>
+      <c r="K21" s="28" t="str">
         <f t="shared" ref="K21" si="37">IF(J$8*J21=0,"",J$8*J21)</f>
         <v/>
       </c>
-      <c r="L21" s="28"/>
-      <c r="M21" s="29" t="str">
+      <c r="L21" s="27"/>
+      <c r="M21" s="28" t="str">
         <f t="shared" ref="M21" si="38">IF(L$8*L21=0,"",L$8*L21)</f>
         <v/>
       </c>
-      <c r="N21" s="28"/>
-      <c r="O21" s="29" t="str">
+      <c r="N21" s="27"/>
+      <c r="O21" s="28" t="str">
         <f t="shared" ref="O21" si="39">IF(N$8*N21=0,"",N$8*N21)</f>
         <v/>
       </c>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="30" t="str">
+      <c r="P21" s="27"/>
+      <c r="Q21" s="29" t="str">
         <f t="shared" ref="Q21" si="40">IF(P$8*P21=0,"",P$8*P21)</f>
         <v/>
       </c>
-      <c r="R21" s="31" t="str">
+      <c r="R21" s="30" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A22" s="27" t="str">
+      <c r="A22" s="26" t="str">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F22" s="28"/>
-      <c r="G22" s="29" t="str">
+      <c r="B22" s="27"/>
+      <c r="C22" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D22" s="27"/>
+      <c r="E22" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28" t="str">
         <f t="shared" ref="G22" si="41">IF(F$8*F22=0,"",F$8*F22)</f>
         <v/>
       </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="29" t="str">
+      <c r="H22" s="27"/>
+      <c r="I22" s="28" t="str">
         <f t="shared" ref="I22" si="42">IF(H$8*H22=0,"",H$8*H22)</f>
         <v/>
       </c>
-      <c r="J22" s="28"/>
-      <c r="K22" s="29" t="str">
+      <c r="J22" s="27"/>
+      <c r="K22" s="28" t="str">
         <f t="shared" ref="K22" si="43">IF(J$8*J22=0,"",J$8*J22)</f>
         <v/>
       </c>
-      <c r="L22" s="28"/>
-      <c r="M22" s="29" t="str">
+      <c r="L22" s="27"/>
+      <c r="M22" s="28" t="str">
         <f t="shared" ref="M22" si="44">IF(L$8*L22=0,"",L$8*L22)</f>
         <v/>
       </c>
-      <c r="N22" s="28"/>
-      <c r="O22" s="29" t="str">
+      <c r="N22" s="27"/>
+      <c r="O22" s="28" t="str">
         <f t="shared" ref="O22" si="45">IF(N$8*N22=0,"",N$8*N22)</f>
         <v/>
       </c>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="30" t="str">
+      <c r="P22" s="27"/>
+      <c r="Q22" s="29" t="str">
         <f t="shared" ref="Q22" si="46">IF(P$8*P22=0,"",P$8*P22)</f>
         <v/>
       </c>
-      <c r="R22" s="31" t="str">
+      <c r="R22" s="30" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A23" s="27" t="str">
+      <c r="A23" s="26" t="str">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F23" s="28"/>
-      <c r="G23" s="29" t="str">
+      <c r="B23" s="27"/>
+      <c r="C23" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D23" s="27"/>
+      <c r="E23" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28" t="str">
         <f t="shared" ref="G23" si="47">IF(F$8*F23=0,"",F$8*F23)</f>
         <v/>
       </c>
-      <c r="H23" s="28"/>
-      <c r="I23" s="29" t="str">
+      <c r="H23" s="27"/>
+      <c r="I23" s="28" t="str">
         <f t="shared" ref="I23" si="48">IF(H$8*H23=0,"",H$8*H23)</f>
         <v/>
       </c>
-      <c r="J23" s="28"/>
-      <c r="K23" s="29" t="str">
+      <c r="J23" s="27"/>
+      <c r="K23" s="28" t="str">
         <f t="shared" ref="K23" si="49">IF(J$8*J23=0,"",J$8*J23)</f>
         <v/>
       </c>
-      <c r="L23" s="28"/>
-      <c r="M23" s="29" t="str">
+      <c r="L23" s="27"/>
+      <c r="M23" s="28" t="str">
         <f t="shared" ref="M23" si="50">IF(L$8*L23=0,"",L$8*L23)</f>
         <v/>
       </c>
-      <c r="N23" s="28"/>
-      <c r="O23" s="29" t="str">
+      <c r="N23" s="27"/>
+      <c r="O23" s="28" t="str">
         <f t="shared" ref="O23" si="51">IF(N$8*N23=0,"",N$8*N23)</f>
         <v/>
       </c>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="30" t="str">
+      <c r="P23" s="27"/>
+      <c r="Q23" s="29" t="str">
         <f t="shared" ref="Q23" si="52">IF(P$8*P23=0,"",P$8*P23)</f>
         <v/>
       </c>
-      <c r="R23" s="31" t="str">
+      <c r="R23" s="30" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A24" s="27" t="str">
+      <c r="A24" s="26" t="str">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F24" s="28"/>
-      <c r="G24" s="29" t="str">
+      <c r="B24" s="27"/>
+      <c r="C24" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D24" s="27"/>
+      <c r="E24" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28" t="str">
         <f t="shared" ref="G24" si="53">IF(F$8*F24=0,"",F$8*F24)</f>
         <v/>
       </c>
-      <c r="H24" s="28"/>
-      <c r="I24" s="29" t="str">
+      <c r="H24" s="27"/>
+      <c r="I24" s="28" t="str">
         <f t="shared" ref="I24" si="54">IF(H$8*H24=0,"",H$8*H24)</f>
         <v/>
       </c>
-      <c r="J24" s="28"/>
-      <c r="K24" s="29" t="str">
+      <c r="J24" s="27"/>
+      <c r="K24" s="28" t="str">
         <f t="shared" ref="K24" si="55">IF(J$8*J24=0,"",J$8*J24)</f>
         <v/>
       </c>
-      <c r="L24" s="28"/>
-      <c r="M24" s="29" t="str">
+      <c r="L24" s="27"/>
+      <c r="M24" s="28" t="str">
         <f t="shared" ref="M24" si="56">IF(L$8*L24=0,"",L$8*L24)</f>
         <v/>
       </c>
-      <c r="N24" s="28"/>
-      <c r="O24" s="29" t="str">
+      <c r="N24" s="27"/>
+      <c r="O24" s="28" t="str">
         <f t="shared" ref="O24" si="57">IF(N$8*N24=0,"",N$8*N24)</f>
         <v/>
       </c>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="30" t="str">
+      <c r="P24" s="27"/>
+      <c r="Q24" s="29" t="str">
         <f t="shared" ref="Q24" si="58">IF(P$8*P24=0,"",P$8*P24)</f>
         <v/>
       </c>
-      <c r="R24" s="31" t="str">
+      <c r="R24" s="30" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A25" s="27" t="str">
+      <c r="A25" s="26" t="str">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F25" s="28"/>
-      <c r="G25" s="29" t="str">
+      <c r="B25" s="27"/>
+      <c r="C25" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D25" s="27"/>
+      <c r="E25" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F25" s="27"/>
+      <c r="G25" s="28" t="str">
         <f t="shared" ref="G25" si="59">IF(F$8*F25=0,"",F$8*F25)</f>
         <v/>
       </c>
-      <c r="H25" s="28"/>
-      <c r="I25" s="29" t="str">
+      <c r="H25" s="27"/>
+      <c r="I25" s="28" t="str">
         <f t="shared" ref="I25" si="60">IF(H$8*H25=0,"",H$8*H25)</f>
         <v/>
       </c>
-      <c r="J25" s="28"/>
-      <c r="K25" s="29" t="str">
+      <c r="J25" s="27"/>
+      <c r="K25" s="28" t="str">
         <f t="shared" ref="K25" si="61">IF(J$8*J25=0,"",J$8*J25)</f>
         <v/>
       </c>
-      <c r="L25" s="28"/>
-      <c r="M25" s="29" t="str">
+      <c r="L25" s="27"/>
+      <c r="M25" s="28" t="str">
         <f t="shared" ref="M25" si="62">IF(L$8*L25=0,"",L$8*L25)</f>
         <v/>
       </c>
-      <c r="N25" s="28"/>
-      <c r="O25" s="29" t="str">
+      <c r="N25" s="27"/>
+      <c r="O25" s="28" t="str">
         <f t="shared" ref="O25" si="63">IF(N$8*N25=0,"",N$8*N25)</f>
         <v/>
       </c>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="30" t="str">
+      <c r="P25" s="27"/>
+      <c r="Q25" s="29" t="str">
         <f t="shared" ref="Q25" si="64">IF(P$8*P25=0,"",P$8*P25)</f>
         <v/>
       </c>
-      <c r="R25" s="31" t="str">
+      <c r="R25" s="30" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A26" s="27" t="str">
+      <c r="A26" s="26" t="str">
         <f t="shared" ref="A26:A41" si="65">SUBSTITUTE(MID(SUBSTITUTE($A$4," ",""),6,10),"月分","/")&amp;(ROW()-10)</f>
         <v>16</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F26" s="28"/>
-      <c r="G26" s="29" t="str">
+      <c r="B26" s="27"/>
+      <c r="C26" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D26" s="27"/>
+      <c r="E26" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F26" s="27"/>
+      <c r="G26" s="28" t="str">
         <f t="shared" ref="G26" si="66">IF(F$8*F26=0,"",F$8*F26)</f>
         <v/>
       </c>
-      <c r="H26" s="28"/>
-      <c r="I26" s="29" t="str">
+      <c r="H26" s="27"/>
+      <c r="I26" s="28" t="str">
         <f t="shared" ref="I26" si="67">IF(H$8*H26=0,"",H$8*H26)</f>
         <v/>
       </c>
-      <c r="J26" s="28"/>
-      <c r="K26" s="29" t="str">
+      <c r="J26" s="27"/>
+      <c r="K26" s="28" t="str">
         <f t="shared" ref="K26" si="68">IF(J$8*J26=0,"",J$8*J26)</f>
         <v/>
       </c>
-      <c r="L26" s="28"/>
-      <c r="M26" s="29" t="str">
+      <c r="L26" s="27"/>
+      <c r="M26" s="28" t="str">
         <f t="shared" ref="M26" si="69">IF(L$8*L26=0,"",L$8*L26)</f>
         <v/>
       </c>
-      <c r="N26" s="28"/>
-      <c r="O26" s="29" t="str">
+      <c r="N26" s="27"/>
+      <c r="O26" s="28" t="str">
         <f t="shared" ref="O26" si="70">IF(N$8*N26=0,"",N$8*N26)</f>
         <v/>
       </c>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="30" t="str">
+      <c r="P26" s="27"/>
+      <c r="Q26" s="29" t="str">
         <f t="shared" ref="Q26" si="71">IF(P$8*P26=0,"",P$8*P26)</f>
         <v/>
       </c>
-      <c r="R26" s="31" t="str">
+      <c r="R26" s="30" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A27" s="27" t="str">
+      <c r="A27" s="26" t="str">
         <f t="shared" si="65"/>
         <v>17</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F27" s="28"/>
-      <c r="G27" s="29" t="str">
+      <c r="B27" s="27"/>
+      <c r="C27" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D27" s="27"/>
+      <c r="E27" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F27" s="27"/>
+      <c r="G27" s="28" t="str">
         <f t="shared" ref="G27" si="72">IF(F$8*F27=0,"",F$8*F27)</f>
         <v/>
       </c>
-      <c r="H27" s="28"/>
-      <c r="I27" s="29" t="str">
+      <c r="H27" s="27"/>
+      <c r="I27" s="28" t="str">
         <f t="shared" ref="I27" si="73">IF(H$8*H27=0,"",H$8*H27)</f>
         <v/>
       </c>
-      <c r="J27" s="28"/>
-      <c r="K27" s="29" t="str">
+      <c r="J27" s="27"/>
+      <c r="K27" s="28" t="str">
         <f t="shared" ref="K27" si="74">IF(J$8*J27=0,"",J$8*J27)</f>
         <v/>
       </c>
-      <c r="L27" s="28"/>
-      <c r="M27" s="29" t="str">
+      <c r="L27" s="27"/>
+      <c r="M27" s="28" t="str">
         <f t="shared" ref="M27" si="75">IF(L$8*L27=0,"",L$8*L27)</f>
         <v/>
       </c>
-      <c r="N27" s="28"/>
-      <c r="O27" s="29" t="str">
+      <c r="N27" s="27"/>
+      <c r="O27" s="28" t="str">
         <f t="shared" ref="O27" si="76">IF(N$8*N27=0,"",N$8*N27)</f>
         <v/>
       </c>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="30" t="str">
+      <c r="P27" s="27"/>
+      <c r="Q27" s="29" t="str">
         <f t="shared" ref="Q27" si="77">IF(P$8*P27=0,"",P$8*P27)</f>
         <v/>
       </c>
-      <c r="R27" s="31" t="str">
+      <c r="R27" s="30" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A28" s="27" t="str">
+      <c r="A28" s="26" t="str">
         <f t="shared" si="65"/>
         <v>18</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F28" s="28"/>
-      <c r="G28" s="29" t="str">
+      <c r="B28" s="27"/>
+      <c r="C28" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D28" s="27"/>
+      <c r="E28" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F28" s="27"/>
+      <c r="G28" s="28" t="str">
         <f t="shared" ref="G28" si="78">IF(F$8*F28=0,"",F$8*F28)</f>
         <v/>
       </c>
-      <c r="H28" s="28"/>
-      <c r="I28" s="29" t="str">
+      <c r="H28" s="27"/>
+      <c r="I28" s="28" t="str">
         <f t="shared" ref="I28" si="79">IF(H$8*H28=0,"",H$8*H28)</f>
         <v/>
       </c>
-      <c r="J28" s="28"/>
-      <c r="K28" s="29" t="str">
+      <c r="J28" s="27"/>
+      <c r="K28" s="28" t="str">
         <f t="shared" ref="K28" si="80">IF(J$8*J28=0,"",J$8*J28)</f>
         <v/>
       </c>
-      <c r="L28" s="28"/>
-      <c r="M28" s="29" t="str">
+      <c r="L28" s="27"/>
+      <c r="M28" s="28" t="str">
         <f t="shared" ref="M28" si="81">IF(L$8*L28=0,"",L$8*L28)</f>
         <v/>
       </c>
-      <c r="N28" s="28"/>
-      <c r="O28" s="29" t="str">
+      <c r="N28" s="27"/>
+      <c r="O28" s="28" t="str">
         <f t="shared" ref="O28" si="82">IF(N$8*N28=0,"",N$8*N28)</f>
         <v/>
       </c>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="30" t="str">
+      <c r="P28" s="27"/>
+      <c r="Q28" s="29" t="str">
         <f t="shared" ref="Q28" si="83">IF(P$8*P28=0,"",P$8*P28)</f>
         <v/>
       </c>
-      <c r="R28" s="31" t="str">
+      <c r="R28" s="30" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A29" s="27" t="str">
+      <c r="A29" s="26" t="str">
         <f t="shared" si="65"/>
         <v>19</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F29" s="28"/>
-      <c r="G29" s="29" t="str">
+      <c r="B29" s="27"/>
+      <c r="C29" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D29" s="27"/>
+      <c r="E29" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F29" s="27"/>
+      <c r="G29" s="28" t="str">
         <f t="shared" ref="G29" si="84">IF(F$8*F29=0,"",F$8*F29)</f>
         <v/>
       </c>
-      <c r="H29" s="28"/>
-      <c r="I29" s="29" t="str">
+      <c r="H29" s="27"/>
+      <c r="I29" s="28" t="str">
         <f t="shared" ref="I29" si="85">IF(H$8*H29=0,"",H$8*H29)</f>
         <v/>
       </c>
-      <c r="J29" s="28"/>
-      <c r="K29" s="29" t="str">
+      <c r="J29" s="27"/>
+      <c r="K29" s="28" t="str">
         <f t="shared" ref="K29" si="86">IF(J$8*J29=0,"",J$8*J29)</f>
         <v/>
       </c>
-      <c r="L29" s="28"/>
-      <c r="M29" s="29" t="str">
+      <c r="L29" s="27"/>
+      <c r="M29" s="28" t="str">
         <f t="shared" ref="M29" si="87">IF(L$8*L29=0,"",L$8*L29)</f>
         <v/>
       </c>
-      <c r="N29" s="28"/>
-      <c r="O29" s="29" t="str">
+      <c r="N29" s="27"/>
+      <c r="O29" s="28" t="str">
         <f t="shared" ref="O29" si="88">IF(N$8*N29=0,"",N$8*N29)</f>
         <v/>
       </c>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="30" t="str">
+      <c r="P29" s="27"/>
+      <c r="Q29" s="29" t="str">
         <f t="shared" ref="Q29" si="89">IF(P$8*P29=0,"",P$8*P29)</f>
         <v/>
       </c>
-      <c r="R29" s="31" t="str">
+      <c r="R29" s="30" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A30" s="27" t="str">
+      <c r="A30" s="26" t="str">
         <f t="shared" si="65"/>
         <v>20</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D30" s="28"/>
-      <c r="E30" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F30" s="28"/>
-      <c r="G30" s="29" t="str">
+      <c r="B30" s="27"/>
+      <c r="C30" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D30" s="27"/>
+      <c r="E30" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F30" s="27"/>
+      <c r="G30" s="28" t="str">
         <f t="shared" ref="G30" si="90">IF(F$8*F30=0,"",F$8*F30)</f>
         <v/>
       </c>
-      <c r="H30" s="28"/>
-      <c r="I30" s="29" t="str">
+      <c r="H30" s="27"/>
+      <c r="I30" s="28" t="str">
         <f t="shared" ref="I30" si="91">IF(H$8*H30=0,"",H$8*H30)</f>
         <v/>
       </c>
-      <c r="J30" s="28"/>
-      <c r="K30" s="29" t="str">
+      <c r="J30" s="27"/>
+      <c r="K30" s="28" t="str">
         <f t="shared" ref="K30" si="92">IF(J$8*J30=0,"",J$8*J30)</f>
         <v/>
       </c>
-      <c r="L30" s="28"/>
-      <c r="M30" s="29" t="str">
+      <c r="L30" s="27"/>
+      <c r="M30" s="28" t="str">
         <f t="shared" ref="M30" si="93">IF(L$8*L30=0,"",L$8*L30)</f>
         <v/>
       </c>
-      <c r="N30" s="28"/>
-      <c r="O30" s="29" t="str">
+      <c r="N30" s="27"/>
+      <c r="O30" s="28" t="str">
         <f t="shared" ref="O30" si="94">IF(N$8*N30=0,"",N$8*N30)</f>
         <v/>
       </c>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="30" t="str">
+      <c r="P30" s="27"/>
+      <c r="Q30" s="29" t="str">
         <f t="shared" ref="Q30" si="95">IF(P$8*P30=0,"",P$8*P30)</f>
         <v/>
       </c>
-      <c r="R30" s="31" t="str">
+      <c r="R30" s="30" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A31" s="27" t="str">
+      <c r="A31" s="26" t="str">
         <f t="shared" si="65"/>
         <v>21</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D31" s="28"/>
-      <c r="E31" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F31" s="28"/>
-      <c r="G31" s="29" t="str">
+      <c r="B31" s="27"/>
+      <c r="C31" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D31" s="27"/>
+      <c r="E31" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F31" s="27"/>
+      <c r="G31" s="28" t="str">
         <f t="shared" ref="G31" si="96">IF(F$8*F31=0,"",F$8*F31)</f>
         <v/>
       </c>
-      <c r="H31" s="28"/>
-      <c r="I31" s="29" t="str">
+      <c r="H31" s="27"/>
+      <c r="I31" s="28" t="str">
         <f t="shared" ref="I31" si="97">IF(H$8*H31=0,"",H$8*H31)</f>
         <v/>
       </c>
-      <c r="J31" s="28"/>
-      <c r="K31" s="29" t="str">
+      <c r="J31" s="27"/>
+      <c r="K31" s="28" t="str">
         <f t="shared" ref="K31" si="98">IF(J$8*J31=0,"",J$8*J31)</f>
         <v/>
       </c>
-      <c r="L31" s="28"/>
-      <c r="M31" s="29" t="str">
+      <c r="L31" s="27"/>
+      <c r="M31" s="28" t="str">
         <f t="shared" ref="M31" si="99">IF(L$8*L31=0,"",L$8*L31)</f>
         <v/>
       </c>
-      <c r="N31" s="28"/>
-      <c r="O31" s="29" t="str">
+      <c r="N31" s="27"/>
+      <c r="O31" s="28" t="str">
         <f t="shared" ref="O31" si="100">IF(N$8*N31=0,"",N$8*N31)</f>
         <v/>
       </c>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="30" t="str">
+      <c r="P31" s="27"/>
+      <c r="Q31" s="29" t="str">
         <f t="shared" ref="Q31" si="101">IF(P$8*P31=0,"",P$8*P31)</f>
         <v/>
       </c>
-      <c r="R31" s="31" t="str">
+      <c r="R31" s="30" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A32" s="27" t="str">
+      <c r="A32" s="26" t="str">
         <f t="shared" si="65"/>
         <v>22</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F32" s="28"/>
-      <c r="G32" s="29" t="str">
+      <c r="B32" s="27"/>
+      <c r="C32" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D32" s="27"/>
+      <c r="E32" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F32" s="27"/>
+      <c r="G32" s="28" t="str">
         <f t="shared" ref="G32" si="102">IF(F$8*F32=0,"",F$8*F32)</f>
         <v/>
       </c>
-      <c r="H32" s="28"/>
-      <c r="I32" s="29" t="str">
+      <c r="H32" s="27"/>
+      <c r="I32" s="28" t="str">
         <f t="shared" ref="I32" si="103">IF(H$8*H32=0,"",H$8*H32)</f>
         <v/>
       </c>
-      <c r="J32" s="28"/>
-      <c r="K32" s="29" t="str">
+      <c r="J32" s="27"/>
+      <c r="K32" s="28" t="str">
         <f t="shared" ref="K32" si="104">IF(J$8*J32=0,"",J$8*J32)</f>
         <v/>
       </c>
-      <c r="L32" s="28"/>
-      <c r="M32" s="29" t="str">
+      <c r="L32" s="27"/>
+      <c r="M32" s="28" t="str">
         <f t="shared" ref="M32" si="105">IF(L$8*L32=0,"",L$8*L32)</f>
         <v/>
       </c>
-      <c r="N32" s="28"/>
-      <c r="O32" s="29" t="str">
+      <c r="N32" s="27"/>
+      <c r="O32" s="28" t="str">
         <f t="shared" ref="O32" si="106">IF(N$8*N32=0,"",N$8*N32)</f>
         <v/>
       </c>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="30" t="str">
+      <c r="P32" s="27"/>
+      <c r="Q32" s="29" t="str">
         <f t="shared" ref="Q32" si="107">IF(P$8*P32=0,"",P$8*P32)</f>
         <v/>
       </c>
-      <c r="R32" s="31" t="str">
+      <c r="R32" s="30" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A33" s="27" t="str">
+      <c r="A33" s="26" t="str">
         <f t="shared" si="65"/>
         <v>23</v>
       </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F33" s="28"/>
-      <c r="G33" s="29" t="str">
+      <c r="B33" s="27"/>
+      <c r="C33" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D33" s="27"/>
+      <c r="E33" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F33" s="27"/>
+      <c r="G33" s="28" t="str">
         <f t="shared" ref="G33" si="108">IF(F$8*F33=0,"",F$8*F33)</f>
         <v/>
       </c>
-      <c r="H33" s="28"/>
-      <c r="I33" s="29" t="str">
+      <c r="H33" s="27"/>
+      <c r="I33" s="28" t="str">
         <f t="shared" ref="I33" si="109">IF(H$8*H33=0,"",H$8*H33)</f>
         <v/>
       </c>
-      <c r="J33" s="28"/>
-      <c r="K33" s="29" t="str">
+      <c r="J33" s="27"/>
+      <c r="K33" s="28" t="str">
         <f t="shared" ref="K33" si="110">IF(J$8*J33=0,"",J$8*J33)</f>
         <v/>
       </c>
-      <c r="L33" s="28"/>
-      <c r="M33" s="29" t="str">
+      <c r="L33" s="27"/>
+      <c r="M33" s="28" t="str">
         <f t="shared" ref="M33" si="111">IF(L$8*L33=0,"",L$8*L33)</f>
         <v/>
       </c>
-      <c r="N33" s="28"/>
-      <c r="O33" s="29" t="str">
+      <c r="N33" s="27"/>
+      <c r="O33" s="28" t="str">
         <f t="shared" ref="O33" si="112">IF(N$8*N33=0,"",N$8*N33)</f>
         <v/>
       </c>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="30" t="str">
+      <c r="P33" s="27"/>
+      <c r="Q33" s="29" t="str">
         <f t="shared" ref="Q33" si="113">IF(P$8*P33=0,"",P$8*P33)</f>
         <v/>
       </c>
-      <c r="R33" s="31" t="str">
+      <c r="R33" s="30" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A34" s="27" t="str">
+      <c r="A34" s="26" t="str">
         <f t="shared" si="65"/>
         <v>24</v>
       </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F34" s="28"/>
-      <c r="G34" s="29" t="str">
+      <c r="B34" s="27"/>
+      <c r="C34" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D34" s="27"/>
+      <c r="E34" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F34" s="27"/>
+      <c r="G34" s="28" t="str">
         <f t="shared" ref="G34" si="114">IF(F$8*F34=0,"",F$8*F34)</f>
         <v/>
       </c>
-      <c r="H34" s="28"/>
-      <c r="I34" s="29" t="str">
+      <c r="H34" s="27"/>
+      <c r="I34" s="28" t="str">
         <f t="shared" ref="I34" si="115">IF(H$8*H34=0,"",H$8*H34)</f>
         <v/>
       </c>
-      <c r="J34" s="28"/>
-      <c r="K34" s="29" t="str">
+      <c r="J34" s="27"/>
+      <c r="K34" s="28" t="str">
         <f t="shared" ref="K34" si="116">IF(J$8*J34=0,"",J$8*J34)</f>
         <v/>
       </c>
-      <c r="L34" s="28"/>
-      <c r="M34" s="29" t="str">
+      <c r="L34" s="27"/>
+      <c r="M34" s="28" t="str">
         <f t="shared" ref="M34" si="117">IF(L$8*L34=0,"",L$8*L34)</f>
         <v/>
       </c>
-      <c r="N34" s="28"/>
-      <c r="O34" s="29" t="str">
+      <c r="N34" s="27"/>
+      <c r="O34" s="28" t="str">
         <f t="shared" ref="O34" si="118">IF(N$8*N34=0,"",N$8*N34)</f>
         <v/>
       </c>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="30" t="str">
+      <c r="P34" s="27"/>
+      <c r="Q34" s="29" t="str">
         <f t="shared" ref="Q34" si="119">IF(P$8*P34=0,"",P$8*P34)</f>
         <v/>
       </c>
-      <c r="R34" s="31" t="str">
+      <c r="R34" s="30" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A35" s="27" t="str">
+      <c r="A35" s="26" t="str">
         <f t="shared" si="65"/>
         <v>25</v>
       </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F35" s="28"/>
-      <c r="G35" s="29" t="str">
+      <c r="B35" s="27"/>
+      <c r="C35" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D35" s="27"/>
+      <c r="E35" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F35" s="27"/>
+      <c r="G35" s="28" t="str">
         <f t="shared" ref="G35" si="120">IF(F$8*F35=0,"",F$8*F35)</f>
         <v/>
       </c>
-      <c r="H35" s="28"/>
-      <c r="I35" s="29" t="str">
+      <c r="H35" s="27"/>
+      <c r="I35" s="28" t="str">
         <f t="shared" ref="I35" si="121">IF(H$8*H35=0,"",H$8*H35)</f>
         <v/>
       </c>
-      <c r="J35" s="28"/>
-      <c r="K35" s="29" t="str">
+      <c r="J35" s="27"/>
+      <c r="K35" s="28" t="str">
         <f t="shared" ref="K35" si="122">IF(J$8*J35=0,"",J$8*J35)</f>
         <v/>
       </c>
-      <c r="L35" s="28"/>
-      <c r="M35" s="29" t="str">
+      <c r="L35" s="27"/>
+      <c r="M35" s="28" t="str">
         <f t="shared" ref="M35" si="123">IF(L$8*L35=0,"",L$8*L35)</f>
         <v/>
       </c>
-      <c r="N35" s="28"/>
-      <c r="O35" s="29" t="str">
+      <c r="N35" s="27"/>
+      <c r="O35" s="28" t="str">
         <f t="shared" ref="O35" si="124">IF(N$8*N35=0,"",N$8*N35)</f>
         <v/>
       </c>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="30" t="str">
+      <c r="P35" s="27"/>
+      <c r="Q35" s="29" t="str">
         <f t="shared" ref="Q35" si="125">IF(P$8*P35=0,"",P$8*P35)</f>
         <v/>
       </c>
-      <c r="R35" s="31" t="str">
+      <c r="R35" s="30" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A36" s="27" t="str">
+      <c r="A36" s="26" t="str">
         <f t="shared" si="65"/>
         <v>26</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F36" s="28"/>
-      <c r="G36" s="29" t="str">
+      <c r="B36" s="27"/>
+      <c r="C36" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D36" s="27"/>
+      <c r="E36" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F36" s="27"/>
+      <c r="G36" s="28" t="str">
         <f t="shared" ref="G36" si="126">IF(F$8*F36=0,"",F$8*F36)</f>
         <v/>
       </c>
-      <c r="H36" s="28"/>
-      <c r="I36" s="29" t="str">
+      <c r="H36" s="27"/>
+      <c r="I36" s="28" t="str">
         <f t="shared" ref="I36" si="127">IF(H$8*H36=0,"",H$8*H36)</f>
         <v/>
       </c>
-      <c r="J36" s="28"/>
-      <c r="K36" s="29" t="str">
+      <c r="J36" s="27"/>
+      <c r="K36" s="28" t="str">
         <f t="shared" ref="K36" si="128">IF(J$8*J36=0,"",J$8*J36)</f>
         <v/>
       </c>
-      <c r="L36" s="28"/>
-      <c r="M36" s="29" t="str">
+      <c r="L36" s="27"/>
+      <c r="M36" s="28" t="str">
         <f t="shared" ref="M36" si="129">IF(L$8*L36=0,"",L$8*L36)</f>
         <v/>
       </c>
-      <c r="N36" s="28"/>
-      <c r="O36" s="29" t="str">
+      <c r="N36" s="27"/>
+      <c r="O36" s="28" t="str">
         <f t="shared" ref="O36" si="130">IF(N$8*N36=0,"",N$8*N36)</f>
         <v/>
       </c>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="30" t="str">
+      <c r="P36" s="27"/>
+      <c r="Q36" s="29" t="str">
         <f t="shared" ref="Q36" si="131">IF(P$8*P36=0,"",P$8*P36)</f>
         <v/>
       </c>
-      <c r="R36" s="31" t="str">
+      <c r="R36" s="30" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A37" s="27" t="str">
+      <c r="A37" s="26" t="str">
         <f t="shared" si="65"/>
         <v>27</v>
       </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D37" s="28"/>
-      <c r="E37" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F37" s="28"/>
-      <c r="G37" s="29" t="str">
+      <c r="B37" s="27"/>
+      <c r="C37" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D37" s="27"/>
+      <c r="E37" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F37" s="27"/>
+      <c r="G37" s="28" t="str">
         <f t="shared" ref="G37" si="132">IF(F$8*F37=0,"",F$8*F37)</f>
         <v/>
       </c>
-      <c r="H37" s="28"/>
-      <c r="I37" s="29" t="str">
+      <c r="H37" s="27"/>
+      <c r="I37" s="28" t="str">
         <f t="shared" ref="I37" si="133">IF(H$8*H37=0,"",H$8*H37)</f>
         <v/>
       </c>
-      <c r="J37" s="28"/>
-      <c r="K37" s="29" t="str">
+      <c r="J37" s="27"/>
+      <c r="K37" s="28" t="str">
         <f t="shared" ref="K37" si="134">IF(J$8*J37=0,"",J$8*J37)</f>
         <v/>
       </c>
-      <c r="L37" s="28"/>
-      <c r="M37" s="29" t="str">
+      <c r="L37" s="27"/>
+      <c r="M37" s="28" t="str">
         <f t="shared" ref="M37" si="135">IF(L$8*L37=0,"",L$8*L37)</f>
         <v/>
       </c>
-      <c r="N37" s="28"/>
-      <c r="O37" s="29" t="str">
+      <c r="N37" s="27"/>
+      <c r="O37" s="28" t="str">
         <f t="shared" ref="O37" si="136">IF(N$8*N37=0,"",N$8*N37)</f>
         <v/>
       </c>
-      <c r="P37" s="28"/>
-      <c r="Q37" s="30" t="str">
+      <c r="P37" s="27"/>
+      <c r="Q37" s="29" t="str">
         <f t="shared" ref="Q37" si="137">IF(P$8*P37=0,"",P$8*P37)</f>
         <v/>
       </c>
-      <c r="R37" s="31" t="str">
+      <c r="R37" s="30" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A38" s="27" t="str">
+      <c r="A38" s="26" t="str">
         <f t="shared" si="65"/>
         <v>28</v>
       </c>
-      <c r="B38" s="28"/>
-      <c r="C38" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D38" s="28"/>
-      <c r="E38" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F38" s="28"/>
-      <c r="G38" s="29" t="str">
+      <c r="B38" s="27"/>
+      <c r="C38" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D38" s="27"/>
+      <c r="E38" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F38" s="27"/>
+      <c r="G38" s="28" t="str">
         <f t="shared" ref="G38" si="138">IF(F$8*F38=0,"",F$8*F38)</f>
         <v/>
       </c>
-      <c r="H38" s="28"/>
-      <c r="I38" s="29" t="str">
+      <c r="H38" s="27"/>
+      <c r="I38" s="28" t="str">
         <f t="shared" ref="I38" si="139">IF(H$8*H38=0,"",H$8*H38)</f>
         <v/>
       </c>
-      <c r="J38" s="28"/>
-      <c r="K38" s="29" t="str">
+      <c r="J38" s="27"/>
+      <c r="K38" s="28" t="str">
         <f t="shared" ref="K38" si="140">IF(J$8*J38=0,"",J$8*J38)</f>
         <v/>
       </c>
-      <c r="L38" s="28"/>
-      <c r="M38" s="29" t="str">
+      <c r="L38" s="27"/>
+      <c r="M38" s="28" t="str">
         <f t="shared" ref="M38" si="141">IF(L$8*L38=0,"",L$8*L38)</f>
         <v/>
       </c>
-      <c r="N38" s="28"/>
-      <c r="O38" s="29" t="str">
+      <c r="N38" s="27"/>
+      <c r="O38" s="28" t="str">
         <f t="shared" ref="O38" si="142">IF(N$8*N38=0,"",N$8*N38)</f>
         <v/>
       </c>
-      <c r="P38" s="28"/>
-      <c r="Q38" s="30" t="str">
+      <c r="P38" s="27"/>
+      <c r="Q38" s="29" t="str">
         <f t="shared" ref="Q38" si="143">IF(P$8*P38=0,"",P$8*P38)</f>
         <v/>
       </c>
-      <c r="R38" s="31" t="str">
+      <c r="R38" s="30" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A39" s="27" t="str">
+      <c r="A39" s="26" t="str">
         <f t="shared" si="65"/>
         <v>29</v>
       </c>
-      <c r="B39" s="28"/>
-      <c r="C39" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D39" s="28"/>
-      <c r="E39" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F39" s="28"/>
-      <c r="G39" s="29" t="str">
+      <c r="B39" s="27"/>
+      <c r="C39" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D39" s="27"/>
+      <c r="E39" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F39" s="27"/>
+      <c r="G39" s="28" t="str">
         <f t="shared" ref="G39" si="144">IF(F$8*F39=0,"",F$8*F39)</f>
         <v/>
       </c>
-      <c r="H39" s="28"/>
-      <c r="I39" s="29" t="str">
+      <c r="H39" s="27"/>
+      <c r="I39" s="28" t="str">
         <f t="shared" ref="I39" si="145">IF(H$8*H39=0,"",H$8*H39)</f>
         <v/>
       </c>
-      <c r="J39" s="28"/>
-      <c r="K39" s="29" t="str">
+      <c r="J39" s="27"/>
+      <c r="K39" s="28" t="str">
         <f t="shared" ref="K39" si="146">IF(J$8*J39=0,"",J$8*J39)</f>
         <v/>
       </c>
-      <c r="L39" s="28"/>
-      <c r="M39" s="29" t="str">
+      <c r="L39" s="27"/>
+      <c r="M39" s="28" t="str">
         <f t="shared" ref="M39" si="147">IF(L$8*L39=0,"",L$8*L39)</f>
         <v/>
       </c>
-      <c r="N39" s="28"/>
-      <c r="O39" s="29" t="str">
+      <c r="N39" s="27"/>
+      <c r="O39" s="28" t="str">
         <f t="shared" ref="O39" si="148">IF(N$8*N39=0,"",N$8*N39)</f>
         <v/>
       </c>
-      <c r="P39" s="28"/>
-      <c r="Q39" s="30" t="str">
+      <c r="P39" s="27"/>
+      <c r="Q39" s="29" t="str">
         <f t="shared" ref="Q39" si="149">IF(P$8*P39=0,"",P$8*P39)</f>
         <v/>
       </c>
-      <c r="R39" s="31" t="str">
+      <c r="R39" s="30" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A40" s="27" t="str">
+      <c r="A40" s="26" t="str">
         <f t="shared" si="65"/>
         <v>30</v>
       </c>
-      <c r="B40" s="28"/>
-      <c r="C40" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D40" s="28"/>
-      <c r="E40" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F40" s="28"/>
-      <c r="G40" s="29" t="str">
+      <c r="B40" s="27"/>
+      <c r="C40" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D40" s="27"/>
+      <c r="E40" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F40" s="27"/>
+      <c r="G40" s="28" t="str">
         <f t="shared" ref="G40" si="150">IF(F$8*F40=0,"",F$8*F40)</f>
         <v/>
       </c>
-      <c r="H40" s="28"/>
-      <c r="I40" s="29" t="str">
+      <c r="H40" s="27"/>
+      <c r="I40" s="28" t="str">
         <f t="shared" ref="I40" si="151">IF(H$8*H40=0,"",H$8*H40)</f>
         <v/>
       </c>
-      <c r="J40" s="28"/>
-      <c r="K40" s="29" t="str">
+      <c r="J40" s="27"/>
+      <c r="K40" s="28" t="str">
         <f t="shared" ref="K40" si="152">IF(J$8*J40=0,"",J$8*J40)</f>
         <v/>
       </c>
-      <c r="L40" s="28"/>
-      <c r="M40" s="29" t="str">
+      <c r="L40" s="27"/>
+      <c r="M40" s="28" t="str">
         <f t="shared" ref="M40" si="153">IF(L$8*L40=0,"",L$8*L40)</f>
         <v/>
       </c>
-      <c r="N40" s="28"/>
-      <c r="O40" s="29" t="str">
+      <c r="N40" s="27"/>
+      <c r="O40" s="28" t="str">
         <f t="shared" ref="O40" si="154">IF(N$8*N40=0,"",N$8*N40)</f>
         <v/>
       </c>
-      <c r="P40" s="28"/>
-      <c r="Q40" s="30" t="str">
+      <c r="P40" s="27"/>
+      <c r="Q40" s="29" t="str">
         <f t="shared" ref="Q40" si="155">IF(P$8*P40=0,"",P$8*P40)</f>
         <v/>
       </c>
-      <c r="R40" s="31" t="str">
+      <c r="R40" s="30" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A41" s="32" t="str">
+      <c r="A41" s="31" t="str">
         <f t="shared" si="65"/>
         <v>31</v>
       </c>
-      <c r="B41" s="33"/>
-      <c r="C41" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D41" s="33"/>
-      <c r="E41" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F41" s="33"/>
-      <c r="G41" s="34" t="str">
+      <c r="B41" s="32"/>
+      <c r="C41" s="33" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D41" s="32"/>
+      <c r="E41" s="33" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F41" s="32"/>
+      <c r="G41" s="33" t="str">
         <f t="shared" ref="G41" si="156">IF(F$8*F41=0,"",F$8*F41)</f>
         <v/>
       </c>
-      <c r="H41" s="33"/>
-      <c r="I41" s="34" t="str">
+      <c r="H41" s="32"/>
+      <c r="I41" s="33" t="str">
         <f t="shared" ref="I41" si="157">IF(H$8*H41=0,"",H$8*H41)</f>
         <v/>
       </c>
-      <c r="J41" s="33"/>
-      <c r="K41" s="34" t="str">
+      <c r="J41" s="32"/>
+      <c r="K41" s="33" t="str">
         <f t="shared" ref="K41" si="158">IF(J$8*J41=0,"",J$8*J41)</f>
         <v/>
       </c>
-      <c r="L41" s="33"/>
-      <c r="M41" s="34" t="str">
+      <c r="L41" s="32"/>
+      <c r="M41" s="33" t="str">
         <f t="shared" ref="M41" si="159">IF(L$8*L41=0,"",L$8*L41)</f>
         <v/>
       </c>
-      <c r="N41" s="33"/>
-      <c r="O41" s="34" t="str">
+      <c r="N41" s="32"/>
+      <c r="O41" s="33" t="str">
         <f t="shared" ref="O41" si="160">IF(N$8*N41=0,"",N$8*N41)</f>
         <v/>
       </c>
-      <c r="P41" s="33"/>
-      <c r="Q41" s="35" t="str">
+      <c r="P41" s="32"/>
+      <c r="Q41" s="34" t="str">
         <f t="shared" ref="Q41" si="161">IF(P$8*P41=0,"",P$8*P41)</f>
         <v/>
       </c>
-      <c r="R41" s="36" t="str">
+      <c r="R41" s="35" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A42" s="37" t="s">
+      <c r="A42" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="38" t="str">
+      <c r="B42" s="37" t="str">
         <f>IF(SUM(B11:B41)=0,"",SUM(B11:B41))</f>
         <v/>
       </c>
-      <c r="C42" s="39" t="str">
+      <c r="C42" s="38" t="str">
         <f>IF(SUM(C11:C41)=0,"",SUM(C11:C41))</f>
         <v/>
       </c>
-      <c r="D42" s="38" t="str">
+      <c r="D42" s="37" t="str">
         <f t="shared" ref="D42:Q42" si="162">IF(SUM(D11:D41)=0,"",SUM(D11:D41))</f>
         <v/>
       </c>
-      <c r="E42" s="39" t="str">
+      <c r="E42" s="38" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="F42" s="38" t="str">
+      <c r="F42" s="37" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="G42" s="39" t="str">
+      <c r="G42" s="38" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="H42" s="38" t="str">
+      <c r="H42" s="37" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="I42" s="39" t="str">
+      <c r="I42" s="38" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="J42" s="38" t="str">
+      <c r="J42" s="37" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="K42" s="39" t="str">
+      <c r="K42" s="38" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="L42" s="38" t="str">
+      <c r="L42" s="37" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="M42" s="39" t="str">
+      <c r="M42" s="38" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="N42" s="38" t="str">
+      <c r="N42" s="37" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="O42" s="39" t="str">
+      <c r="O42" s="38" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="P42" s="38" t="str">
+      <c r="P42" s="37" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="Q42" s="39" t="str">
+      <c r="Q42" s="38" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="R42" s="40" t="str">
+      <c r="R42" s="39" t="str">
         <f>IF(SUM(R11:R41)=0,"",SUM(R11:R41))</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J4:K5"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D4:E5"/>
+    <mergeCell ref="F4:G5"/>
+    <mergeCell ref="H4:I5"/>
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
     <mergeCell ref="R7:R9"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="Q3:R3"/>
@@ -3126,31 +3146,14 @@
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="N4:O5"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="I1:K2"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D4:E5"/>
-    <mergeCell ref="F4:G5"/>
-    <mergeCell ref="H4:I5"/>
-    <mergeCell ref="D2:G3"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J4:K5"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="J7:K7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="84" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;R（振込先）　第四北越銀行　白根支店　普通　1415237
+はら牛乳店　　原誠哉
+</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/ExcelTemplate/hoiku/請求書_指定B.xlsx
+++ b/ExcelTemplate/hoiku/請求書_指定B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\herokuspace\deliba\ExcelTemplate\hoiku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F870BF-6790-4573-B8DC-697E3ABDE69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48874956-4C4A-4DAF-B92F-E8A03CC79E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$R$45</definedName>
     <definedName name="金額一">#REF!</definedName>
     <definedName name="金額十">#REF!</definedName>
     <definedName name="金額十万">#REF!</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t>品名</t>
     <rPh sb="0" eb="2">
@@ -184,6 +185,26 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>はら牛乳店　原誠哉</t>
+    <rPh sb="2" eb="5">
+      <t>ギュウニュウテン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ハラ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>マコト</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（振込先）　第四北越銀行　白根支店　普通1415237</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -663,7 +684,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -764,6 +785,51 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -779,65 +845,23 @@
     <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="distributed"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="distributed"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1207,10 +1231,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R42"/>
+  <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.25" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -1237,155 +1261,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="60" t="s">
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="Q2" s="43" t="s">
+      <c r="Q2" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="43"/>
+      <c r="R2" s="58"/>
     </row>
     <row r="3" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="8"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
-      <c r="Q3" s="44" t="s">
+      <c r="Q3" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="44"/>
+      <c r="R3" s="59"/>
     </row>
     <row r="4" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="50" t="s">
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="59" t="s">
+      <c r="E4" s="49"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="51"/>
-      <c r="J4" s="54">
+      <c r="I4" s="49"/>
+      <c r="J4" s="41">
         <f>ROUND(F4*0.08,0)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="55"/>
-      <c r="L4" s="50" t="s">
+      <c r="K4" s="42"/>
+      <c r="L4" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="51"/>
-      <c r="N4" s="54">
+      <c r="M4" s="49"/>
+      <c r="N4" s="41">
         <f>F4+J4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="55"/>
-      <c r="Q4" s="53" t="s">
+      <c r="O4" s="42"/>
+      <c r="Q4" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="53"/>
+      <c r="R4" s="64"/>
     </row>
     <row r="5" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="63"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="55"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="42"/>
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
     </row>
     <row r="6" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="62" t="s">
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
     </row>
     <row r="7" spans="1:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="40" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="55" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1393,23 +1417,23 @@
       <c r="A8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="41"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="60"/>
+      <c r="R8" s="56"/>
     </row>
     <row r="9" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
@@ -1463,7 +1487,7 @@
       <c r="Q9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="R9" s="42"/>
+      <c r="R9" s="57"/>
     </row>
     <row r="10" spans="1:18" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="16"/>
@@ -3108,30 +3132,19 @@
         <v/>
       </c>
     </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="O44" s="65"/>
+      <c r="R44" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="R45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J4:K5"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="I1:K2"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D4:E5"/>
-    <mergeCell ref="F4:G5"/>
-    <mergeCell ref="H4:I5"/>
-    <mergeCell ref="D2:G3"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
     <mergeCell ref="R7:R9"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="Q3:R3"/>
@@ -3146,14 +3159,31 @@
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="N4:O5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D4:E5"/>
+    <mergeCell ref="F4:G5"/>
+    <mergeCell ref="H4:I5"/>
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J4:K5"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="J7:K7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="84" orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter xml:space="preserve">&amp;R（振込先）　第四北越銀行　白根支店　普通　1415237
-はら牛乳店　　原誠哉
-</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
--- a/ExcelTemplate/hoiku/請求書_指定B.xlsx
+++ b/ExcelTemplate/hoiku/請求書_指定B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\herokuspace\deliba\ExcelTemplate\hoiku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48874956-4C4A-4DAF-B92F-E8A03CC79E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81440C8C-61EE-49ED-B8C1-CD1E0D0AEDEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -132,16 +132,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>以下のとおりご請求いたします。</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>セイキュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>請求額(税抜)</t>
     <rPh sb="0" eb="3">
       <t>セイキュウガク</t>
@@ -204,6 +194,9 @@
   <si>
     <t>（振込先）　第四北越銀行　白根支店　普通1415237</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下のとおりご請求いたします。</t>
   </si>
 </sst>
 </file>
@@ -684,7 +677,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -785,84 +778,79 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1234,7 +1222,7 @@
   <dimension ref="A1:R45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.25" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -1261,155 +1249,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="G1" s="5"/>
+      <c r="A1" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="Q2" s="58" t="s">
+      <c r="Q2" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="58"/>
+      <c r="R2" s="44"/>
     </row>
     <row r="3" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
+      <c r="D3" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
       <c r="H3" s="8"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
-      <c r="Q3" s="59" t="s">
+      <c r="Q3" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="59"/>
+      <c r="R3" s="45"/>
     </row>
     <row r="4" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="49"/>
-      <c r="J4" s="41">
+      <c r="A4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="52"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="52"/>
+      <c r="J4" s="55">
         <f>ROUND(F4*0.08,0)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="42"/>
-      <c r="L4" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="49"/>
-      <c r="N4" s="41">
+      <c r="K4" s="56"/>
+      <c r="L4" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="52"/>
+      <c r="N4" s="55">
         <f>F4+J4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="42"/>
-      <c r="Q4" s="64" t="s">
+      <c r="O4" s="56"/>
+      <c r="Q4" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="64"/>
+      <c r="R4" s="54"/>
     </row>
     <row r="5" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="42"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="56"/>
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
     </row>
     <row r="6" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="63"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
     </row>
     <row r="7" spans="1:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="55" t="s">
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="41" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1417,23 +1408,23 @@
       <c r="A8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="56"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="42"/>
     </row>
     <row r="9" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
@@ -1487,7 +1478,7 @@
       <c r="Q9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="R9" s="57"/>
+      <c r="R9" s="43"/>
     </row>
     <row r="10" spans="1:18" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="16"/>
@@ -3133,18 +3124,39 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="O44" s="65"/>
+      <c r="O44" s="40"/>
       <c r="R44" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="R45" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="35">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J4:K5"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D4:E5"/>
+    <mergeCell ref="F4:G5"/>
+    <mergeCell ref="H4:I5"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
     <mergeCell ref="R7:R9"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="Q3:R3"/>
@@ -3159,28 +3171,6 @@
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="N4:O5"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="I1:K2"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D4:E5"/>
-    <mergeCell ref="F4:G5"/>
-    <mergeCell ref="H4:I5"/>
-    <mergeCell ref="D2:G3"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J4:K5"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="J7:K7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/ExcelTemplate/hoiku/請求書_指定B.xlsx
+++ b/ExcelTemplate/hoiku/請求書_指定B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\herokuspace\deliba\ExcelTemplate\hoiku\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\deliba\ExcelTemplate\hoiku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81440C8C-61EE-49ED-B8C1-CD1E0D0AEDEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30636C02-2C9B-4EFA-9384-E3C91141FEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-16665" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>品名</t>
     <rPh sb="0" eb="2">
@@ -198,6 +197,10 @@
   <si>
     <t>以下のとおりご請求いたします。</t>
   </si>
+  <si>
+    <t>登録番号：T6-8103-9784-0117</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -677,7 +680,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -698,9 +701,6 @@
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -781,6 +781,46 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -796,61 +836,21 @@
     <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="distributed"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="distributed"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1249,1882 +1249,1884 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="Q2" s="44" t="s">
+      <c r="Q2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="44"/>
+      <c r="R2" s="57"/>
     </row>
     <row r="3" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
       <c r="H3" s="8"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
-      <c r="Q3" s="45" t="s">
+      <c r="Q3" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="45"/>
+      <c r="R3" s="58"/>
     </row>
     <row r="4" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="62"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="51" t="s">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="60" t="s">
+      <c r="E4" s="49"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="52"/>
-      <c r="J4" s="55">
+      <c r="I4" s="49"/>
+      <c r="J4" s="42">
         <f>ROUND(F4*0.08,0)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="56"/>
-      <c r="L4" s="51" t="s">
+      <c r="K4" s="43"/>
+      <c r="L4" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="52"/>
-      <c r="N4" s="55">
+      <c r="M4" s="49"/>
+      <c r="N4" s="42">
         <f>F4+J4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="56"/>
-      <c r="Q4" s="54" t="s">
+      <c r="O4" s="43"/>
+      <c r="Q4" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="54"/>
+      <c r="R4" s="63"/>
     </row>
     <row r="5" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="62"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="56"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="43"/>
+      <c r="Q5" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="63"/>
     </row>
     <row r="6" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="11"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="61" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
     </row>
     <row r="7" spans="1:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="41" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="54" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="42"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="55"/>
     </row>
     <row r="9" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="14" t="s">
+      <c r="M9" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="13" t="s">
+      <c r="N9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="O9" s="14" t="s">
+      <c r="O9" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="13" t="s">
+      <c r="P9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="Q9" s="15" t="s">
+      <c r="Q9" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="R9" s="43"/>
+      <c r="R9" s="56"/>
     </row>
     <row r="10" spans="1:18" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="20"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="19"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A11" s="21" t="str">
+      <c r="A11" s="20" t="str">
         <f t="shared" ref="A11:A25" si="0">SUBSTITUTE(MID(SUBSTITUTE($A$4," ",""),6,10),"月分","/")&amp;(ROW()-10)</f>
         <v>1</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23" t="str">
+      <c r="B11" s="21"/>
+      <c r="C11" s="22" t="str">
         <f t="shared" ref="C11:C16" si="1">IF(B$8*B11=0,"",B$8*B11)</f>
         <v/>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23" t="str">
+      <c r="D11" s="21"/>
+      <c r="E11" s="22" t="str">
         <f t="shared" ref="E11:E16" si="2">IF(D$8*D11=0,"",D$8*D11)</f>
         <v/>
       </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="23" t="str">
+      <c r="F11" s="21"/>
+      <c r="G11" s="22" t="str">
         <f t="shared" ref="G11:G16" si="3">IF(F$8*F11=0,"",F$8*F11)</f>
         <v/>
       </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="23" t="str">
+      <c r="H11" s="21"/>
+      <c r="I11" s="22" t="str">
         <f t="shared" ref="I11:I16" si="4">IF(H$8*H11=0,"",H$8*H11)</f>
         <v/>
       </c>
-      <c r="J11" s="22"/>
-      <c r="K11" s="23" t="str">
+      <c r="J11" s="21"/>
+      <c r="K11" s="22" t="str">
         <f t="shared" ref="K11:K16" si="5">IF(J$8*J11=0,"",J$8*J11)</f>
         <v/>
       </c>
-      <c r="L11" s="22"/>
-      <c r="M11" s="23" t="str">
+      <c r="L11" s="21"/>
+      <c r="M11" s="22" t="str">
         <f t="shared" ref="M11:M16" si="6">IF(L$8*L11=0,"",L$8*L11)</f>
         <v/>
       </c>
-      <c r="N11" s="22"/>
-      <c r="O11" s="23" t="str">
+      <c r="N11" s="21"/>
+      <c r="O11" s="22" t="str">
         <f t="shared" ref="O11:O16" si="7">IF(N$8*N11=0,"",N$8*N11)</f>
         <v/>
       </c>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="24" t="str">
+      <c r="P11" s="21"/>
+      <c r="Q11" s="23" t="str">
         <f t="shared" ref="Q11:Q16" si="8">IF(P$8*P11=0,"",P$8*P11)</f>
         <v/>
       </c>
-      <c r="R11" s="25" t="str">
+      <c r="R11" s="24" t="str">
         <f>IF(SUM(C11,E11,G11,I11,K11,M11,O11,Q11)=0,"",SUM(C11,E11,G11,I11,K11,M11,O11,Q11))</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A12" s="26" t="str">
+      <c r="A12" s="25" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="28" t="str">
+      <c r="B12" s="26"/>
+      <c r="C12" s="27" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="28" t="str">
+      <c r="D12" s="26"/>
+      <c r="E12" s="27" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="28" t="str">
+      <c r="F12" s="26"/>
+      <c r="G12" s="27" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="28" t="str">
+      <c r="H12" s="26"/>
+      <c r="I12" s="27" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J12" s="27"/>
-      <c r="K12" s="28" t="str">
+      <c r="J12" s="26"/>
+      <c r="K12" s="27" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L12" s="27"/>
-      <c r="M12" s="28" t="str">
+      <c r="L12" s="26"/>
+      <c r="M12" s="27" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N12" s="27"/>
-      <c r="O12" s="28" t="str">
+      <c r="N12" s="26"/>
+      <c r="O12" s="27" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="29" t="str">
+      <c r="P12" s="26"/>
+      <c r="Q12" s="28" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="R12" s="30" t="str">
+      <c r="R12" s="29" t="str">
         <f t="shared" ref="R12:R41" si="9">IF(SUM(C12,E12,G12,I12,K12,M12,O12,Q12)=0,"",SUM(C12,E12,G12,I12,K12,M12,O12,Q12))</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13" s="26" t="str">
+      <c r="A13" s="25" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="28" t="str">
+      <c r="B13" s="26"/>
+      <c r="C13" s="27" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28" t="str">
+      <c r="D13" s="26"/>
+      <c r="E13" s="27" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="28" t="str">
+      <c r="F13" s="26"/>
+      <c r="G13" s="27" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="27"/>
-      <c r="I13" s="28" t="str">
+      <c r="H13" s="26"/>
+      <c r="I13" s="27" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J13" s="27"/>
-      <c r="K13" s="28" t="str">
+      <c r="J13" s="26"/>
+      <c r="K13" s="27" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L13" s="27"/>
-      <c r="M13" s="28" t="str">
+      <c r="L13" s="26"/>
+      <c r="M13" s="27" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N13" s="27"/>
-      <c r="O13" s="28" t="str">
+      <c r="N13" s="26"/>
+      <c r="O13" s="27" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="29" t="str">
+      <c r="P13" s="26"/>
+      <c r="Q13" s="28" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="R13" s="30" t="str">
+      <c r="R13" s="29" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A14" s="26" t="str">
+      <c r="A14" s="25" t="str">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28" t="str">
+      <c r="B14" s="26"/>
+      <c r="C14" s="27" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28" t="str">
+      <c r="D14" s="26"/>
+      <c r="E14" s="27" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="28" t="str">
+      <c r="F14" s="26"/>
+      <c r="G14" s="27" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H14" s="27"/>
-      <c r="I14" s="28" t="str">
+      <c r="H14" s="26"/>
+      <c r="I14" s="27" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="27"/>
-      <c r="K14" s="28" t="str">
+      <c r="J14" s="26"/>
+      <c r="K14" s="27" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L14" s="27"/>
-      <c r="M14" s="28" t="str">
+      <c r="L14" s="26"/>
+      <c r="M14" s="27" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N14" s="27"/>
-      <c r="O14" s="28" t="str">
+      <c r="N14" s="26"/>
+      <c r="O14" s="27" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="29" t="str">
+      <c r="P14" s="26"/>
+      <c r="Q14" s="28" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="R14" s="30" t="str">
+      <c r="R14" s="29" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="26" t="str">
+      <c r="A15" s="25" t="str">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28" t="str">
+      <c r="B15" s="26"/>
+      <c r="C15" s="27" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="28" t="str">
+      <c r="D15" s="26"/>
+      <c r="E15" s="27" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28" t="str">
+      <c r="F15" s="26"/>
+      <c r="G15" s="27" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H15" s="27"/>
-      <c r="I15" s="28" t="str">
+      <c r="H15" s="26"/>
+      <c r="I15" s="27" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J15" s="27"/>
-      <c r="K15" s="28" t="str">
+      <c r="J15" s="26"/>
+      <c r="K15" s="27" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="27"/>
-      <c r="M15" s="28" t="str">
+      <c r="L15" s="26"/>
+      <c r="M15" s="27" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N15" s="27"/>
-      <c r="O15" s="28" t="str">
+      <c r="N15" s="26"/>
+      <c r="O15" s="27" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="29" t="str">
+      <c r="P15" s="26"/>
+      <c r="Q15" s="28" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="R15" s="30" t="str">
+      <c r="R15" s="29" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="26" t="str">
+      <c r="A16" s="25" t="str">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="28" t="str">
+      <c r="B16" s="26"/>
+      <c r="C16" s="27" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="28" t="str">
+      <c r="D16" s="26"/>
+      <c r="E16" s="27" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="28" t="str">
+      <c r="F16" s="26"/>
+      <c r="G16" s="27" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H16" s="27"/>
-      <c r="I16" s="28" t="str">
+      <c r="H16" s="26"/>
+      <c r="I16" s="27" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J16" s="27"/>
-      <c r="K16" s="28" t="str">
+      <c r="J16" s="26"/>
+      <c r="K16" s="27" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L16" s="27"/>
-      <c r="M16" s="28" t="str">
+      <c r="L16" s="26"/>
+      <c r="M16" s="27" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N16" s="27"/>
-      <c r="O16" s="28" t="str">
+      <c r="N16" s="26"/>
+      <c r="O16" s="27" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="29" t="str">
+      <c r="P16" s="26"/>
+      <c r="Q16" s="28" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="R16" s="30" t="str">
+      <c r="R16" s="29" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A17" s="26" t="str">
+      <c r="A17" s="25" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="28" t="str">
+      <c r="B17" s="26"/>
+      <c r="C17" s="27" t="str">
         <f t="shared" ref="C17:E41" si="10">IF(B$8*B17=0,"",B$8*B17)</f>
         <v/>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="28" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="28" t="str">
+      <c r="D17" s="26"/>
+      <c r="E17" s="27" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F17" s="26"/>
+      <c r="G17" s="27" t="str">
         <f t="shared" ref="G17" si="11">IF(F$8*F17=0,"",F$8*F17)</f>
         <v/>
       </c>
-      <c r="H17" s="27"/>
-      <c r="I17" s="28" t="str">
+      <c r="H17" s="26"/>
+      <c r="I17" s="27" t="str">
         <f t="shared" ref="I17" si="12">IF(H$8*H17=0,"",H$8*H17)</f>
         <v/>
       </c>
-      <c r="J17" s="27"/>
-      <c r="K17" s="28" t="str">
+      <c r="J17" s="26"/>
+      <c r="K17" s="27" t="str">
         <f t="shared" ref="K17" si="13">IF(J$8*J17=0,"",J$8*J17)</f>
         <v/>
       </c>
-      <c r="L17" s="27"/>
-      <c r="M17" s="28" t="str">
+      <c r="L17" s="26"/>
+      <c r="M17" s="27" t="str">
         <f t="shared" ref="M17" si="14">IF(L$8*L17=0,"",L$8*L17)</f>
         <v/>
       </c>
-      <c r="N17" s="27"/>
-      <c r="O17" s="28" t="str">
+      <c r="N17" s="26"/>
+      <c r="O17" s="27" t="str">
         <f t="shared" ref="O17" si="15">IF(N$8*N17=0,"",N$8*N17)</f>
         <v/>
       </c>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="29" t="str">
+      <c r="P17" s="26"/>
+      <c r="Q17" s="28" t="str">
         <f t="shared" ref="Q17" si="16">IF(P$8*P17=0,"",P$8*P17)</f>
         <v/>
       </c>
-      <c r="R17" s="30" t="str">
+      <c r="R17" s="29" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A18" s="26" t="str">
+      <c r="A18" s="25" t="str">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="28" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="28" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="28" t="str">
+      <c r="B18" s="26"/>
+      <c r="C18" s="27" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D18" s="26"/>
+      <c r="E18" s="27" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F18" s="26"/>
+      <c r="G18" s="27" t="str">
         <f t="shared" ref="G18" si="17">IF(F$8*F18=0,"",F$8*F18)</f>
         <v/>
       </c>
-      <c r="H18" s="27"/>
-      <c r="I18" s="28" t="str">
+      <c r="H18" s="26"/>
+      <c r="I18" s="27" t="str">
         <f t="shared" ref="I18" si="18">IF(H$8*H18=0,"",H$8*H18)</f>
         <v/>
       </c>
-      <c r="J18" s="27"/>
-      <c r="K18" s="28" t="str">
+      <c r="J18" s="26"/>
+      <c r="K18" s="27" t="str">
         <f t="shared" ref="K18" si="19">IF(J$8*J18=0,"",J$8*J18)</f>
         <v/>
       </c>
-      <c r="L18" s="27"/>
-      <c r="M18" s="28" t="str">
+      <c r="L18" s="26"/>
+      <c r="M18" s="27" t="str">
         <f t="shared" ref="M18" si="20">IF(L$8*L18=0,"",L$8*L18)</f>
         <v/>
       </c>
-      <c r="N18" s="27"/>
-      <c r="O18" s="28" t="str">
+      <c r="N18" s="26"/>
+      <c r="O18" s="27" t="str">
         <f t="shared" ref="O18" si="21">IF(N$8*N18=0,"",N$8*N18)</f>
         <v/>
       </c>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="29" t="str">
+      <c r="P18" s="26"/>
+      <c r="Q18" s="28" t="str">
         <f t="shared" ref="Q18" si="22">IF(P$8*P18=0,"",P$8*P18)</f>
         <v/>
       </c>
-      <c r="R18" s="30" t="str">
+      <c r="R18" s="29" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A19" s="26" t="str">
+      <c r="A19" s="25" t="str">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="28" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="28" t="str">
+      <c r="B19" s="26"/>
+      <c r="C19" s="27" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D19" s="26"/>
+      <c r="E19" s="27" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F19" s="26"/>
+      <c r="G19" s="27" t="str">
         <f t="shared" ref="G19" si="23">IF(F$8*F19=0,"",F$8*F19)</f>
         <v/>
       </c>
-      <c r="H19" s="27"/>
-      <c r="I19" s="28" t="str">
+      <c r="H19" s="26"/>
+      <c r="I19" s="27" t="str">
         <f t="shared" ref="I19" si="24">IF(H$8*H19=0,"",H$8*H19)</f>
         <v/>
       </c>
-      <c r="J19" s="27"/>
-      <c r="K19" s="28" t="str">
+      <c r="J19" s="26"/>
+      <c r="K19" s="27" t="str">
         <f t="shared" ref="K19" si="25">IF(J$8*J19=0,"",J$8*J19)</f>
         <v/>
       </c>
-      <c r="L19" s="27"/>
-      <c r="M19" s="28" t="str">
+      <c r="L19" s="26"/>
+      <c r="M19" s="27" t="str">
         <f t="shared" ref="M19" si="26">IF(L$8*L19=0,"",L$8*L19)</f>
         <v/>
       </c>
-      <c r="N19" s="27"/>
-      <c r="O19" s="28" t="str">
+      <c r="N19" s="26"/>
+      <c r="O19" s="27" t="str">
         <f t="shared" ref="O19" si="27">IF(N$8*N19=0,"",N$8*N19)</f>
         <v/>
       </c>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="29" t="str">
+      <c r="P19" s="26"/>
+      <c r="Q19" s="28" t="str">
         <f t="shared" ref="Q19" si="28">IF(P$8*P19=0,"",P$8*P19)</f>
         <v/>
       </c>
-      <c r="R19" s="30" t="str">
+      <c r="R19" s="29" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A20" s="26" t="str">
+      <c r="A20" s="25" t="str">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="28" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="28" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="28" t="str">
+      <c r="B20" s="26"/>
+      <c r="C20" s="27" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D20" s="26"/>
+      <c r="E20" s="27" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F20" s="26"/>
+      <c r="G20" s="27" t="str">
         <f t="shared" ref="G20" si="29">IF(F$8*F20=0,"",F$8*F20)</f>
         <v/>
       </c>
-      <c r="H20" s="27"/>
-      <c r="I20" s="28" t="str">
+      <c r="H20" s="26"/>
+      <c r="I20" s="27" t="str">
         <f t="shared" ref="I20" si="30">IF(H$8*H20=0,"",H$8*H20)</f>
         <v/>
       </c>
-      <c r="J20" s="27"/>
-      <c r="K20" s="28" t="str">
+      <c r="J20" s="26"/>
+      <c r="K20" s="27" t="str">
         <f t="shared" ref="K20" si="31">IF(J$8*J20=0,"",J$8*J20)</f>
         <v/>
       </c>
-      <c r="L20" s="27"/>
-      <c r="M20" s="28" t="str">
+      <c r="L20" s="26"/>
+      <c r="M20" s="27" t="str">
         <f t="shared" ref="M20" si="32">IF(L$8*L20=0,"",L$8*L20)</f>
         <v/>
       </c>
-      <c r="N20" s="27"/>
-      <c r="O20" s="28" t="str">
+      <c r="N20" s="26"/>
+      <c r="O20" s="27" t="str">
         <f t="shared" ref="O20" si="33">IF(N$8*N20=0,"",N$8*N20)</f>
         <v/>
       </c>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="29" t="str">
+      <c r="P20" s="26"/>
+      <c r="Q20" s="28" t="str">
         <f t="shared" ref="Q20" si="34">IF(P$8*P20=0,"",P$8*P20)</f>
         <v/>
       </c>
-      <c r="R20" s="30" t="str">
+      <c r="R20" s="29" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A21" s="26" t="str">
+      <c r="A21" s="25" t="str">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="28" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="28" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F21" s="27"/>
-      <c r="G21" s="28" t="str">
+      <c r="B21" s="26"/>
+      <c r="C21" s="27" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D21" s="26"/>
+      <c r="E21" s="27" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F21" s="26"/>
+      <c r="G21" s="27" t="str">
         <f t="shared" ref="G21" si="35">IF(F$8*F21=0,"",F$8*F21)</f>
         <v/>
       </c>
-      <c r="H21" s="27"/>
-      <c r="I21" s="28" t="str">
+      <c r="H21" s="26"/>
+      <c r="I21" s="27" t="str">
         <f t="shared" ref="I21" si="36">IF(H$8*H21=0,"",H$8*H21)</f>
         <v/>
       </c>
-      <c r="J21" s="27"/>
-      <c r="K21" s="28" t="str">
+      <c r="J21" s="26"/>
+      <c r="K21" s="27" t="str">
         <f t="shared" ref="K21" si="37">IF(J$8*J21=0,"",J$8*J21)</f>
         <v/>
       </c>
-      <c r="L21" s="27"/>
-      <c r="M21" s="28" t="str">
+      <c r="L21" s="26"/>
+      <c r="M21" s="27" t="str">
         <f t="shared" ref="M21" si="38">IF(L$8*L21=0,"",L$8*L21)</f>
         <v/>
       </c>
-      <c r="N21" s="27"/>
-      <c r="O21" s="28" t="str">
+      <c r="N21" s="26"/>
+      <c r="O21" s="27" t="str">
         <f t="shared" ref="O21" si="39">IF(N$8*N21=0,"",N$8*N21)</f>
         <v/>
       </c>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="29" t="str">
+      <c r="P21" s="26"/>
+      <c r="Q21" s="28" t="str">
         <f t="shared" ref="Q21" si="40">IF(P$8*P21=0,"",P$8*P21)</f>
         <v/>
       </c>
-      <c r="R21" s="30" t="str">
+      <c r="R21" s="29" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A22" s="26" t="str">
+      <c r="A22" s="25" t="str">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="28" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="28" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="28" t="str">
+      <c r="B22" s="26"/>
+      <c r="C22" s="27" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D22" s="26"/>
+      <c r="E22" s="27" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27" t="str">
         <f t="shared" ref="G22" si="41">IF(F$8*F22=0,"",F$8*F22)</f>
         <v/>
       </c>
-      <c r="H22" s="27"/>
-      <c r="I22" s="28" t="str">
+      <c r="H22" s="26"/>
+      <c r="I22" s="27" t="str">
         <f t="shared" ref="I22" si="42">IF(H$8*H22=0,"",H$8*H22)</f>
         <v/>
       </c>
-      <c r="J22" s="27"/>
-      <c r="K22" s="28" t="str">
+      <c r="J22" s="26"/>
+      <c r="K22" s="27" t="str">
         <f t="shared" ref="K22" si="43">IF(J$8*J22=0,"",J$8*J22)</f>
         <v/>
       </c>
-      <c r="L22" s="27"/>
-      <c r="M22" s="28" t="str">
+      <c r="L22" s="26"/>
+      <c r="M22" s="27" t="str">
         <f t="shared" ref="M22" si="44">IF(L$8*L22=0,"",L$8*L22)</f>
         <v/>
       </c>
-      <c r="N22" s="27"/>
-      <c r="O22" s="28" t="str">
+      <c r="N22" s="26"/>
+      <c r="O22" s="27" t="str">
         <f t="shared" ref="O22" si="45">IF(N$8*N22=0,"",N$8*N22)</f>
         <v/>
       </c>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="29" t="str">
+      <c r="P22" s="26"/>
+      <c r="Q22" s="28" t="str">
         <f t="shared" ref="Q22" si="46">IF(P$8*P22=0,"",P$8*P22)</f>
         <v/>
       </c>
-      <c r="R22" s="30" t="str">
+      <c r="R22" s="29" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A23" s="26" t="str">
+      <c r="A23" s="25" t="str">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="28" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="28" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F23" s="27"/>
-      <c r="G23" s="28" t="str">
+      <c r="B23" s="26"/>
+      <c r="C23" s="27" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D23" s="26"/>
+      <c r="E23" s="27" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F23" s="26"/>
+      <c r="G23" s="27" t="str">
         <f t="shared" ref="G23" si="47">IF(F$8*F23=0,"",F$8*F23)</f>
         <v/>
       </c>
-      <c r="H23" s="27"/>
-      <c r="I23" s="28" t="str">
+      <c r="H23" s="26"/>
+      <c r="I23" s="27" t="str">
         <f t="shared" ref="I23" si="48">IF(H$8*H23=0,"",H$8*H23)</f>
         <v/>
       </c>
-      <c r="J23" s="27"/>
-      <c r="K23" s="28" t="str">
+      <c r="J23" s="26"/>
+      <c r="K23" s="27" t="str">
         <f t="shared" ref="K23" si="49">IF(J$8*J23=0,"",J$8*J23)</f>
         <v/>
       </c>
-      <c r="L23" s="27"/>
-      <c r="M23" s="28" t="str">
+      <c r="L23" s="26"/>
+      <c r="M23" s="27" t="str">
         <f t="shared" ref="M23" si="50">IF(L$8*L23=0,"",L$8*L23)</f>
         <v/>
       </c>
-      <c r="N23" s="27"/>
-      <c r="O23" s="28" t="str">
+      <c r="N23" s="26"/>
+      <c r="O23" s="27" t="str">
         <f t="shared" ref="O23" si="51">IF(N$8*N23=0,"",N$8*N23)</f>
         <v/>
       </c>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="29" t="str">
+      <c r="P23" s="26"/>
+      <c r="Q23" s="28" t="str">
         <f t="shared" ref="Q23" si="52">IF(P$8*P23=0,"",P$8*P23)</f>
         <v/>
       </c>
-      <c r="R23" s="30" t="str">
+      <c r="R23" s="29" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A24" s="26" t="str">
+      <c r="A24" s="25" t="str">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="28" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="28" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="28" t="str">
+      <c r="B24" s="26"/>
+      <c r="C24" s="27" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D24" s="26"/>
+      <c r="E24" s="27" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27" t="str">
         <f t="shared" ref="G24" si="53">IF(F$8*F24=0,"",F$8*F24)</f>
         <v/>
       </c>
-      <c r="H24" s="27"/>
-      <c r="I24" s="28" t="str">
+      <c r="H24" s="26"/>
+      <c r="I24" s="27" t="str">
         <f t="shared" ref="I24" si="54">IF(H$8*H24=0,"",H$8*H24)</f>
         <v/>
       </c>
-      <c r="J24" s="27"/>
-      <c r="K24" s="28" t="str">
+      <c r="J24" s="26"/>
+      <c r="K24" s="27" t="str">
         <f t="shared" ref="K24" si="55">IF(J$8*J24=0,"",J$8*J24)</f>
         <v/>
       </c>
-      <c r="L24" s="27"/>
-      <c r="M24" s="28" t="str">
+      <c r="L24" s="26"/>
+      <c r="M24" s="27" t="str">
         <f t="shared" ref="M24" si="56">IF(L$8*L24=0,"",L$8*L24)</f>
         <v/>
       </c>
-      <c r="N24" s="27"/>
-      <c r="O24" s="28" t="str">
+      <c r="N24" s="26"/>
+      <c r="O24" s="27" t="str">
         <f t="shared" ref="O24" si="57">IF(N$8*N24=0,"",N$8*N24)</f>
         <v/>
       </c>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="29" t="str">
+      <c r="P24" s="26"/>
+      <c r="Q24" s="28" t="str">
         <f t="shared" ref="Q24" si="58">IF(P$8*P24=0,"",P$8*P24)</f>
         <v/>
       </c>
-      <c r="R24" s="30" t="str">
+      <c r="R24" s="29" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A25" s="26" t="str">
+      <c r="A25" s="25" t="str">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="28" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="28" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F25" s="27"/>
-      <c r="G25" s="28" t="str">
+      <c r="B25" s="26"/>
+      <c r="C25" s="27" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D25" s="26"/>
+      <c r="E25" s="27" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F25" s="26"/>
+      <c r="G25" s="27" t="str">
         <f t="shared" ref="G25" si="59">IF(F$8*F25=0,"",F$8*F25)</f>
         <v/>
       </c>
-      <c r="H25" s="27"/>
-      <c r="I25" s="28" t="str">
+      <c r="H25" s="26"/>
+      <c r="I25" s="27" t="str">
         <f t="shared" ref="I25" si="60">IF(H$8*H25=0,"",H$8*H25)</f>
         <v/>
       </c>
-      <c r="J25" s="27"/>
-      <c r="K25" s="28" t="str">
+      <c r="J25" s="26"/>
+      <c r="K25" s="27" t="str">
         <f t="shared" ref="K25" si="61">IF(J$8*J25=0,"",J$8*J25)</f>
         <v/>
       </c>
-      <c r="L25" s="27"/>
-      <c r="M25" s="28" t="str">
+      <c r="L25" s="26"/>
+      <c r="M25" s="27" t="str">
         <f t="shared" ref="M25" si="62">IF(L$8*L25=0,"",L$8*L25)</f>
         <v/>
       </c>
-      <c r="N25" s="27"/>
-      <c r="O25" s="28" t="str">
+      <c r="N25" s="26"/>
+      <c r="O25" s="27" t="str">
         <f t="shared" ref="O25" si="63">IF(N$8*N25=0,"",N$8*N25)</f>
         <v/>
       </c>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="29" t="str">
+      <c r="P25" s="26"/>
+      <c r="Q25" s="28" t="str">
         <f t="shared" ref="Q25" si="64">IF(P$8*P25=0,"",P$8*P25)</f>
         <v/>
       </c>
-      <c r="R25" s="30" t="str">
+      <c r="R25" s="29" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A26" s="26" t="str">
+      <c r="A26" s="25" t="str">
         <f t="shared" ref="A26:A41" si="65">SUBSTITUTE(MID(SUBSTITUTE($A$4," ",""),6,10),"月分","/")&amp;(ROW()-10)</f>
         <v>16</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="28" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F26" s="27"/>
-      <c r="G26" s="28" t="str">
+      <c r="B26" s="26"/>
+      <c r="C26" s="27" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D26" s="26"/>
+      <c r="E26" s="27" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F26" s="26"/>
+      <c r="G26" s="27" t="str">
         <f t="shared" ref="G26" si="66">IF(F$8*F26=0,"",F$8*F26)</f>
         <v/>
       </c>
-      <c r="H26" s="27"/>
-      <c r="I26" s="28" t="str">
+      <c r="H26" s="26"/>
+      <c r="I26" s="27" t="str">
         <f t="shared" ref="I26" si="67">IF(H$8*H26=0,"",H$8*H26)</f>
         <v/>
       </c>
-      <c r="J26" s="27"/>
-      <c r="K26" s="28" t="str">
+      <c r="J26" s="26"/>
+      <c r="K26" s="27" t="str">
         <f t="shared" ref="K26" si="68">IF(J$8*J26=0,"",J$8*J26)</f>
         <v/>
       </c>
-      <c r="L26" s="27"/>
-      <c r="M26" s="28" t="str">
+      <c r="L26" s="26"/>
+      <c r="M26" s="27" t="str">
         <f t="shared" ref="M26" si="69">IF(L$8*L26=0,"",L$8*L26)</f>
         <v/>
       </c>
-      <c r="N26" s="27"/>
-      <c r="O26" s="28" t="str">
+      <c r="N26" s="26"/>
+      <c r="O26" s="27" t="str">
         <f t="shared" ref="O26" si="70">IF(N$8*N26=0,"",N$8*N26)</f>
         <v/>
       </c>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="29" t="str">
+      <c r="P26" s="26"/>
+      <c r="Q26" s="28" t="str">
         <f t="shared" ref="Q26" si="71">IF(P$8*P26=0,"",P$8*P26)</f>
         <v/>
       </c>
-      <c r="R26" s="30" t="str">
+      <c r="R26" s="29" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A27" s="26" t="str">
+      <c r="A27" s="25" t="str">
         <f t="shared" si="65"/>
         <v>17</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="28" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="28" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F27" s="27"/>
-      <c r="G27" s="28" t="str">
+      <c r="B27" s="26"/>
+      <c r="C27" s="27" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D27" s="26"/>
+      <c r="E27" s="27" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F27" s="26"/>
+      <c r="G27" s="27" t="str">
         <f t="shared" ref="G27" si="72">IF(F$8*F27=0,"",F$8*F27)</f>
         <v/>
       </c>
-      <c r="H27" s="27"/>
-      <c r="I27" s="28" t="str">
+      <c r="H27" s="26"/>
+      <c r="I27" s="27" t="str">
         <f t="shared" ref="I27" si="73">IF(H$8*H27=0,"",H$8*H27)</f>
         <v/>
       </c>
-      <c r="J27" s="27"/>
-      <c r="K27" s="28" t="str">
+      <c r="J27" s="26"/>
+      <c r="K27" s="27" t="str">
         <f t="shared" ref="K27" si="74">IF(J$8*J27=0,"",J$8*J27)</f>
         <v/>
       </c>
-      <c r="L27" s="27"/>
-      <c r="M27" s="28" t="str">
+      <c r="L27" s="26"/>
+      <c r="M27" s="27" t="str">
         <f t="shared" ref="M27" si="75">IF(L$8*L27=0,"",L$8*L27)</f>
         <v/>
       </c>
-      <c r="N27" s="27"/>
-      <c r="O27" s="28" t="str">
+      <c r="N27" s="26"/>
+      <c r="O27" s="27" t="str">
         <f t="shared" ref="O27" si="76">IF(N$8*N27=0,"",N$8*N27)</f>
         <v/>
       </c>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="29" t="str">
+      <c r="P27" s="26"/>
+      <c r="Q27" s="28" t="str">
         <f t="shared" ref="Q27" si="77">IF(P$8*P27=0,"",P$8*P27)</f>
         <v/>
       </c>
-      <c r="R27" s="30" t="str">
+      <c r="R27" s="29" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A28" s="26" t="str">
+      <c r="A28" s="25" t="str">
         <f t="shared" si="65"/>
         <v>18</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="28" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="28" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F28" s="27"/>
-      <c r="G28" s="28" t="str">
+      <c r="B28" s="26"/>
+      <c r="C28" s="27" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D28" s="26"/>
+      <c r="E28" s="27" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F28" s="26"/>
+      <c r="G28" s="27" t="str">
         <f t="shared" ref="G28" si="78">IF(F$8*F28=0,"",F$8*F28)</f>
         <v/>
       </c>
-      <c r="H28" s="27"/>
-      <c r="I28" s="28" t="str">
+      <c r="H28" s="26"/>
+      <c r="I28" s="27" t="str">
         <f t="shared" ref="I28" si="79">IF(H$8*H28=0,"",H$8*H28)</f>
         <v/>
       </c>
-      <c r="J28" s="27"/>
-      <c r="K28" s="28" t="str">
+      <c r="J28" s="26"/>
+      <c r="K28" s="27" t="str">
         <f t="shared" ref="K28" si="80">IF(J$8*J28=0,"",J$8*J28)</f>
         <v/>
       </c>
-      <c r="L28" s="27"/>
-      <c r="M28" s="28" t="str">
+      <c r="L28" s="26"/>
+      <c r="M28" s="27" t="str">
         <f t="shared" ref="M28" si="81">IF(L$8*L28=0,"",L$8*L28)</f>
         <v/>
       </c>
-      <c r="N28" s="27"/>
-      <c r="O28" s="28" t="str">
+      <c r="N28" s="26"/>
+      <c r="O28" s="27" t="str">
         <f t="shared" ref="O28" si="82">IF(N$8*N28=0,"",N$8*N28)</f>
         <v/>
       </c>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="29" t="str">
+      <c r="P28" s="26"/>
+      <c r="Q28" s="28" t="str">
         <f t="shared" ref="Q28" si="83">IF(P$8*P28=0,"",P$8*P28)</f>
         <v/>
       </c>
-      <c r="R28" s="30" t="str">
+      <c r="R28" s="29" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A29" s="26" t="str">
+      <c r="A29" s="25" t="str">
         <f t="shared" si="65"/>
         <v>19</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="28" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="28" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F29" s="27"/>
-      <c r="G29" s="28" t="str">
+      <c r="B29" s="26"/>
+      <c r="C29" s="27" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D29" s="26"/>
+      <c r="E29" s="27" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F29" s="26"/>
+      <c r="G29" s="27" t="str">
         <f t="shared" ref="G29" si="84">IF(F$8*F29=0,"",F$8*F29)</f>
         <v/>
       </c>
-      <c r="H29" s="27"/>
-      <c r="I29" s="28" t="str">
+      <c r="H29" s="26"/>
+      <c r="I29" s="27" t="str">
         <f t="shared" ref="I29" si="85">IF(H$8*H29=0,"",H$8*H29)</f>
         <v/>
       </c>
-      <c r="J29" s="27"/>
-      <c r="K29" s="28" t="str">
+      <c r="J29" s="26"/>
+      <c r="K29" s="27" t="str">
         <f t="shared" ref="K29" si="86">IF(J$8*J29=0,"",J$8*J29)</f>
         <v/>
       </c>
-      <c r="L29" s="27"/>
-      <c r="M29" s="28" t="str">
+      <c r="L29" s="26"/>
+      <c r="M29" s="27" t="str">
         <f t="shared" ref="M29" si="87">IF(L$8*L29=0,"",L$8*L29)</f>
         <v/>
       </c>
-      <c r="N29" s="27"/>
-      <c r="O29" s="28" t="str">
+      <c r="N29" s="26"/>
+      <c r="O29" s="27" t="str">
         <f t="shared" ref="O29" si="88">IF(N$8*N29=0,"",N$8*N29)</f>
         <v/>
       </c>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="29" t="str">
+      <c r="P29" s="26"/>
+      <c r="Q29" s="28" t="str">
         <f t="shared" ref="Q29" si="89">IF(P$8*P29=0,"",P$8*P29)</f>
         <v/>
       </c>
-      <c r="R29" s="30" t="str">
+      <c r="R29" s="29" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A30" s="26" t="str">
+      <c r="A30" s="25" t="str">
         <f t="shared" si="65"/>
         <v>20</v>
       </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="28" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="28" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F30" s="27"/>
-      <c r="G30" s="28" t="str">
+      <c r="B30" s="26"/>
+      <c r="C30" s="27" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D30" s="26"/>
+      <c r="E30" s="27" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F30" s="26"/>
+      <c r="G30" s="27" t="str">
         <f t="shared" ref="G30" si="90">IF(F$8*F30=0,"",F$8*F30)</f>
         <v/>
       </c>
-      <c r="H30" s="27"/>
-      <c r="I30" s="28" t="str">
+      <c r="H30" s="26"/>
+      <c r="I30" s="27" t="str">
         <f t="shared" ref="I30" si="91">IF(H$8*H30=0,"",H$8*H30)</f>
         <v/>
       </c>
-      <c r="J30" s="27"/>
-      <c r="K30" s="28" t="str">
+      <c r="J30" s="26"/>
+      <c r="K30" s="27" t="str">
         <f t="shared" ref="K30" si="92">IF(J$8*J30=0,"",J$8*J30)</f>
         <v/>
       </c>
-      <c r="L30" s="27"/>
-      <c r="M30" s="28" t="str">
+      <c r="L30" s="26"/>
+      <c r="M30" s="27" t="str">
         <f t="shared" ref="M30" si="93">IF(L$8*L30=0,"",L$8*L30)</f>
         <v/>
       </c>
-      <c r="N30" s="27"/>
-      <c r="O30" s="28" t="str">
+      <c r="N30" s="26"/>
+      <c r="O30" s="27" t="str">
         <f t="shared" ref="O30" si="94">IF(N$8*N30=0,"",N$8*N30)</f>
         <v/>
       </c>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="29" t="str">
+      <c r="P30" s="26"/>
+      <c r="Q30" s="28" t="str">
         <f t="shared" ref="Q30" si="95">IF(P$8*P30=0,"",P$8*P30)</f>
         <v/>
       </c>
-      <c r="R30" s="30" t="str">
+      <c r="R30" s="29" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A31" s="26" t="str">
+      <c r="A31" s="25" t="str">
         <f t="shared" si="65"/>
         <v>21</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="28" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F31" s="27"/>
-      <c r="G31" s="28" t="str">
+      <c r="B31" s="26"/>
+      <c r="C31" s="27" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D31" s="26"/>
+      <c r="E31" s="27" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F31" s="26"/>
+      <c r="G31" s="27" t="str">
         <f t="shared" ref="G31" si="96">IF(F$8*F31=0,"",F$8*F31)</f>
         <v/>
       </c>
-      <c r="H31" s="27"/>
-      <c r="I31" s="28" t="str">
+      <c r="H31" s="26"/>
+      <c r="I31" s="27" t="str">
         <f t="shared" ref="I31" si="97">IF(H$8*H31=0,"",H$8*H31)</f>
         <v/>
       </c>
-      <c r="J31" s="27"/>
-      <c r="K31" s="28" t="str">
+      <c r="J31" s="26"/>
+      <c r="K31" s="27" t="str">
         <f t="shared" ref="K31" si="98">IF(J$8*J31=0,"",J$8*J31)</f>
         <v/>
       </c>
-      <c r="L31" s="27"/>
-      <c r="M31" s="28" t="str">
+      <c r="L31" s="26"/>
+      <c r="M31" s="27" t="str">
         <f t="shared" ref="M31" si="99">IF(L$8*L31=0,"",L$8*L31)</f>
         <v/>
       </c>
-      <c r="N31" s="27"/>
-      <c r="O31" s="28" t="str">
+      <c r="N31" s="26"/>
+      <c r="O31" s="27" t="str">
         <f t="shared" ref="O31" si="100">IF(N$8*N31=0,"",N$8*N31)</f>
         <v/>
       </c>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="29" t="str">
+      <c r="P31" s="26"/>
+      <c r="Q31" s="28" t="str">
         <f t="shared" ref="Q31" si="101">IF(P$8*P31=0,"",P$8*P31)</f>
         <v/>
       </c>
-      <c r="R31" s="30" t="str">
+      <c r="R31" s="29" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A32" s="26" t="str">
+      <c r="A32" s="25" t="str">
         <f t="shared" si="65"/>
         <v>22</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="28" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="28" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F32" s="27"/>
-      <c r="G32" s="28" t="str">
+      <c r="B32" s="26"/>
+      <c r="C32" s="27" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D32" s="26"/>
+      <c r="E32" s="27" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F32" s="26"/>
+      <c r="G32" s="27" t="str">
         <f t="shared" ref="G32" si="102">IF(F$8*F32=0,"",F$8*F32)</f>
         <v/>
       </c>
-      <c r="H32" s="27"/>
-      <c r="I32" s="28" t="str">
+      <c r="H32" s="26"/>
+      <c r="I32" s="27" t="str">
         <f t="shared" ref="I32" si="103">IF(H$8*H32=0,"",H$8*H32)</f>
         <v/>
       </c>
-      <c r="J32" s="27"/>
-      <c r="K32" s="28" t="str">
+      <c r="J32" s="26"/>
+      <c r="K32" s="27" t="str">
         <f t="shared" ref="K32" si="104">IF(J$8*J32=0,"",J$8*J32)</f>
         <v/>
       </c>
-      <c r="L32" s="27"/>
-      <c r="M32" s="28" t="str">
+      <c r="L32" s="26"/>
+      <c r="M32" s="27" t="str">
         <f t="shared" ref="M32" si="105">IF(L$8*L32=0,"",L$8*L32)</f>
         <v/>
       </c>
-      <c r="N32" s="27"/>
-      <c r="O32" s="28" t="str">
+      <c r="N32" s="26"/>
+      <c r="O32" s="27" t="str">
         <f t="shared" ref="O32" si="106">IF(N$8*N32=0,"",N$8*N32)</f>
         <v/>
       </c>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="29" t="str">
+      <c r="P32" s="26"/>
+      <c r="Q32" s="28" t="str">
         <f t="shared" ref="Q32" si="107">IF(P$8*P32=0,"",P$8*P32)</f>
         <v/>
       </c>
-      <c r="R32" s="30" t="str">
+      <c r="R32" s="29" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A33" s="26" t="str">
+      <c r="A33" s="25" t="str">
         <f t="shared" si="65"/>
         <v>23</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="28" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="28" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F33" s="27"/>
-      <c r="G33" s="28" t="str">
+      <c r="B33" s="26"/>
+      <c r="C33" s="27" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D33" s="26"/>
+      <c r="E33" s="27" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F33" s="26"/>
+      <c r="G33" s="27" t="str">
         <f t="shared" ref="G33" si="108">IF(F$8*F33=0,"",F$8*F33)</f>
         <v/>
       </c>
-      <c r="H33" s="27"/>
-      <c r="I33" s="28" t="str">
+      <c r="H33" s="26"/>
+      <c r="I33" s="27" t="str">
         <f t="shared" ref="I33" si="109">IF(H$8*H33=0,"",H$8*H33)</f>
         <v/>
       </c>
-      <c r="J33" s="27"/>
-      <c r="K33" s="28" t="str">
+      <c r="J33" s="26"/>
+      <c r="K33" s="27" t="str">
         <f t="shared" ref="K33" si="110">IF(J$8*J33=0,"",J$8*J33)</f>
         <v/>
       </c>
-      <c r="L33" s="27"/>
-      <c r="M33" s="28" t="str">
+      <c r="L33" s="26"/>
+      <c r="M33" s="27" t="str">
         <f t="shared" ref="M33" si="111">IF(L$8*L33=0,"",L$8*L33)</f>
         <v/>
       </c>
-      <c r="N33" s="27"/>
-      <c r="O33" s="28" t="str">
+      <c r="N33" s="26"/>
+      <c r="O33" s="27" t="str">
         <f t="shared" ref="O33" si="112">IF(N$8*N33=0,"",N$8*N33)</f>
         <v/>
       </c>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="29" t="str">
+      <c r="P33" s="26"/>
+      <c r="Q33" s="28" t="str">
         <f t="shared" ref="Q33" si="113">IF(P$8*P33=0,"",P$8*P33)</f>
         <v/>
       </c>
-      <c r="R33" s="30" t="str">
+      <c r="R33" s="29" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A34" s="26" t="str">
+      <c r="A34" s="25" t="str">
         <f t="shared" si="65"/>
         <v>24</v>
       </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="28" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="28" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F34" s="27"/>
-      <c r="G34" s="28" t="str">
+      <c r="B34" s="26"/>
+      <c r="C34" s="27" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D34" s="26"/>
+      <c r="E34" s="27" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F34" s="26"/>
+      <c r="G34" s="27" t="str">
         <f t="shared" ref="G34" si="114">IF(F$8*F34=0,"",F$8*F34)</f>
         <v/>
       </c>
-      <c r="H34" s="27"/>
-      <c r="I34" s="28" t="str">
+      <c r="H34" s="26"/>
+      <c r="I34" s="27" t="str">
         <f t="shared" ref="I34" si="115">IF(H$8*H34=0,"",H$8*H34)</f>
         <v/>
       </c>
-      <c r="J34" s="27"/>
-      <c r="K34" s="28" t="str">
+      <c r="J34" s="26"/>
+      <c r="K34" s="27" t="str">
         <f t="shared" ref="K34" si="116">IF(J$8*J34=0,"",J$8*J34)</f>
         <v/>
       </c>
-      <c r="L34" s="27"/>
-      <c r="M34" s="28" t="str">
+      <c r="L34" s="26"/>
+      <c r="M34" s="27" t="str">
         <f t="shared" ref="M34" si="117">IF(L$8*L34=0,"",L$8*L34)</f>
         <v/>
       </c>
-      <c r="N34" s="27"/>
-      <c r="O34" s="28" t="str">
+      <c r="N34" s="26"/>
+      <c r="O34" s="27" t="str">
         <f t="shared" ref="O34" si="118">IF(N$8*N34=0,"",N$8*N34)</f>
         <v/>
       </c>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="29" t="str">
+      <c r="P34" s="26"/>
+      <c r="Q34" s="28" t="str">
         <f t="shared" ref="Q34" si="119">IF(P$8*P34=0,"",P$8*P34)</f>
         <v/>
       </c>
-      <c r="R34" s="30" t="str">
+      <c r="R34" s="29" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A35" s="26" t="str">
+      <c r="A35" s="25" t="str">
         <f t="shared" si="65"/>
         <v>25</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="28" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D35" s="27"/>
-      <c r="E35" s="28" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F35" s="27"/>
-      <c r="G35" s="28" t="str">
+      <c r="B35" s="26"/>
+      <c r="C35" s="27" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D35" s="26"/>
+      <c r="E35" s="27" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F35" s="26"/>
+      <c r="G35" s="27" t="str">
         <f t="shared" ref="G35" si="120">IF(F$8*F35=0,"",F$8*F35)</f>
         <v/>
       </c>
-      <c r="H35" s="27"/>
-      <c r="I35" s="28" t="str">
+      <c r="H35" s="26"/>
+      <c r="I35" s="27" t="str">
         <f t="shared" ref="I35" si="121">IF(H$8*H35=0,"",H$8*H35)</f>
         <v/>
       </c>
-      <c r="J35" s="27"/>
-      <c r="K35" s="28" t="str">
+      <c r="J35" s="26"/>
+      <c r="K35" s="27" t="str">
         <f t="shared" ref="K35" si="122">IF(J$8*J35=0,"",J$8*J35)</f>
         <v/>
       </c>
-      <c r="L35" s="27"/>
-      <c r="M35" s="28" t="str">
+      <c r="L35" s="26"/>
+      <c r="M35" s="27" t="str">
         <f t="shared" ref="M35" si="123">IF(L$8*L35=0,"",L$8*L35)</f>
         <v/>
       </c>
-      <c r="N35" s="27"/>
-      <c r="O35" s="28" t="str">
+      <c r="N35" s="26"/>
+      <c r="O35" s="27" t="str">
         <f t="shared" ref="O35" si="124">IF(N$8*N35=0,"",N$8*N35)</f>
         <v/>
       </c>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="29" t="str">
+      <c r="P35" s="26"/>
+      <c r="Q35" s="28" t="str">
         <f t="shared" ref="Q35" si="125">IF(P$8*P35=0,"",P$8*P35)</f>
         <v/>
       </c>
-      <c r="R35" s="30" t="str">
+      <c r="R35" s="29" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A36" s="26" t="str">
+      <c r="A36" s="25" t="str">
         <f t="shared" si="65"/>
         <v>26</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="28" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D36" s="27"/>
-      <c r="E36" s="28" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F36" s="27"/>
-      <c r="G36" s="28" t="str">
+      <c r="B36" s="26"/>
+      <c r="C36" s="27" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D36" s="26"/>
+      <c r="E36" s="27" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F36" s="26"/>
+      <c r="G36" s="27" t="str">
         <f t="shared" ref="G36" si="126">IF(F$8*F36=0,"",F$8*F36)</f>
         <v/>
       </c>
-      <c r="H36" s="27"/>
-      <c r="I36" s="28" t="str">
+      <c r="H36" s="26"/>
+      <c r="I36" s="27" t="str">
         <f t="shared" ref="I36" si="127">IF(H$8*H36=0,"",H$8*H36)</f>
         <v/>
       </c>
-      <c r="J36" s="27"/>
-      <c r="K36" s="28" t="str">
+      <c r="J36" s="26"/>
+      <c r="K36" s="27" t="str">
         <f t="shared" ref="K36" si="128">IF(J$8*J36=0,"",J$8*J36)</f>
         <v/>
       </c>
-      <c r="L36" s="27"/>
-      <c r="M36" s="28" t="str">
+      <c r="L36" s="26"/>
+      <c r="M36" s="27" t="str">
         <f t="shared" ref="M36" si="129">IF(L$8*L36=0,"",L$8*L36)</f>
         <v/>
       </c>
-      <c r="N36" s="27"/>
-      <c r="O36" s="28" t="str">
+      <c r="N36" s="26"/>
+      <c r="O36" s="27" t="str">
         <f t="shared" ref="O36" si="130">IF(N$8*N36=0,"",N$8*N36)</f>
         <v/>
       </c>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="29" t="str">
+      <c r="P36" s="26"/>
+      <c r="Q36" s="28" t="str">
         <f t="shared" ref="Q36" si="131">IF(P$8*P36=0,"",P$8*P36)</f>
         <v/>
       </c>
-      <c r="R36" s="30" t="str">
+      <c r="R36" s="29" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A37" s="26" t="str">
+      <c r="A37" s="25" t="str">
         <f t="shared" si="65"/>
         <v>27</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="28" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D37" s="27"/>
-      <c r="E37" s="28" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F37" s="27"/>
-      <c r="G37" s="28" t="str">
+      <c r="B37" s="26"/>
+      <c r="C37" s="27" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D37" s="26"/>
+      <c r="E37" s="27" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F37" s="26"/>
+      <c r="G37" s="27" t="str">
         <f t="shared" ref="G37" si="132">IF(F$8*F37=0,"",F$8*F37)</f>
         <v/>
       </c>
-      <c r="H37" s="27"/>
-      <c r="I37" s="28" t="str">
+      <c r="H37" s="26"/>
+      <c r="I37" s="27" t="str">
         <f t="shared" ref="I37" si="133">IF(H$8*H37=0,"",H$8*H37)</f>
         <v/>
       </c>
-      <c r="J37" s="27"/>
-      <c r="K37" s="28" t="str">
+      <c r="J37" s="26"/>
+      <c r="K37" s="27" t="str">
         <f t="shared" ref="K37" si="134">IF(J$8*J37=0,"",J$8*J37)</f>
         <v/>
       </c>
-      <c r="L37" s="27"/>
-      <c r="M37" s="28" t="str">
+      <c r="L37" s="26"/>
+      <c r="M37" s="27" t="str">
         <f t="shared" ref="M37" si="135">IF(L$8*L37=0,"",L$8*L37)</f>
         <v/>
       </c>
-      <c r="N37" s="27"/>
-      <c r="O37" s="28" t="str">
+      <c r="N37" s="26"/>
+      <c r="O37" s="27" t="str">
         <f t="shared" ref="O37" si="136">IF(N$8*N37=0,"",N$8*N37)</f>
         <v/>
       </c>
-      <c r="P37" s="27"/>
-      <c r="Q37" s="29" t="str">
+      <c r="P37" s="26"/>
+      <c r="Q37" s="28" t="str">
         <f t="shared" ref="Q37" si="137">IF(P$8*P37=0,"",P$8*P37)</f>
         <v/>
       </c>
-      <c r="R37" s="30" t="str">
+      <c r="R37" s="29" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A38" s="26" t="str">
+      <c r="A38" s="25" t="str">
         <f t="shared" si="65"/>
         <v>28</v>
       </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="28" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D38" s="27"/>
-      <c r="E38" s="28" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F38" s="27"/>
-      <c r="G38" s="28" t="str">
+      <c r="B38" s="26"/>
+      <c r="C38" s="27" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D38" s="26"/>
+      <c r="E38" s="27" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F38" s="26"/>
+      <c r="G38" s="27" t="str">
         <f t="shared" ref="G38" si="138">IF(F$8*F38=0,"",F$8*F38)</f>
         <v/>
       </c>
-      <c r="H38" s="27"/>
-      <c r="I38" s="28" t="str">
+      <c r="H38" s="26"/>
+      <c r="I38" s="27" t="str">
         <f t="shared" ref="I38" si="139">IF(H$8*H38=0,"",H$8*H38)</f>
         <v/>
       </c>
-      <c r="J38" s="27"/>
-      <c r="K38" s="28" t="str">
+      <c r="J38" s="26"/>
+      <c r="K38" s="27" t="str">
         <f t="shared" ref="K38" si="140">IF(J$8*J38=0,"",J$8*J38)</f>
         <v/>
       </c>
-      <c r="L38" s="27"/>
-      <c r="M38" s="28" t="str">
+      <c r="L38" s="26"/>
+      <c r="M38" s="27" t="str">
         <f t="shared" ref="M38" si="141">IF(L$8*L38=0,"",L$8*L38)</f>
         <v/>
       </c>
-      <c r="N38" s="27"/>
-      <c r="O38" s="28" t="str">
+      <c r="N38" s="26"/>
+      <c r="O38" s="27" t="str">
         <f t="shared" ref="O38" si="142">IF(N$8*N38=0,"",N$8*N38)</f>
         <v/>
       </c>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="29" t="str">
+      <c r="P38" s="26"/>
+      <c r="Q38" s="28" t="str">
         <f t="shared" ref="Q38" si="143">IF(P$8*P38=0,"",P$8*P38)</f>
         <v/>
       </c>
-      <c r="R38" s="30" t="str">
+      <c r="R38" s="29" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A39" s="26" t="str">
+      <c r="A39" s="25" t="str">
         <f t="shared" si="65"/>
         <v>29</v>
       </c>
-      <c r="B39" s="27"/>
-      <c r="C39" s="28" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D39" s="27"/>
-      <c r="E39" s="28" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F39" s="27"/>
-      <c r="G39" s="28" t="str">
+      <c r="B39" s="26"/>
+      <c r="C39" s="27" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D39" s="26"/>
+      <c r="E39" s="27" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F39" s="26"/>
+      <c r="G39" s="27" t="str">
         <f t="shared" ref="G39" si="144">IF(F$8*F39=0,"",F$8*F39)</f>
         <v/>
       </c>
-      <c r="H39" s="27"/>
-      <c r="I39" s="28" t="str">
+      <c r="H39" s="26"/>
+      <c r="I39" s="27" t="str">
         <f t="shared" ref="I39" si="145">IF(H$8*H39=0,"",H$8*H39)</f>
         <v/>
       </c>
-      <c r="J39" s="27"/>
-      <c r="K39" s="28" t="str">
+      <c r="J39" s="26"/>
+      <c r="K39" s="27" t="str">
         <f t="shared" ref="K39" si="146">IF(J$8*J39=0,"",J$8*J39)</f>
         <v/>
       </c>
-      <c r="L39" s="27"/>
-      <c r="M39" s="28" t="str">
+      <c r="L39" s="26"/>
+      <c r="M39" s="27" t="str">
         <f t="shared" ref="M39" si="147">IF(L$8*L39=0,"",L$8*L39)</f>
         <v/>
       </c>
-      <c r="N39" s="27"/>
-      <c r="O39" s="28" t="str">
+      <c r="N39" s="26"/>
+      <c r="O39" s="27" t="str">
         <f t="shared" ref="O39" si="148">IF(N$8*N39=0,"",N$8*N39)</f>
         <v/>
       </c>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="29" t="str">
+      <c r="P39" s="26"/>
+      <c r="Q39" s="28" t="str">
         <f t="shared" ref="Q39" si="149">IF(P$8*P39=0,"",P$8*P39)</f>
         <v/>
       </c>
-      <c r="R39" s="30" t="str">
+      <c r="R39" s="29" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A40" s="26" t="str">
+      <c r="A40" s="25" t="str">
         <f t="shared" si="65"/>
         <v>30</v>
       </c>
-      <c r="B40" s="27"/>
-      <c r="C40" s="28" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D40" s="27"/>
-      <c r="E40" s="28" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F40" s="27"/>
-      <c r="G40" s="28" t="str">
+      <c r="B40" s="26"/>
+      <c r="C40" s="27" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D40" s="26"/>
+      <c r="E40" s="27" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F40" s="26"/>
+      <c r="G40" s="27" t="str">
         <f t="shared" ref="G40" si="150">IF(F$8*F40=0,"",F$8*F40)</f>
         <v/>
       </c>
-      <c r="H40" s="27"/>
-      <c r="I40" s="28" t="str">
+      <c r="H40" s="26"/>
+      <c r="I40" s="27" t="str">
         <f t="shared" ref="I40" si="151">IF(H$8*H40=0,"",H$8*H40)</f>
         <v/>
       </c>
-      <c r="J40" s="27"/>
-      <c r="K40" s="28" t="str">
+      <c r="J40" s="26"/>
+      <c r="K40" s="27" t="str">
         <f t="shared" ref="K40" si="152">IF(J$8*J40=0,"",J$8*J40)</f>
         <v/>
       </c>
-      <c r="L40" s="27"/>
-      <c r="M40" s="28" t="str">
+      <c r="L40" s="26"/>
+      <c r="M40" s="27" t="str">
         <f t="shared" ref="M40" si="153">IF(L$8*L40=0,"",L$8*L40)</f>
         <v/>
       </c>
-      <c r="N40" s="27"/>
-      <c r="O40" s="28" t="str">
+      <c r="N40" s="26"/>
+      <c r="O40" s="27" t="str">
         <f t="shared" ref="O40" si="154">IF(N$8*N40=0,"",N$8*N40)</f>
         <v/>
       </c>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="29" t="str">
+      <c r="P40" s="26"/>
+      <c r="Q40" s="28" t="str">
         <f t="shared" ref="Q40" si="155">IF(P$8*P40=0,"",P$8*P40)</f>
         <v/>
       </c>
-      <c r="R40" s="30" t="str">
+      <c r="R40" s="29" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A41" s="31" t="str">
+      <c r="A41" s="30" t="str">
         <f t="shared" si="65"/>
         <v>31</v>
       </c>
-      <c r="B41" s="32"/>
-      <c r="C41" s="33" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D41" s="32"/>
-      <c r="E41" s="33" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F41" s="32"/>
-      <c r="G41" s="33" t="str">
+      <c r="B41" s="31"/>
+      <c r="C41" s="32" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="D41" s="31"/>
+      <c r="E41" s="32" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F41" s="31"/>
+      <c r="G41" s="32" t="str">
         <f t="shared" ref="G41" si="156">IF(F$8*F41=0,"",F$8*F41)</f>
         <v/>
       </c>
-      <c r="H41" s="32"/>
-      <c r="I41" s="33" t="str">
+      <c r="H41" s="31"/>
+      <c r="I41" s="32" t="str">
         <f t="shared" ref="I41" si="157">IF(H$8*H41=0,"",H$8*H41)</f>
         <v/>
       </c>
-      <c r="J41" s="32"/>
-      <c r="K41" s="33" t="str">
+      <c r="J41" s="31"/>
+      <c r="K41" s="32" t="str">
         <f t="shared" ref="K41" si="158">IF(J$8*J41=0,"",J$8*J41)</f>
         <v/>
       </c>
-      <c r="L41" s="32"/>
-      <c r="M41" s="33" t="str">
+      <c r="L41" s="31"/>
+      <c r="M41" s="32" t="str">
         <f t="shared" ref="M41" si="159">IF(L$8*L41=0,"",L$8*L41)</f>
         <v/>
       </c>
-      <c r="N41" s="32"/>
-      <c r="O41" s="33" t="str">
+      <c r="N41" s="31"/>
+      <c r="O41" s="32" t="str">
         <f t="shared" ref="O41" si="160">IF(N$8*N41=0,"",N$8*N41)</f>
         <v/>
       </c>
-      <c r="P41" s="32"/>
-      <c r="Q41" s="34" t="str">
+      <c r="P41" s="31"/>
+      <c r="Q41" s="33" t="str">
         <f t="shared" ref="Q41" si="161">IF(P$8*P41=0,"",P$8*P41)</f>
         <v/>
       </c>
-      <c r="R41" s="35" t="str">
+      <c r="R41" s="34" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A42" s="36" t="s">
+      <c r="A42" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="37" t="str">
+      <c r="B42" s="36" t="str">
         <f>IF(SUM(B11:B41)=0,"",SUM(B11:B41))</f>
         <v/>
       </c>
-      <c r="C42" s="38" t="str">
+      <c r="C42" s="37" t="str">
         <f>IF(SUM(C11:C41)=0,"",SUM(C11:C41))</f>
         <v/>
       </c>
-      <c r="D42" s="37" t="str">
+      <c r="D42" s="36" t="str">
         <f t="shared" ref="D42:Q42" si="162">IF(SUM(D11:D41)=0,"",SUM(D11:D41))</f>
         <v/>
       </c>
-      <c r="E42" s="38" t="str">
+      <c r="E42" s="37" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="F42" s="37" t="str">
+      <c r="F42" s="36" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="G42" s="38" t="str">
+      <c r="G42" s="37" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="H42" s="37" t="str">
+      <c r="H42" s="36" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="I42" s="38" t="str">
+      <c r="I42" s="37" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="J42" s="37" t="str">
+      <c r="J42" s="36" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="K42" s="38" t="str">
+      <c r="K42" s="37" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="L42" s="37" t="str">
+      <c r="L42" s="36" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="M42" s="38" t="str">
+      <c r="M42" s="37" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="N42" s="37" t="str">
+      <c r="N42" s="36" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="O42" s="38" t="str">
+      <c r="O42" s="37" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="P42" s="37" t="str">
+      <c r="P42" s="36" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="Q42" s="38" t="str">
+      <c r="Q42" s="37" t="str">
         <f t="shared" si="162"/>
         <v/>
       </c>
-      <c r="R42" s="39" t="str">
+      <c r="R42" s="38" t="str">
         <f>IF(SUM(R11:R41)=0,"",SUM(R11:R41))</f>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="O44" s="40"/>
+      <c r="O44" s="39"/>
       <c r="R44" s="3" t="s">
         <v>16</v>
       </c>
@@ -3135,28 +3137,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J4:K5"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="I1:K2"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D4:E5"/>
-    <mergeCell ref="F4:G5"/>
-    <mergeCell ref="H4:I5"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
+  <mergeCells count="36">
     <mergeCell ref="R7:R9"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="Q3:R3"/>
@@ -3171,6 +3152,28 @@
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="N4:O5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D4:E5"/>
+    <mergeCell ref="F4:G5"/>
+    <mergeCell ref="H4:I5"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J4:K5"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="J7:K7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
